--- a/角色卡/FAG英灵角色卡v0.5.xlsx
+++ b/角色卡/FAG英灵角色卡v0.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxlyl\OneDrive\文档\Others\TRPG\人物卡\Fate Atrous Grail\0.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D081BEC-D7A0-4295-896E-BE6057E72FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{2D081BEC-D7A0-4295-896E-BE6057E72FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A339B6B1-DCD7-4866-9296-2810BE5C4EEF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="235">
   <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,10 +619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宝具投掷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝具评级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,10 +661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔力消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二宝具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -944,11 +933,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FGO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSF</t>
+    <t>宝具消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fate / Strange Fake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fate / Grand Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +960,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,6 +1053,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1709,7 +1718,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1822,9 +1831,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1834,12 +1840,411 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1849,36 +2254,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1897,15 +2278,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1915,375 +2287,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
@@ -2573,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25:X25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2587,62 +2598,62 @@
   <sheetData>
     <row r="1" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="I2" s="104" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="120"/>
+      <c r="I2" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
-      <c r="O2" s="104" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
+      <c r="O2" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="106"/>
-      <c r="U2" s="104" t="s">
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="120"/>
+      <c r="U2" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="106"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="120"/>
     </row>
     <row r="3" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="185"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="160"/>
       <c r="I3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="161"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="163"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
       <c r="O3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="163"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="138"/>
       <c r="U3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2672,11 +2683,11 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="183"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="159"/>
       <c r="I4" s="41" t="s">
         <v>96</v>
       </c>
@@ -2736,18 +2747,18 @@
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="138"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I5" s="44"/>
       <c r="J5" s="45"/>
@@ -2788,25 +2799,25 @@
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="183"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="159"/>
       <c r="I6" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="170"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="172"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="141"/>
       <c r="O6" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="172"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="141"/>
       <c r="U6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2836,23 +2847,23 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="158"/>
       <c r="I7" s="44"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="175"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="144"/>
       <c r="O7" s="44"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="175"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="144"/>
       <c r="U7" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="V7" s="59">
         <v>3</v>
@@ -2880,27 +2891,27 @@
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="182"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="157"/>
       <c r="I8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="180"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="147"/>
       <c r="O8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="179"/>
-      <c r="R8" s="179"/>
-      <c r="S8" s="180"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="147"/>
       <c r="U8" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="V8" s="60">
         <v>3</v>
@@ -2928,17 +2939,17 @@
       <c r="I9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="176"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="177"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="149"/>
       <c r="O9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="177"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="149"/>
       <c r="U9" s="8" t="s">
         <v>5</v>
       </c>
@@ -2959,30 +2970,30 @@
       <c r="AB9" s="11"/>
     </row>
     <row r="10" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="200" t="s">
+      <c r="B10" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="201"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="104" t="s">
+      <c r="C10" s="163"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="I10" s="121" t="s">
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="I10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="164"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="166"/>
-      <c r="O10" s="121" t="s">
+      <c r="J10" s="150"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="152"/>
+      <c r="O10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="166"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="152"/>
       <c r="U10" s="5" t="s">
         <v>59</v>
       </c>
@@ -3000,24 +3011,24 @@
       <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="203"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="205"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="167"/>
       <c r="E11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="184"/>
-      <c r="G11" s="185"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="166"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="165"/>
-      <c r="S11" s="166"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="160"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="152"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="152"/>
       <c r="U11" s="8" t="s">
         <v>60</v>
       </c>
@@ -3035,24 +3046,24 @@
       <c r="AB11" s="27"/>
     </row>
     <row r="12" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="203"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="205"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="167"/>
       <c r="E12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="186"/>
-      <c r="G12" s="183"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="169"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="169"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="159"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="155"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="155"/>
       <c r="U12" s="28" t="s">
         <v>6</v>
       </c>
@@ -3063,8 +3074,8 @@
       <c r="X12" s="53"/>
       <c r="Y12" s="53"/>
       <c r="Z12" s="29" t="str">
-        <f>VLOOKUP($V12, 属性评级!F3:G13,2,FALSE)</f>
-        <v>E</v>
+        <f>VLOOKUP(MAX(Z28+AB28, Z46+AB46,Z64+AB64),属性评级!$I$3:$J$15,2,TRUE)</f>
+        <v>E-</v>
       </c>
       <c r="AA12" s="61">
         <f>V12</f>
@@ -3073,14 +3084,14 @@
       <c r="AB12" s="30"/>
     </row>
     <row r="13" spans="2:28" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="203"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="205"/>
-      <c r="E13" s="209" t="s">
+      <c r="B13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="210"/>
-      <c r="G13" s="211"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="173"/>
       <c r="U13" s="8" t="s">
         <v>75</v>
       </c>
@@ -3107,28 +3118,28 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="203"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="205"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="167"/>
       <c r="E14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="186"/>
-      <c r="G14" s="183"/>
-      <c r="I14" s="104" t="s">
+      <c r="F14" s="161"/>
+      <c r="G14" s="159"/>
+      <c r="I14" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106"/>
-      <c r="O14" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="106"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="120"/>
+      <c r="O14" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="120"/>
       <c r="U14" s="12" t="s">
         <v>72</v>
       </c>
@@ -3158,122 +3169,125 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="203"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="205"/>
-      <c r="E15" s="155" t="s">
+      <c r="B15" s="165"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="157"/>
+      <c r="F15" s="176"/>
       <c r="G15" s="158"/>
       <c r="I15" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="161"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="163"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="138"/>
       <c r="O15" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="163"/>
+        <v>188</v>
+      </c>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="138"/>
     </row>
     <row r="16" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="206"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="160"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="178"/>
       <c r="I16" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="J16" s="123"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="125"/>
+        <v>220</v>
+      </c>
+      <c r="J16" s="205"/>
+      <c r="K16" s="206"/>
+      <c r="L16" s="206"/>
+      <c r="M16" s="207"/>
       <c r="O16" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P16" s="42" t="s">
         <v>54</v>
       </c>
       <c r="Q16" s="42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S16" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="U16" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="U16" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="105"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="105"/>
-      <c r="AB16" s="106"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="120"/>
     </row>
     <row r="17" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="44"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="128"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="209"/>
+      <c r="M17" s="210"/>
       <c r="O17" s="44"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
       <c r="R17" s="45"/>
       <c r="S17" s="46"/>
       <c r="U17" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="V17" s="184"/>
-      <c r="W17" s="184"/>
-      <c r="X17" s="184"/>
-      <c r="Y17" s="184"/>
-      <c r="Z17" s="184"/>
+        <v>164</v>
+      </c>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
       <c r="AA17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="16" t="str">
+        <f>VLOOKUP(Z28+AB28, 属性评级!$I$3:$J$15, 2, TRUE)</f>
+        <v>E-</v>
+      </c>
     </row>
     <row r="18" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="106"/>
+      <c r="B18" s="118" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="120"/>
       <c r="I18" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="J18" s="170"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="172"/>
+        <v>221</v>
+      </c>
+      <c r="J18" s="139"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="141"/>
       <c r="O18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="172"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="141"/>
       <c r="U18" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="V18" s="153"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
+        <v>176</v>
+      </c>
+      <c r="V18" s="99"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
       <c r="Y18" s="6" t="s">
         <v>15</v>
       </c>
@@ -3297,27 +3311,27 @@
         <v>66</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>197</v>
       </c>
       <c r="I19" s="44"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="174"/>
-      <c r="L19" s="174"/>
-      <c r="M19" s="175"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="144"/>
       <c r="O19" s="44"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="174"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="175"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="144"/>
       <c r="U19" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V19" s="97"/>
-      <c r="W19" s="138"/>
-      <c r="X19" s="138"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
       <c r="Y19" s="10" t="s">
         <v>15</v>
       </c>
@@ -3354,23 +3368,23 @@
       <c r="I20" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="178"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="180"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="147"/>
       <c r="O20" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="P20" s="178"/>
-      <c r="Q20" s="179"/>
-      <c r="R20" s="179"/>
-      <c r="S20" s="180"/>
+        <v>193</v>
+      </c>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="147"/>
       <c r="U20" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="V20" s="153"/>
-      <c r="W20" s="154"/>
-      <c r="X20" s="154"/>
+        <v>178</v>
+      </c>
+      <c r="V20" s="99"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
       <c r="Y20" s="6" t="s">
         <v>15</v>
       </c>
@@ -3407,23 +3421,23 @@
       <c r="I21" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="176"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="177"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="149"/>
       <c r="O21" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="177"/>
+        <v>194</v>
+      </c>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="149"/>
       <c r="U21" s="8" t="s">
         <v>109</v>
       </c>
       <c r="V21" s="70"/>
       <c r="W21" s="71" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="X21" s="71">
         <f>W28+Z28+AB28</f>
@@ -3436,7 +3450,7 @@
       <c r="AA21" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="AB21" s="71"/>
+      <c r="AB21" s="243"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
@@ -3457,28 +3471,28 @@
       <c r="G22" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="121" t="s">
+      <c r="I22" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="164"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="166"/>
-      <c r="O22" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="166"/>
-      <c r="U22" s="239" t="s">
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="152"/>
+      <c r="O22" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="152"/>
+      <c r="U22" s="102" t="s">
         <v>52</v>
       </c>
       <c r="V22" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="W22" s="238"/>
-      <c r="X22" s="238"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
       <c r="Y22" s="47" t="s">
         <v>49</v>
       </c>
@@ -3498,27 +3512,27 @@
       </c>
       <c r="D23" s="22" t="str">
         <f>Z12</f>
-        <v>E</v>
+        <v>E-</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="166"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="166"/>
-      <c r="U23" s="121"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="152"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="152"/>
+      <c r="U23" s="103"/>
       <c r="V23" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W23" s="237"/>
-      <c r="X23" s="237"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
       <c r="Y23" s="54" t="s">
         <v>15</v>
       </c>
@@ -3551,22 +3565,22 @@
       <c r="G24" s="25">
         <v>10</v>
       </c>
-      <c r="I24" s="149"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="169"/>
-      <c r="O24" s="149"/>
-      <c r="P24" s="167"/>
-      <c r="Q24" s="168"/>
-      <c r="R24" s="168"/>
-      <c r="S24" s="169"/>
-      <c r="U24" s="121"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="155"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="155"/>
+      <c r="U24" s="103"/>
       <c r="V24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
       <c r="Y24" s="10" t="s">
         <v>49</v>
       </c>
@@ -3577,12 +3591,12 @@
       <c r="AB24" s="11"/>
     </row>
     <row r="25" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U25" s="121"/>
+      <c r="U25" s="103"/>
       <c r="V25" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W25" s="237"/>
-      <c r="X25" s="237"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
       <c r="Y25" s="54" t="s">
         <v>15</v>
       </c>
@@ -3593,33 +3607,33 @@
       <c r="AB25" s="55"/>
     </row>
     <row r="26" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="212" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="214"/>
-      <c r="I26" s="104" t="s">
+      <c r="B26" s="196" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="198"/>
+      <c r="I26" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="106"/>
-      <c r="U26" s="121"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="120"/>
+      <c r="U26" s="103"/>
       <c r="V26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
+      <c r="W26" s="107"/>
+      <c r="X26" s="107"/>
       <c r="Y26" s="10" t="s">
         <v>49</v>
       </c>
@@ -3649,11 +3663,11 @@
         <v>32</v>
       </c>
       <c r="J27" s="97"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
-      <c r="O27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="117"/>
       <c r="P27" s="9" t="s">
         <v>30</v>
       </c>
@@ -3664,12 +3678,12 @@
         <v>2</v>
       </c>
       <c r="S27" s="11"/>
-      <c r="U27" s="139"/>
+      <c r="U27" s="104"/>
       <c r="V27" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="W27" s="152"/>
-      <c r="X27" s="152"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
       <c r="Y27" s="56" t="s">
         <v>15</v>
       </c>
@@ -3701,24 +3715,24 @@
         <f>D21</f>
         <v>10</v>
       </c>
-      <c r="I28" s="121" t="s">
+      <c r="I28" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="142"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="113"/>
       <c r="U28" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="240"/>
-      <c r="W28" s="240"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
       <c r="X28" s="49" t="s">
         <v>107</v>
       </c>
@@ -3759,38 +3773,38 @@
         <f>G21</f>
         <v>10</v>
       </c>
-      <c r="I29" s="139"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="144"/>
-      <c r="S29" s="145"/>
-      <c r="U29" s="121" t="s">
+      <c r="I29" s="104"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="123"/>
+      <c r="U29" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="V29" s="113"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="114"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="115"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="93"/>
     </row>
     <row r="30" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="79" t="s">
-        <v>189</v>
+      <c r="B30" s="242" t="s">
+        <v>186</v>
       </c>
       <c r="C30" s="83">
         <f>SUM(V4:V11)</f>
         <v>24</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E30" s="80">
         <f>CEILING(C30 / 5, 1)</f>
@@ -3799,14 +3813,14 @@
       <c r="F30" s="81"/>
       <c r="G30" s="19"/>
       <c r="I30" s="40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J30" s="97"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="117"/>
       <c r="P30" s="9" t="s">
         <v>30</v>
       </c>
@@ -3817,14 +3831,14 @@
         <v>2</v>
       </c>
       <c r="S30" s="11"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="115"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="93"/>
     </row>
     <row r="31" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
@@ -3848,27 +3862,27 @@
         <f>C24</f>
         <v>10</v>
       </c>
-      <c r="I31" s="121" t="s">
+      <c r="I31" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="140"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="142"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="113"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114"/>
-      <c r="Y31" s="114"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="115"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="113"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="93"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
@@ -3886,31 +3900,31 @@
         <v>10</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="88">
+        <v>202</v>
+      </c>
+      <c r="G32" s="87">
         <f>MIN(E24,F24)</f>
         <v>3</v>
       </c>
-      <c r="I32" s="139"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="144"/>
-      <c r="P32" s="144"/>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="144"/>
-      <c r="S32" s="145"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="114"/>
-      <c r="Z32" s="114"/>
-      <c r="AA32" s="114"/>
-      <c r="AB32" s="115"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="123"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="93"/>
     </row>
     <row r="33" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -3921,27 +3935,27 @@
         <v>30</v>
       </c>
       <c r="D33" s="78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33" s="77">
         <f>C21* 2</f>
         <v>20</v>
       </c>
       <c r="F33" s="77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J33" s="97"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="138"/>
-      <c r="N33" s="138"/>
-      <c r="O33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="117"/>
       <c r="P33" s="9" t="s">
         <v>30</v>
       </c>
@@ -3952,121 +3966,124 @@
         <v>2</v>
       </c>
       <c r="S33" s="11"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="113"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="114"/>
-      <c r="Z33" s="114"/>
-      <c r="AA33" s="114"/>
-      <c r="AB33" s="115"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="93"/>
     </row>
     <row r="34" spans="2:28" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C34" s="80">
         <v>1</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E34" s="83">
         <v>1</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G34" s="19">
         <v>1</v>
       </c>
-      <c r="I34" s="121" t="s">
+      <c r="I34" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="140"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="141"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="141"/>
-      <c r="S34" s="142"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="146"/>
-      <c r="W34" s="147"/>
-      <c r="X34" s="147"/>
-      <c r="Y34" s="147"/>
-      <c r="Z34" s="147"/>
-      <c r="AA34" s="147"/>
-      <c r="AB34" s="148"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="113"/>
+      <c r="U34" s="110"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="96"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B35" s="215" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="216"/>
+      <c r="B35" s="199" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="200"/>
       <c r="D35" s="34">
         <v>30</v>
       </c>
-      <c r="E35" s="217" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" s="216"/>
+      <c r="E35" s="201" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="200"/>
       <c r="G35" s="38">
         <f>D35*2</f>
         <v>60</v>
       </c>
-      <c r="I35" s="139"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="144"/>
-      <c r="P35" s="144"/>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="144"/>
-      <c r="S35" s="145"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="123"/>
       <c r="U35" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="V35" s="184"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="184"/>
-      <c r="Y35" s="184"/>
-      <c r="Z35" s="184"/>
+        <v>162</v>
+      </c>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="101"/>
+      <c r="Y35" s="101"/>
+      <c r="Z35" s="101"/>
       <c r="AA35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AB35" s="16"/>
+      <c r="AB35" s="16" t="str">
+        <f>VLOOKUP(Z46+AB46, 属性评级!$I$3:$J$15, 2, TRUE)</f>
+        <v>E-</v>
+      </c>
     </row>
     <row r="36" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="218" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="219"/>
+      <c r="B36" s="202" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="203"/>
       <c r="D36" s="35">
         <v>50</v>
       </c>
-      <c r="E36" s="220" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="219"/>
+      <c r="E36" s="204" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="203"/>
       <c r="G36" s="7">
         <f>D36*2</f>
         <v>100</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J36" s="97"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="138"/>
-      <c r="O36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="117"/>
       <c r="P36" s="9" t="s">
         <v>30</v>
       </c>
@@ -4078,11 +4095,11 @@
       </c>
       <c r="S36" s="11"/>
       <c r="U36" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="V36" s="153"/>
-      <c r="W36" s="154"/>
-      <c r="X36" s="154"/>
+        <v>176</v>
+      </c>
+      <c r="V36" s="99"/>
+      <c r="W36" s="100"/>
+      <c r="X36" s="100"/>
       <c r="Y36" s="6" t="s">
         <v>15</v>
       </c>
@@ -4094,38 +4111,38 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="221" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C37" s="222"/>
       <c r="D37" s="78" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E37" s="223" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F37" s="222"/>
       <c r="G37" s="11">
         <v>0</v>
       </c>
-      <c r="I37" s="121" t="s">
+      <c r="I37" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="140"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="141"/>
-      <c r="N37" s="141"/>
-      <c r="O37" s="141"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="141"/>
-      <c r="R37" s="141"/>
-      <c r="S37" s="142"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="112"/>
+      <c r="R37" s="112"/>
+      <c r="S37" s="113"/>
       <c r="U37" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V37" s="97"/>
-      <c r="W37" s="138"/>
-      <c r="X37" s="138"/>
+      <c r="W37" s="98"/>
+      <c r="X37" s="98"/>
       <c r="Y37" s="10" t="s">
         <v>15</v>
       </c>
@@ -4137,36 +4154,36 @@
     </row>
     <row r="38" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="224" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="103"/>
+        <v>209</v>
+      </c>
+      <c r="C38" s="225"/>
       <c r="D38" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" s="102" t="s">
-        <v>213</v>
-      </c>
-      <c r="F38" s="103"/>
+        <v>219</v>
+      </c>
+      <c r="E38" s="230" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="225"/>
       <c r="G38" s="19">
         <v>0</v>
       </c>
-      <c r="I38" s="139"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
-      <c r="Q38" s="144"/>
-      <c r="R38" s="144"/>
-      <c r="S38" s="145"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="123"/>
       <c r="U38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="V38" s="153"/>
-      <c r="W38" s="154"/>
-      <c r="X38" s="154"/>
+        <v>178</v>
+      </c>
+      <c r="V38" s="99"/>
+      <c r="W38" s="100"/>
+      <c r="X38" s="100"/>
       <c r="Y38" s="6" t="s">
         <v>15</v>
       </c>
@@ -4178,14 +4195,14 @@
     </row>
     <row r="39" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I39" s="40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J39" s="97"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="138"/>
-      <c r="O39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="117"/>
       <c r="P39" s="9" t="s">
         <v>30</v>
       </c>
@@ -4201,7 +4218,7 @@
       </c>
       <c r="V39" s="70"/>
       <c r="W39" s="71" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="X39" s="71">
         <f>W46+Z46+AB46</f>
@@ -4214,38 +4231,38 @@
       <c r="AA39" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="AB39" s="71"/>
+      <c r="AB39" s="243"/>
     </row>
     <row r="40" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="106"/>
-      <c r="I40" s="121" t="s">
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="120"/>
+      <c r="I40" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="140"/>
-      <c r="K40" s="141"/>
-      <c r="L40" s="141"/>
-      <c r="M40" s="141"/>
-      <c r="N40" s="141"/>
-      <c r="O40" s="141"/>
-      <c r="P40" s="141"/>
-      <c r="Q40" s="141"/>
-      <c r="R40" s="141"/>
-      <c r="S40" s="142"/>
-      <c r="U40" s="239" t="s">
+      <c r="J40" s="111"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="113"/>
+      <c r="U40" s="102" t="s">
         <v>52</v>
       </c>
       <c r="V40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="W40" s="238"/>
-      <c r="X40" s="238"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="105"/>
       <c r="Y40" s="47" t="s">
         <v>49</v>
       </c>
@@ -4256,31 +4273,31 @@
       <c r="AB40" s="38"/>
     </row>
     <row r="41" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="196" t="s">
+      <c r="B41" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="185"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="101"/>
-      <c r="U41" s="121"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="160"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="115"/>
+      <c r="M41" s="115"/>
+      <c r="N41" s="115"/>
+      <c r="O41" s="115"/>
+      <c r="P41" s="115"/>
+      <c r="Q41" s="115"/>
+      <c r="R41" s="115"/>
+      <c r="S41" s="116"/>
+      <c r="U41" s="103"/>
       <c r="V41" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W41" s="237"/>
-      <c r="X41" s="237"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="106"/>
       <c r="Y41" s="54" t="s">
         <v>15</v>
       </c>
@@ -4291,20 +4308,20 @@
       <c r="AB41" s="55"/>
     </row>
     <row r="42" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="191" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="183"/>
-      <c r="U42" s="121"/>
+      <c r="B42" s="180" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="181"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="159"/>
+      <c r="U42" s="103"/>
       <c r="V42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W42" s="151"/>
-      <c r="X42" s="151"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
       <c r="Y42" s="10" t="s">
         <v>49</v>
       </c>
@@ -4315,33 +4332,33 @@
       <c r="AB42" s="11"/>
     </row>
     <row r="43" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="193"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="188"/>
-      <c r="I43" s="104" t="s">
+      <c r="C43" s="182"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="184"/>
+      <c r="I43" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
-      <c r="S43" s="106"/>
-      <c r="U43" s="121"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="119"/>
+      <c r="N43" s="119"/>
+      <c r="O43" s="119"/>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="119"/>
+      <c r="R43" s="119"/>
+      <c r="S43" s="120"/>
+      <c r="U43" s="103"/>
       <c r="V43" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W43" s="237"/>
-      <c r="X43" s="237"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="106"/>
       <c r="Y43" s="54" t="s">
         <v>15</v>
       </c>
@@ -4352,21 +4369,21 @@
       <c r="AB43" s="55"/>
     </row>
     <row r="44" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="120"/>
-      <c r="C44" s="193"/>
-      <c r="D44" s="187"/>
-      <c r="E44" s="187"/>
-      <c r="F44" s="187"/>
-      <c r="G44" s="188"/>
+      <c r="B44" s="191"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="184"/>
       <c r="I44" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="225"/>
-      <c r="K44" s="226"/>
-      <c r="L44" s="226"/>
-      <c r="M44" s="226"/>
-      <c r="N44" s="226"/>
-      <c r="O44" s="227"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="126"/>
       <c r="P44" s="9" t="s">
         <v>30</v>
       </c>
@@ -4377,12 +4394,12 @@
         <v>2</v>
       </c>
       <c r="S44" s="11"/>
-      <c r="U44" s="121"/>
+      <c r="U44" s="103"/>
       <c r="V44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W44" s="151"/>
-      <c r="X44" s="151"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
       <c r="Y44" s="10" t="s">
         <v>49</v>
       </c>
@@ -4393,31 +4410,31 @@
       <c r="AB44" s="11"/>
     </row>
     <row r="45" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="120"/>
-      <c r="C45" s="193"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="188"/>
-      <c r="I45" s="121" t="s">
+      <c r="B45" s="191"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="183"/>
+      <c r="G45" s="184"/>
+      <c r="I45" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="140"/>
-      <c r="K45" s="141"/>
-      <c r="L45" s="141"/>
-      <c r="M45" s="141"/>
-      <c r="N45" s="141"/>
-      <c r="O45" s="141"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="141"/>
-      <c r="R45" s="141"/>
-      <c r="S45" s="142"/>
-      <c r="U45" s="139"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="112"/>
+      <c r="S45" s="113"/>
+      <c r="U45" s="104"/>
       <c r="V45" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="W45" s="152"/>
-      <c r="X45" s="152"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="108"/>
       <c r="Y45" s="56" t="s">
         <v>15</v>
       </c>
@@ -4428,28 +4445,28 @@
       <c r="AB45" s="57"/>
     </row>
     <row r="46" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="120"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="188"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
-      <c r="O46" s="144"/>
-      <c r="P46" s="144"/>
-      <c r="Q46" s="144"/>
-      <c r="R46" s="144"/>
-      <c r="S46" s="145"/>
+      <c r="B46" s="191"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="184"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="122"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="123"/>
       <c r="U46" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V46" s="240"/>
-      <c r="W46" s="240"/>
+      <c r="V46" s="109"/>
+      <c r="W46" s="109"/>
       <c r="X46" s="49" t="s">
         <v>107</v>
       </c>
@@ -4469,21 +4486,21 @@
       </c>
     </row>
     <row r="47" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="122"/>
-      <c r="C47" s="194"/>
-      <c r="D47" s="189"/>
-      <c r="E47" s="189"/>
-      <c r="F47" s="189"/>
-      <c r="G47" s="190"/>
+      <c r="B47" s="192"/>
+      <c r="C47" s="185"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="187"/>
       <c r="I47" s="40" t="s">
         <v>41</v>
       </c>
       <c r="J47" s="97"/>
-      <c r="K47" s="138"/>
-      <c r="L47" s="138"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="98"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="98"/>
+      <c r="O47" s="117"/>
       <c r="P47" s="9" t="s">
         <v>30</v>
       </c>
@@ -4494,91 +4511,91 @@
         <v>2</v>
       </c>
       <c r="S47" s="11"/>
-      <c r="U47" s="121" t="s">
+      <c r="U47" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="V47" s="113"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="114"/>
-      <c r="Y47" s="114"/>
-      <c r="Z47" s="114"/>
-      <c r="AA47" s="114"/>
-      <c r="AB47" s="115"/>
+      <c r="V47" s="91"/>
+      <c r="W47" s="92"/>
+      <c r="X47" s="92"/>
+      <c r="Y47" s="92"/>
+      <c r="Z47" s="92"/>
+      <c r="AA47" s="92"/>
+      <c r="AB47" s="93"/>
     </row>
     <row r="48" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="195" t="s">
+      <c r="B48" s="188" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="197"/>
-      <c r="D48" s="198"/>
-      <c r="E48" s="198"/>
-      <c r="F48" s="198"/>
-      <c r="G48" s="199"/>
-      <c r="I48" s="121" t="s">
+      <c r="C48" s="193"/>
+      <c r="D48" s="194"/>
+      <c r="E48" s="194"/>
+      <c r="F48" s="194"/>
+      <c r="G48" s="195"/>
+      <c r="I48" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="140"/>
-      <c r="K48" s="141"/>
-      <c r="L48" s="141"/>
-      <c r="M48" s="141"/>
-      <c r="N48" s="141"/>
-      <c r="O48" s="141"/>
-      <c r="P48" s="141"/>
-      <c r="Q48" s="141"/>
-      <c r="R48" s="141"/>
-      <c r="S48" s="142"/>
-      <c r="U48" s="121"/>
-      <c r="V48" s="113"/>
-      <c r="W48" s="114"/>
-      <c r="X48" s="114"/>
-      <c r="Y48" s="114"/>
-      <c r="Z48" s="114"/>
-      <c r="AA48" s="114"/>
-      <c r="AB48" s="115"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="112"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="112"/>
+      <c r="Q48" s="112"/>
+      <c r="R48" s="112"/>
+      <c r="S48" s="113"/>
+      <c r="U48" s="103"/>
+      <c r="V48" s="91"/>
+      <c r="W48" s="92"/>
+      <c r="X48" s="92"/>
+      <c r="Y48" s="92"/>
+      <c r="Z48" s="92"/>
+      <c r="AA48" s="92"/>
+      <c r="AB48" s="93"/>
     </row>
     <row r="49" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="121"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="165"/>
-      <c r="E49" s="165"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="166"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="143"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="144"/>
-      <c r="N49" s="144"/>
-      <c r="O49" s="144"/>
-      <c r="P49" s="144"/>
-      <c r="Q49" s="144"/>
-      <c r="R49" s="144"/>
-      <c r="S49" s="145"/>
-      <c r="U49" s="121"/>
-      <c r="V49" s="113"/>
-      <c r="W49" s="114"/>
-      <c r="X49" s="114"/>
-      <c r="Y49" s="114"/>
-      <c r="Z49" s="114"/>
-      <c r="AA49" s="114"/>
-      <c r="AB49" s="115"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="152"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="122"/>
+      <c r="N49" s="122"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="122"/>
+      <c r="R49" s="122"/>
+      <c r="S49" s="123"/>
+      <c r="U49" s="103"/>
+      <c r="V49" s="91"/>
+      <c r="W49" s="92"/>
+      <c r="X49" s="92"/>
+      <c r="Y49" s="92"/>
+      <c r="Z49" s="92"/>
+      <c r="AA49" s="92"/>
+      <c r="AB49" s="93"/>
     </row>
     <row r="50" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="121"/>
-      <c r="C50" s="164"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="166"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="152"/>
       <c r="I50" s="40" t="s">
         <v>42</v>
       </c>
       <c r="J50" s="97"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="138"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="98"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="98"/>
+      <c r="O50" s="117"/>
       <c r="P50" s="9" t="s">
         <v>30</v>
       </c>
@@ -4589,120 +4606,123 @@
         <v>2</v>
       </c>
       <c r="S50" s="11"/>
-      <c r="U50" s="121"/>
-      <c r="V50" s="113"/>
-      <c r="W50" s="114"/>
-      <c r="X50" s="114"/>
-      <c r="Y50" s="114"/>
-      <c r="Z50" s="114"/>
-      <c r="AA50" s="114"/>
-      <c r="AB50" s="115"/>
+      <c r="U50" s="103"/>
+      <c r="V50" s="91"/>
+      <c r="W50" s="92"/>
+      <c r="X50" s="92"/>
+      <c r="Y50" s="92"/>
+      <c r="Z50" s="92"/>
+      <c r="AA50" s="92"/>
+      <c r="AB50" s="93"/>
     </row>
     <row r="51" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="121"/>
-      <c r="C51" s="164"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="166"/>
-      <c r="I51" s="121" t="s">
+      <c r="B51" s="103"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="152"/>
+      <c r="I51" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="J51" s="140"/>
-      <c r="K51" s="141"/>
-      <c r="L51" s="141"/>
-      <c r="M51" s="141"/>
-      <c r="N51" s="141"/>
-      <c r="O51" s="141"/>
-      <c r="P51" s="141"/>
-      <c r="Q51" s="141"/>
-      <c r="R51" s="141"/>
-      <c r="S51" s="142"/>
-      <c r="U51" s="121"/>
-      <c r="V51" s="113"/>
-      <c r="W51" s="114"/>
-      <c r="X51" s="114"/>
-      <c r="Y51" s="114"/>
-      <c r="Z51" s="114"/>
-      <c r="AA51" s="114"/>
-      <c r="AB51" s="115"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="112"/>
+      <c r="M51" s="112"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="112"/>
+      <c r="Q51" s="112"/>
+      <c r="R51" s="112"/>
+      <c r="S51" s="113"/>
+      <c r="U51" s="103"/>
+      <c r="V51" s="91"/>
+      <c r="W51" s="92"/>
+      <c r="X51" s="92"/>
+      <c r="Y51" s="92"/>
+      <c r="Z51" s="92"/>
+      <c r="AA51" s="92"/>
+      <c r="AB51" s="93"/>
     </row>
     <row r="52" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="149"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="168"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="169"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="100"/>
-      <c r="N52" s="100"/>
-      <c r="O52" s="100"/>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="100"/>
-      <c r="R52" s="100"/>
-      <c r="S52" s="101"/>
-      <c r="U52" s="149"/>
-      <c r="V52" s="146"/>
-      <c r="W52" s="147"/>
-      <c r="X52" s="147"/>
-      <c r="Y52" s="147"/>
-      <c r="Z52" s="147"/>
-      <c r="AA52" s="147"/>
-      <c r="AB52" s="148"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="155"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="115"/>
+      <c r="L52" s="115"/>
+      <c r="M52" s="115"/>
+      <c r="N52" s="115"/>
+      <c r="O52" s="115"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="115"/>
+      <c r="R52" s="115"/>
+      <c r="S52" s="116"/>
+      <c r="U52" s="110"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="95"/>
+      <c r="X52" s="95"/>
+      <c r="Y52" s="95"/>
+      <c r="Z52" s="95"/>
+      <c r="AA52" s="95"/>
+      <c r="AB52" s="96"/>
     </row>
     <row r="53" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="137"/>
+      <c r="C53" s="218"/>
+      <c r="D53" s="218"/>
+      <c r="E53" s="218"/>
+      <c r="F53" s="218"/>
+      <c r="G53" s="219"/>
       <c r="U53" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="V53" s="184"/>
-      <c r="W53" s="184"/>
-      <c r="X53" s="184"/>
-      <c r="Y53" s="184"/>
-      <c r="Z53" s="184"/>
+        <v>163</v>
+      </c>
+      <c r="V53" s="101"/>
+      <c r="W53" s="101"/>
+      <c r="X53" s="101"/>
+      <c r="Y53" s="101"/>
+      <c r="Z53" s="101"/>
       <c r="AA53" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AB53" s="16"/>
+      <c r="AB53" s="16" t="str">
+        <f>VLOOKUP(Z64+AB64, 属性评级!$I$3:$J$15, 2, TRUE)</f>
+        <v>E-</v>
+      </c>
     </row>
     <row r="54" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="120"/>
-      <c r="C54" s="187"/>
-      <c r="D54" s="187"/>
-      <c r="E54" s="187"/>
-      <c r="F54" s="187"/>
-      <c r="G54" s="188"/>
-      <c r="I54" s="104" t="s">
+      <c r="B54" s="191"/>
+      <c r="C54" s="183"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="183"/>
+      <c r="F54" s="183"/>
+      <c r="G54" s="184"/>
+      <c r="I54" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="106"/>
-      <c r="O54" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="105"/>
-      <c r="R54" s="105"/>
-      <c r="S54" s="106"/>
+      <c r="J54" s="119"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="120"/>
+      <c r="O54" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="P54" s="119"/>
+      <c r="Q54" s="119"/>
+      <c r="R54" s="119"/>
+      <c r="S54" s="120"/>
       <c r="U54" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="V54" s="153"/>
-      <c r="W54" s="154"/>
-      <c r="X54" s="154"/>
+        <v>176</v>
+      </c>
+      <c r="V54" s="99"/>
+      <c r="W54" s="100"/>
+      <c r="X54" s="100"/>
       <c r="Y54" s="6" t="s">
         <v>15</v>
       </c>
@@ -4713,32 +4733,32 @@
       <c r="AB54" s="7"/>
     </row>
     <row r="55" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="120"/>
-      <c r="C55" s="187"/>
-      <c r="D55" s="187"/>
-      <c r="E55" s="187"/>
-      <c r="F55" s="187"/>
-      <c r="G55" s="188"/>
-      <c r="I55" s="119" t="s">
+      <c r="B55" s="191"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="183"/>
+      <c r="E55" s="183"/>
+      <c r="F55" s="183"/>
+      <c r="G55" s="184"/>
+      <c r="I55" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="107"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="108"/>
-      <c r="M55" s="109"/>
-      <c r="O55" s="119" t="s">
-        <v>185</v>
-      </c>
-      <c r="P55" s="107"/>
-      <c r="Q55" s="108"/>
-      <c r="R55" s="108"/>
-      <c r="S55" s="109"/>
+      <c r="J55" s="231"/>
+      <c r="K55" s="232"/>
+      <c r="L55" s="232"/>
+      <c r="M55" s="233"/>
+      <c r="O55" s="220" t="s">
+        <v>182</v>
+      </c>
+      <c r="P55" s="231"/>
+      <c r="Q55" s="232"/>
+      <c r="R55" s="232"/>
+      <c r="S55" s="233"/>
       <c r="U55" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V55" s="97"/>
-      <c r="W55" s="138"/>
-      <c r="X55" s="138"/>
+      <c r="W55" s="98"/>
+      <c r="X55" s="98"/>
       <c r="Y55" s="10" t="s">
         <v>15</v>
       </c>
@@ -4749,28 +4769,28 @@
       <c r="AB55" s="11"/>
     </row>
     <row r="56" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="120"/>
-      <c r="C56" s="187"/>
-      <c r="D56" s="187"/>
-      <c r="E56" s="187"/>
-      <c r="F56" s="187"/>
-      <c r="G56" s="188"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="110"/>
-      <c r="K56" s="111"/>
-      <c r="L56" s="111"/>
-      <c r="M56" s="112"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="110"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="111"/>
-      <c r="S56" s="112"/>
+      <c r="B56" s="191"/>
+      <c r="C56" s="183"/>
+      <c r="D56" s="183"/>
+      <c r="E56" s="183"/>
+      <c r="F56" s="183"/>
+      <c r="G56" s="184"/>
+      <c r="I56" s="191"/>
+      <c r="J56" s="234"/>
+      <c r="K56" s="235"/>
+      <c r="L56" s="235"/>
+      <c r="M56" s="236"/>
+      <c r="O56" s="191"/>
+      <c r="P56" s="234"/>
+      <c r="Q56" s="235"/>
+      <c r="R56" s="235"/>
+      <c r="S56" s="236"/>
       <c r="U56" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="V56" s="153"/>
-      <c r="W56" s="154"/>
-      <c r="X56" s="154"/>
+        <v>178</v>
+      </c>
+      <c r="V56" s="99"/>
+      <c r="W56" s="100"/>
+      <c r="X56" s="100"/>
       <c r="Y56" s="6" t="s">
         <v>15</v>
       </c>
@@ -4781,28 +4801,28 @@
       <c r="AB56" s="7"/>
     </row>
     <row r="57" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="122"/>
-      <c r="C57" s="189"/>
-      <c r="D57" s="189"/>
-      <c r="E57" s="189"/>
-      <c r="F57" s="189"/>
-      <c r="G57" s="190"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="111"/>
-      <c r="L57" s="111"/>
-      <c r="M57" s="112"/>
-      <c r="O57" s="120"/>
-      <c r="P57" s="110"/>
-      <c r="Q57" s="111"/>
-      <c r="R57" s="111"/>
-      <c r="S57" s="112"/>
+      <c r="B57" s="192"/>
+      <c r="C57" s="186"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="186"/>
+      <c r="F57" s="186"/>
+      <c r="G57" s="187"/>
+      <c r="I57" s="191"/>
+      <c r="J57" s="234"/>
+      <c r="K57" s="235"/>
+      <c r="L57" s="235"/>
+      <c r="M57" s="236"/>
+      <c r="O57" s="191"/>
+      <c r="P57" s="234"/>
+      <c r="Q57" s="235"/>
+      <c r="R57" s="235"/>
+      <c r="S57" s="236"/>
       <c r="U57" s="8" t="s">
         <v>109</v>
       </c>
       <c r="V57" s="70"/>
       <c r="W57" s="71" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="X57" s="71">
         <f>W64+Z64+AB64</f>
@@ -4815,31 +4835,31 @@
       <c r="AA57" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="AB57" s="71"/>
+      <c r="AB57" s="243"/>
     </row>
     <row r="58" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I58" s="121" t="s">
+      <c r="I58" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="J58" s="113"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="115"/>
-      <c r="O58" s="121" t="s">
-        <v>186</v>
-      </c>
-      <c r="P58" s="113"/>
-      <c r="Q58" s="114"/>
-      <c r="R58" s="114"/>
-      <c r="S58" s="115"/>
-      <c r="U58" s="239" t="s">
+      <c r="J58" s="91"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="92"/>
+      <c r="M58" s="93"/>
+      <c r="O58" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="P58" s="91"/>
+      <c r="Q58" s="92"/>
+      <c r="R58" s="92"/>
+      <c r="S58" s="93"/>
+      <c r="U58" s="102" t="s">
         <v>52</v>
       </c>
       <c r="V58" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="W58" s="238"/>
-      <c r="X58" s="238"/>
+      <c r="W58" s="105"/>
+      <c r="X58" s="105"/>
       <c r="Y58" s="47" t="s">
         <v>49</v>
       </c>
@@ -4850,30 +4870,30 @@
       <c r="AB58" s="38"/>
     </row>
     <row r="59" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="104" t="s">
+      <c r="B59" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="106"/>
-      <c r="I59" s="121"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="114"/>
-      <c r="L59" s="114"/>
-      <c r="M59" s="115"/>
-      <c r="O59" s="121"/>
-      <c r="P59" s="113"/>
-      <c r="Q59" s="114"/>
-      <c r="R59" s="114"/>
-      <c r="S59" s="115"/>
-      <c r="U59" s="121"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="120"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="92"/>
+      <c r="L59" s="92"/>
+      <c r="M59" s="93"/>
+      <c r="O59" s="103"/>
+      <c r="P59" s="91"/>
+      <c r="Q59" s="92"/>
+      <c r="R59" s="92"/>
+      <c r="S59" s="93"/>
+      <c r="U59" s="103"/>
       <c r="V59" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W59" s="237"/>
-      <c r="X59" s="237"/>
+      <c r="W59" s="106"/>
+      <c r="X59" s="106"/>
       <c r="Y59" s="54" t="s">
         <v>15</v>
       </c>
@@ -4885,29 +4905,29 @@
     </row>
     <row r="60" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="135"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="136"/>
-      <c r="G60" s="137"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="114"/>
-      <c r="L60" s="114"/>
-      <c r="M60" s="115"/>
-      <c r="O60" s="121"/>
-      <c r="P60" s="113"/>
-      <c r="Q60" s="114"/>
-      <c r="R60" s="114"/>
-      <c r="S60" s="115"/>
-      <c r="U60" s="121"/>
+        <v>166</v>
+      </c>
+      <c r="C60" s="217"/>
+      <c r="D60" s="218"/>
+      <c r="E60" s="218"/>
+      <c r="F60" s="218"/>
+      <c r="G60" s="219"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="93"/>
+      <c r="O60" s="103"/>
+      <c r="P60" s="91"/>
+      <c r="Q60" s="92"/>
+      <c r="R60" s="92"/>
+      <c r="S60" s="93"/>
+      <c r="U60" s="103"/>
       <c r="V60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W60" s="151"/>
-      <c r="X60" s="151"/>
+      <c r="W60" s="107"/>
+      <c r="X60" s="107"/>
       <c r="Y60" s="10" t="s">
         <v>49</v>
       </c>
@@ -4919,37 +4939,37 @@
     </row>
     <row r="61" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="74" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C61" s="75"/>
       <c r="D61" s="73" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E61" s="75"/>
       <c r="F61" s="73" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G61" s="76"/>
-      <c r="I61" s="120" t="s">
+      <c r="I61" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="J61" s="110"/>
-      <c r="K61" s="111"/>
-      <c r="L61" s="111"/>
-      <c r="M61" s="112"/>
-      <c r="O61" s="120" t="s">
-        <v>187</v>
-      </c>
-      <c r="P61" s="110"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
-      <c r="S61" s="112"/>
-      <c r="U61" s="121"/>
+      <c r="J61" s="234"/>
+      <c r="K61" s="235"/>
+      <c r="L61" s="235"/>
+      <c r="M61" s="236"/>
+      <c r="O61" s="191" t="s">
+        <v>184</v>
+      </c>
+      <c r="P61" s="234"/>
+      <c r="Q61" s="235"/>
+      <c r="R61" s="235"/>
+      <c r="S61" s="236"/>
+      <c r="U61" s="103"/>
       <c r="V61" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W61" s="237"/>
-      <c r="X61" s="237"/>
+      <c r="W61" s="106"/>
+      <c r="X61" s="106"/>
       <c r="Y61" s="54" t="s">
         <v>15</v>
       </c>
@@ -4960,28 +4980,28 @@
       <c r="AB61" s="55"/>
     </row>
     <row r="62" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="129"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="131"/>
-      <c r="I62" s="120"/>
-      <c r="J62" s="110"/>
-      <c r="K62" s="111"/>
-      <c r="L62" s="111"/>
-      <c r="M62" s="112"/>
-      <c r="O62" s="120"/>
-      <c r="P62" s="110"/>
-      <c r="Q62" s="111"/>
-      <c r="R62" s="111"/>
-      <c r="S62" s="112"/>
-      <c r="U62" s="121"/>
+      <c r="B62" s="211"/>
+      <c r="C62" s="212"/>
+      <c r="D62" s="212"/>
+      <c r="E62" s="212"/>
+      <c r="F62" s="212"/>
+      <c r="G62" s="213"/>
+      <c r="I62" s="191"/>
+      <c r="J62" s="234"/>
+      <c r="K62" s="235"/>
+      <c r="L62" s="235"/>
+      <c r="M62" s="236"/>
+      <c r="O62" s="191"/>
+      <c r="P62" s="234"/>
+      <c r="Q62" s="235"/>
+      <c r="R62" s="235"/>
+      <c r="S62" s="236"/>
+      <c r="U62" s="103"/>
       <c r="V62" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W62" s="151"/>
-      <c r="X62" s="151"/>
+      <c r="W62" s="107"/>
+      <c r="X62" s="107"/>
       <c r="Y62" s="10" t="s">
         <v>49</v>
       </c>
@@ -4992,28 +5012,28 @@
       <c r="AB62" s="11"/>
     </row>
     <row r="63" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="129"/>
-      <c r="C63" s="130"/>
-      <c r="D63" s="130"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="131"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="117"/>
-      <c r="L63" s="117"/>
-      <c r="M63" s="118"/>
-      <c r="O63" s="122"/>
-      <c r="P63" s="116"/>
-      <c r="Q63" s="117"/>
-      <c r="R63" s="117"/>
-      <c r="S63" s="118"/>
-      <c r="U63" s="139"/>
+      <c r="B63" s="211"/>
+      <c r="C63" s="212"/>
+      <c r="D63" s="212"/>
+      <c r="E63" s="212"/>
+      <c r="F63" s="212"/>
+      <c r="G63" s="213"/>
+      <c r="I63" s="192"/>
+      <c r="J63" s="237"/>
+      <c r="K63" s="238"/>
+      <c r="L63" s="238"/>
+      <c r="M63" s="239"/>
+      <c r="O63" s="192"/>
+      <c r="P63" s="237"/>
+      <c r="Q63" s="238"/>
+      <c r="R63" s="238"/>
+      <c r="S63" s="239"/>
+      <c r="U63" s="104"/>
       <c r="V63" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="W63" s="152"/>
-      <c r="X63" s="152"/>
+      <c r="W63" s="108"/>
+      <c r="X63" s="108"/>
       <c r="Y63" s="56" t="s">
         <v>15</v>
       </c>
@@ -5024,17 +5044,17 @@
       <c r="AB63" s="57"/>
     </row>
     <row r="64" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="129"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
-      <c r="G64" s="131"/>
+      <c r="B64" s="211"/>
+      <c r="C64" s="212"/>
+      <c r="D64" s="212"/>
+      <c r="E64" s="212"/>
+      <c r="F64" s="212"/>
+      <c r="G64" s="213"/>
       <c r="U64" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V64" s="240"/>
-      <c r="W64" s="240"/>
+      <c r="V64" s="109"/>
+      <c r="W64" s="109"/>
       <c r="X64" s="49" t="s">
         <v>107</v>
       </c>
@@ -5054,244 +5074,364 @@
       </c>
     </row>
     <row r="65" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="129"/>
-      <c r="C65" s="130"/>
-      <c r="D65" s="130"/>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
-      <c r="G65" s="131"/>
-      <c r="I65" s="104" t="s">
+      <c r="B65" s="211"/>
+      <c r="C65" s="212"/>
+      <c r="D65" s="212"/>
+      <c r="E65" s="212"/>
+      <c r="F65" s="212"/>
+      <c r="G65" s="213"/>
+      <c r="I65" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="J65" s="105"/>
-      <c r="K65" s="105"/>
-      <c r="L65" s="105"/>
-      <c r="M65" s="106"/>
-      <c r="O65" s="104" t="s">
+      <c r="J65" s="119"/>
+      <c r="K65" s="119"/>
+      <c r="L65" s="119"/>
+      <c r="M65" s="120"/>
+      <c r="O65" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="105"/>
-      <c r="Q65" s="105"/>
-      <c r="R65" s="105"/>
-      <c r="S65" s="106"/>
-      <c r="U65" s="121" t="s">
+      <c r="P65" s="119"/>
+      <c r="Q65" s="119"/>
+      <c r="R65" s="119"/>
+      <c r="S65" s="120"/>
+      <c r="U65" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="V65" s="113"/>
-      <c r="W65" s="114"/>
-      <c r="X65" s="114"/>
-      <c r="Y65" s="114"/>
-      <c r="Z65" s="114"/>
-      <c r="AA65" s="114"/>
-      <c r="AB65" s="115"/>
+      <c r="V65" s="91"/>
+      <c r="W65" s="92"/>
+      <c r="X65" s="92"/>
+      <c r="Y65" s="92"/>
+      <c r="Z65" s="92"/>
+      <c r="AA65" s="92"/>
+      <c r="AB65" s="93"/>
     </row>
     <row r="66" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="129"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
-      <c r="G66" s="131"/>
-      <c r="I66" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="J66" s="92"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="86" t="s">
+      <c r="B66" s="211"/>
+      <c r="C66" s="212"/>
+      <c r="D66" s="212"/>
+      <c r="E66" s="212"/>
+      <c r="F66" s="212"/>
+      <c r="G66" s="213"/>
+      <c r="I66" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="J66" s="179"/>
+      <c r="K66" s="190"/>
+      <c r="L66" s="85" t="s">
         <v>108</v>
       </c>
       <c r="M66" s="4"/>
-      <c r="O66" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="P66" s="92"/>
-      <c r="Q66" s="93"/>
-      <c r="R66" s="86" t="s">
+      <c r="O66" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="P66" s="179"/>
+      <c r="Q66" s="190"/>
+      <c r="R66" s="85" t="s">
         <v>108</v>
       </c>
       <c r="S66" s="4"/>
-      <c r="U66" s="121"/>
-      <c r="V66" s="113"/>
-      <c r="W66" s="114"/>
-      <c r="X66" s="114"/>
-      <c r="Y66" s="114"/>
-      <c r="Z66" s="114"/>
-      <c r="AA66" s="114"/>
-      <c r="AB66" s="115"/>
+      <c r="U66" s="103"/>
+      <c r="V66" s="91"/>
+      <c r="W66" s="92"/>
+      <c r="X66" s="92"/>
+      <c r="Y66" s="92"/>
+      <c r="Z66" s="92"/>
+      <c r="AA66" s="92"/>
+      <c r="AB66" s="93"/>
     </row>
     <row r="67" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="129"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="130"/>
-      <c r="G67" s="131"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="96"/>
-      <c r="O67" s="94"/>
-      <c r="P67" s="95"/>
-      <c r="Q67" s="95"/>
-      <c r="R67" s="95"/>
-      <c r="S67" s="96"/>
-      <c r="U67" s="121"/>
-      <c r="V67" s="113"/>
-      <c r="W67" s="114"/>
-      <c r="X67" s="114"/>
-      <c r="Y67" s="114"/>
-      <c r="Z67" s="114"/>
-      <c r="AA67" s="114"/>
-      <c r="AB67" s="115"/>
+      <c r="B67" s="211"/>
+      <c r="C67" s="212"/>
+      <c r="D67" s="212"/>
+      <c r="E67" s="212"/>
+      <c r="F67" s="212"/>
+      <c r="G67" s="213"/>
+      <c r="I67" s="226"/>
+      <c r="J67" s="227"/>
+      <c r="K67" s="227"/>
+      <c r="L67" s="227"/>
+      <c r="M67" s="228"/>
+      <c r="O67" s="226"/>
+      <c r="P67" s="227"/>
+      <c r="Q67" s="227"/>
+      <c r="R67" s="227"/>
+      <c r="S67" s="228"/>
+      <c r="U67" s="103"/>
+      <c r="V67" s="91"/>
+      <c r="W67" s="92"/>
+      <c r="X67" s="92"/>
+      <c r="Y67" s="92"/>
+      <c r="Z67" s="92"/>
+      <c r="AA67" s="92"/>
+      <c r="AB67" s="93"/>
     </row>
     <row r="68" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="132"/>
-      <c r="C68" s="133"/>
-      <c r="D68" s="133"/>
-      <c r="E68" s="133"/>
-      <c r="F68" s="133"/>
-      <c r="G68" s="134"/>
+      <c r="B68" s="214"/>
+      <c r="C68" s="215"/>
+      <c r="D68" s="215"/>
+      <c r="E68" s="215"/>
+      <c r="F68" s="215"/>
+      <c r="G68" s="216"/>
       <c r="I68" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J68" s="97"/>
-      <c r="K68" s="98"/>
+      <c r="K68" s="117"/>
       <c r="L68" s="9" t="s">
         <v>108</v>
       </c>
       <c r="M68" s="11"/>
       <c r="O68" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P68" s="97"/>
-      <c r="Q68" s="98"/>
+      <c r="Q68" s="117"/>
       <c r="R68" s="9" t="s">
         <v>108</v>
       </c>
       <c r="S68" s="11"/>
-      <c r="U68" s="121"/>
-      <c r="V68" s="113"/>
-      <c r="W68" s="114"/>
-      <c r="X68" s="114"/>
-      <c r="Y68" s="114"/>
-      <c r="Z68" s="114"/>
-      <c r="AA68" s="114"/>
-      <c r="AB68" s="115"/>
+      <c r="U68" s="103"/>
+      <c r="V68" s="91"/>
+      <c r="W68" s="92"/>
+      <c r="X68" s="92"/>
+      <c r="Y68" s="92"/>
+      <c r="Z68" s="92"/>
+      <c r="AA68" s="92"/>
+      <c r="AB68" s="93"/>
     </row>
     <row r="69" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="94"/>
-      <c r="J69" s="95"/>
-      <c r="K69" s="95"/>
-      <c r="L69" s="95"/>
-      <c r="M69" s="96"/>
-      <c r="O69" s="94"/>
-      <c r="P69" s="95"/>
-      <c r="Q69" s="95"/>
-      <c r="R69" s="95"/>
-      <c r="S69" s="96"/>
-      <c r="U69" s="121"/>
-      <c r="V69" s="113"/>
-      <c r="W69" s="114"/>
-      <c r="X69" s="114"/>
-      <c r="Y69" s="114"/>
-      <c r="Z69" s="114"/>
-      <c r="AA69" s="114"/>
-      <c r="AB69" s="115"/>
+      <c r="I69" s="226"/>
+      <c r="J69" s="227"/>
+      <c r="K69" s="227"/>
+      <c r="L69" s="227"/>
+      <c r="M69" s="228"/>
+      <c r="O69" s="226"/>
+      <c r="P69" s="227"/>
+      <c r="Q69" s="227"/>
+      <c r="R69" s="227"/>
+      <c r="S69" s="228"/>
+      <c r="U69" s="103"/>
+      <c r="V69" s="91"/>
+      <c r="W69" s="92"/>
+      <c r="X69" s="92"/>
+      <c r="Y69" s="92"/>
+      <c r="Z69" s="92"/>
+      <c r="AA69" s="92"/>
+      <c r="AB69" s="93"/>
     </row>
     <row r="70" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="105"/>
-      <c r="D70" s="105"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="106"/>
+      <c r="B70" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="119"/>
+      <c r="D70" s="119"/>
+      <c r="E70" s="119"/>
+      <c r="F70" s="119"/>
+      <c r="G70" s="120"/>
       <c r="I70" s="40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J70" s="97"/>
-      <c r="K70" s="98"/>
+      <c r="K70" s="117"/>
       <c r="L70" s="9" t="s">
         <v>108</v>
       </c>
       <c r="M70" s="11"/>
       <c r="O70" s="40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P70" s="97"/>
-      <c r="Q70" s="98"/>
+      <c r="Q70" s="117"/>
       <c r="R70" s="9" t="s">
         <v>108</v>
       </c>
       <c r="S70" s="11"/>
-      <c r="U70" s="149"/>
-      <c r="V70" s="146"/>
-      <c r="W70" s="147"/>
-      <c r="X70" s="147"/>
-      <c r="Y70" s="147"/>
-      <c r="Z70" s="147"/>
-      <c r="AA70" s="147"/>
-      <c r="AB70" s="148"/>
+      <c r="U70" s="110"/>
+      <c r="V70" s="94"/>
+      <c r="W70" s="95"/>
+      <c r="X70" s="95"/>
+      <c r="Y70" s="95"/>
+      <c r="Z70" s="95"/>
+      <c r="AA70" s="95"/>
+      <c r="AB70" s="96"/>
     </row>
     <row r="71" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="228"/>
-      <c r="C71" s="229"/>
-      <c r="D71" s="229"/>
-      <c r="E71" s="229"/>
-      <c r="F71" s="229"/>
-      <c r="G71" s="230"/>
-      <c r="I71" s="99"/>
-      <c r="J71" s="100"/>
-      <c r="K71" s="100"/>
-      <c r="L71" s="100"/>
-      <c r="M71" s="101"/>
-      <c r="O71" s="99"/>
-      <c r="P71" s="100"/>
-      <c r="Q71" s="100"/>
-      <c r="R71" s="100"/>
-      <c r="S71" s="101"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="129"/>
+      <c r="I71" s="229"/>
+      <c r="J71" s="115"/>
+      <c r="K71" s="115"/>
+      <c r="L71" s="115"/>
+      <c r="M71" s="116"/>
+      <c r="O71" s="229"/>
+      <c r="P71" s="115"/>
+      <c r="Q71" s="115"/>
+      <c r="R71" s="115"/>
+      <c r="S71" s="116"/>
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B72" s="231"/>
-      <c r="C72" s="232"/>
-      <c r="D72" s="232"/>
-      <c r="E72" s="232"/>
-      <c r="F72" s="232"/>
-      <c r="G72" s="233"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="131"/>
+      <c r="G72" s="132"/>
     </row>
     <row r="73" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="231"/>
-      <c r="C73" s="232"/>
-      <c r="D73" s="232"/>
-      <c r="E73" s="232"/>
-      <c r="F73" s="232"/>
-      <c r="G73" s="233"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="131"/>
+      <c r="E73" s="131"/>
+      <c r="F73" s="131"/>
+      <c r="G73" s="132"/>
     </row>
     <row r="74" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="234"/>
-      <c r="C74" s="235"/>
-      <c r="D74" s="235"/>
-      <c r="E74" s="235"/>
-      <c r="F74" s="235"/>
-      <c r="G74" s="236"/>
+      <c r="B74" s="133"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="V65:AB70"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V53:Z53"/>
-    <mergeCell ref="U58:U63"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="U65:U70"/>
+    <mergeCell ref="O71:S71"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="J55:M57"/>
+    <mergeCell ref="J58:M60"/>
+    <mergeCell ref="J61:M63"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O55:O57"/>
+    <mergeCell ref="P55:S57"/>
+    <mergeCell ref="O58:O60"/>
+    <mergeCell ref="P58:S60"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="P61:S63"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:S32"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:G57"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:S49"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:S41"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="C43:G47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="I26:S26"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:M12"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B10:D16"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J18:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:S38"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:M24"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P18:S19"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="P22:S24"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:S35"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:S29"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="U16:AB16"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="P10:S12"/>
+    <mergeCell ref="J51:S52"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="I43:S43"/>
+    <mergeCell ref="J45:S46"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G74"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:G52"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B62:G68"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="O67:S67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="P70:Q70"/>
     <mergeCell ref="V20:X20"/>
     <mergeCell ref="V54:X54"/>
     <mergeCell ref="W23:X23"/>
@@ -5313,140 +5453,20 @@
     <mergeCell ref="V46:W46"/>
     <mergeCell ref="U29:U34"/>
     <mergeCell ref="V36:X36"/>
-    <mergeCell ref="J51:S52"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="I43:S43"/>
-    <mergeCell ref="J45:S46"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G74"/>
-    <mergeCell ref="U2:AB2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="U16:AB16"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:S12"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J18:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:S38"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:M24"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P18:S19"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="P22:S24"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:S35"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:M12"/>
-    <mergeCell ref="J6:M7"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B10:D16"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="V47:AB52"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:S41"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="C43:G47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C48:G52"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="J16:M17"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B62:G68"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="I26:S26"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:S29"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:S32"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:G57"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:S49"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="O67:S67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="O71:S71"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="J55:M57"/>
-    <mergeCell ref="J58:M60"/>
-    <mergeCell ref="J61:M63"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="O55:O57"/>
-    <mergeCell ref="P55:S57"/>
-    <mergeCell ref="O58:O60"/>
-    <mergeCell ref="P58:S60"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="P61:S63"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I71:M71"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="V65:AB70"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V53:Z53"/>
+    <mergeCell ref="U58:U63"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="U65:U70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5454,23 +5474,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B139D9D9-48DF-4451-BDD6-BB77D01F8A5B}">
+          <x14:formula1>
+            <xm:f>职阶数值!$C$4:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:D5</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36840465-89A8-4356-A68C-7BC2D1826222}">
           <x14:formula1>
-            <xm:f>属性评级!$F$16:$F$18</xm:f>
+            <xm:f>属性评级!$F$3:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>F5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F1FEF42-11E4-4989-B24F-4809866B1990}">
           <x14:formula1>
-            <xm:f>属性评级!$G$16:$G$18</xm:f>
+            <xm:f>属性评级!$G$3:$G$5</xm:f>
           </x14:formula1>
           <xm:sqref>G5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B139D9D9-48DF-4451-BDD6-BB77D01F8A5B}">
-          <x14:formula1>
-            <xm:f>职阶数值!$C$4:$C$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5:D5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5483,7 +5503,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5510,7 +5530,7 @@
         <v>115</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -5543,7 +5563,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="240" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="67" t="s">
@@ -5566,7 +5586,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="241"/>
+      <c r="B5" s="240"/>
       <c r="C5" s="67" t="s">
         <v>118</v>
       </c>
@@ -5587,7 +5607,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="241"/>
+      <c r="B6" s="240"/>
       <c r="C6" s="67" t="s">
         <v>119</v>
       </c>
@@ -5608,7 +5628,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="241"/>
+      <c r="B7" s="240"/>
       <c r="C7" s="67" t="s">
         <v>121</v>
       </c>
@@ -5629,7 +5649,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="241"/>
+      <c r="B8" s="240"/>
       <c r="C8" s="67" t="s">
         <v>120</v>
       </c>
@@ -5650,7 +5670,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="241"/>
+      <c r="B9" s="240"/>
       <c r="C9" s="67" t="s">
         <v>122</v>
       </c>
@@ -5671,117 +5691,117 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="241"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="240"/>
+      <c r="C10" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="89">
         <v>4</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="89">
         <v>0</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="89">
         <v>3</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="89">
         <v>0</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="241" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="240" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="240"/>
+      <c r="C12" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="240"/>
+      <c r="C13" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="240"/>
+      <c r="C14" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="241"/>
-      <c r="C12" s="91" t="s">
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="240"/>
+      <c r="C15" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="241"/>
-      <c r="C13" s="91" t="s">
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="240"/>
+      <c r="C16" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="241"/>
-      <c r="C14" s="91" t="s">
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="240"/>
+      <c r="C17" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="241"/>
-      <c r="C15" s="91" t="s">
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+    </row>
+    <row r="18" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B18" s="241" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="241"/>
-      <c r="C16" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="241"/>
-      <c r="C17" s="91" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="84" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="89" t="s">
-        <v>232</v>
-      </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5796,32 +5816,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C614206B-7D42-4DBA-B2E5-6CB591E91CEA}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="66" t="s">
         <v>126</v>
       </c>
       <c r="D2" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="67">
         <v>3</v>
       </c>
@@ -5829,16 +5855,22 @@
         <v>10</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="67">
-        <v>8</v>
+        <v>127</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>156</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="I3" s="67">
+        <v>0</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="67">
         <v>4</v>
       </c>
@@ -5846,16 +5878,22 @@
         <v>10</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="67">
-        <v>9</v>
+        <v>127</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>157</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="I4" s="67">
+        <v>3</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="67">
         <v>5</v>
       </c>
@@ -5863,16 +5901,22 @@
         <v>10</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="67">
-        <v>10</v>
+        <v>128</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>158</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="I5" s="67">
+        <v>6</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="67">
         <v>6</v>
       </c>
@@ -5880,16 +5924,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="67">
+        <v>130</v>
+      </c>
+      <c r="I6" s="67">
         <v>11</v>
       </c>
-      <c r="G6" s="67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="67">
         <v>7</v>
       </c>
@@ -5897,16 +5941,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="67">
+        <v>16</v>
+      </c>
+      <c r="J7" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="67">
-        <v>12</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="67">
         <v>8</v>
       </c>
@@ -5914,16 +5958,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="67">
+        <v>21</v>
+      </c>
+      <c r="J8" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="F8" s="67">
-        <v>13</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="67">
         <v>9</v>
       </c>
@@ -5931,16 +5975,16 @@
         <v>12</v>
       </c>
       <c r="D9" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="67">
+        <v>26</v>
+      </c>
+      <c r="J9" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="67">
-        <v>14</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="67">
         <v>10</v>
       </c>
@@ -5948,16 +5992,16 @@
         <v>12</v>
       </c>
       <c r="D10" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="67">
+        <v>31</v>
+      </c>
+      <c r="J10" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="67">
-        <v>15</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="67">
         <v>11</v>
       </c>
@@ -5965,16 +6009,16 @@
         <v>13</v>
       </c>
       <c r="D11" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="67">
+        <v>36</v>
+      </c>
+      <c r="J11" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="67">
-        <v>16</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="67">
         <v>12</v>
       </c>
@@ -5982,16 +6026,16 @@
         <v>13</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="67">
-        <v>17</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="I12" s="67">
+        <v>41</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="67">
         <v>13</v>
       </c>
@@ -5999,16 +6043,16 @@
         <v>13</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="67">
-        <v>18</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="I13" s="67">
+        <v>44</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="67">
         <v>14</v>
       </c>
@@ -6016,10 +6060,16 @@
         <v>14</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="I14" s="67">
+        <v>47</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="67">
         <v>15</v>
       </c>
@@ -6027,16 +6077,16 @@
         <v>14</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="I15" s="67">
+        <v>50</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="67">
         <v>16</v>
       </c>
@@ -6044,16 +6094,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="67">
         <v>17</v>
       </c>
@@ -6061,16 +6105,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="67">
         <v>18</v>
       </c>
@@ -6078,13 +6116,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/角色卡/FAG英灵角色卡v0.5.xlsx
+++ b/角色卡/FAG英灵角色卡v0.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxlyl\OneDrive\文档\Others\TRPG\规则书与设定集与人物卡\Fate Atrous Grail\github\FateAtrousGrailTRPG\角色卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{2D081BEC-D7A0-4295-896E-BE6057E72FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A339B6B1-DCD7-4866-9296-2810BE5C4EEF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FFE4E1-8728-4C44-8F21-54F054C19F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1718,7 +1718,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1803,9 +1803,6 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="43" xfId="6"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1837,9 +1834,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1849,6 +1890,390 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1858,443 +2283,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="43" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
@@ -2584,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2598,62 +2610,62 @@
   <sheetData>
     <row r="1" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="120"/>
-      <c r="I2" s="118" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="I2" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
-      <c r="O2" s="118" t="s">
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
+      <c r="O2" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="120"/>
-      <c r="U2" s="118" t="s">
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="97"/>
+      <c r="U2" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="120"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="97"/>
     </row>
     <row r="3" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="160"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
       <c r="I3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="138"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="176"/>
       <c r="O3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="138"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="176"/>
       <c r="U3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2683,11 +2695,11 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="159"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="151"/>
       <c r="I4" s="41" t="s">
         <v>96</v>
       </c>
@@ -2747,10 +2759,10 @@
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2799,25 +2811,25 @@
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="159"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="151"/>
       <c r="I6" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="139"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="141"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="185"/>
       <c r="O6" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="140"/>
-      <c r="R6" s="140"/>
-      <c r="S6" s="141"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="185"/>
       <c r="U6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2847,21 +2859,21 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="148"/>
       <c r="I7" s="44"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="144"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="188"/>
       <c r="O7" s="44"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="144"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="188"/>
       <c r="U7" s="8" t="s">
         <v>198</v>
       </c>
@@ -2891,25 +2903,25 @@
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="195"/>
       <c r="I8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="145"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="147"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="192"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="193"/>
       <c r="O8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="147"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="192"/>
+      <c r="R8" s="192"/>
+      <c r="S8" s="193"/>
       <c r="U8" s="5" t="s">
         <v>199</v>
       </c>
@@ -2939,17 +2951,17 @@
       <c r="I9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="148"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="149"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="190"/>
       <c r="O9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="149"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="190"/>
       <c r="U9" s="8" t="s">
         <v>5</v>
       </c>
@@ -2970,30 +2982,30 @@
       <c r="AB9" s="11"/>
     </row>
     <row r="10" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="118" t="s">
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="I10" s="103" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="I10" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="150"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="152"/>
-      <c r="O10" s="103" t="s">
+      <c r="J10" s="177"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="179"/>
+      <c r="O10" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="152"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="179"/>
       <c r="U10" s="5" t="s">
         <v>59</v>
       </c>
@@ -3011,24 +3023,24 @@
       <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="165"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="167"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="202"/>
       <c r="E11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="160"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="152"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="179"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="179"/>
       <c r="U11" s="8" t="s">
         <v>60</v>
       </c>
@@ -3046,24 +3058,24 @@
       <c r="AB11" s="27"/>
     </row>
     <row r="12" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="165"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="167"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="202"/>
       <c r="E12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="161"/>
-      <c r="G12" s="159"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="155"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="155"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="151"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="182"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="180"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="181"/>
+      <c r="S12" s="182"/>
       <c r="U12" s="28" t="s">
         <v>6</v>
       </c>
@@ -3084,14 +3096,14 @@
       <c r="AB12" s="30"/>
     </row>
     <row r="13" spans="2:28" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="171" t="s">
+      <c r="B13" s="200"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="173"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="208"/>
       <c r="U13" s="8" t="s">
         <v>75</v>
       </c>
@@ -3118,28 +3130,28 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="167"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="202"/>
       <c r="E14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="161"/>
-      <c r="G14" s="159"/>
-      <c r="I14" s="118" t="s">
+      <c r="F14" s="196"/>
+      <c r="G14" s="151"/>
+      <c r="I14" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120"/>
-      <c r="O14" s="118" t="s">
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="O14" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="120"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="97"/>
       <c r="U14" s="12" t="s">
         <v>72</v>
       </c>
@@ -3169,43 +3181,43 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="165"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="174" t="s">
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="176"/>
-      <c r="G15" s="158"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="148"/>
       <c r="I15" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="136"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="138"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="176"/>
       <c r="O15" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="138"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="176"/>
     </row>
     <row r="16" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="178"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="150"/>
       <c r="I16" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="205"/>
-      <c r="K16" s="206"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="207"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="170"/>
       <c r="O16" s="41" t="s">
         <v>189</v>
       </c>
@@ -3221,23 +3233,23 @@
       <c r="S16" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="U16" s="118" t="s">
+      <c r="U16" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="119"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="119"/>
-      <c r="Z16" s="119"/>
-      <c r="AA16" s="119"/>
-      <c r="AB16" s="120"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="97"/>
     </row>
     <row r="17" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="44"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="210"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="173"/>
       <c r="O17" s="44"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
@@ -3246,11 +3258,11 @@
       <c r="U17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="152"/>
       <c r="AA17" s="14" t="s">
         <v>47</v>
       </c>
@@ -3260,34 +3272,34 @@
       </c>
     </row>
     <row r="18" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="120"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
       <c r="I18" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="J18" s="139"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="141"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="185"/>
       <c r="O18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
-      <c r="S18" s="141"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="185"/>
       <c r="U18" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="V18" s="99"/>
-      <c r="W18" s="100"/>
-      <c r="X18" s="100"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="144"/>
+      <c r="X18" s="144"/>
       <c r="Y18" s="6" t="s">
         <v>15</v>
       </c>
@@ -3313,25 +3325,25 @@
       <c r="F19" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G19" s="86" t="s">
+      <c r="G19" s="85" t="s">
         <v>197</v>
       </c>
       <c r="I19" s="44"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="144"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="188"/>
       <c r="O19" s="44"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="144"/>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="187"/>
+      <c r="R19" s="187"/>
+      <c r="S19" s="188"/>
       <c r="U19" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="V19" s="97"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="142"/>
+      <c r="X19" s="142"/>
       <c r="Y19" s="10" t="s">
         <v>15</v>
       </c>
@@ -3368,23 +3380,23 @@
       <c r="I20" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="145"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="147"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="192"/>
+      <c r="L20" s="192"/>
+      <c r="M20" s="193"/>
       <c r="O20" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="147"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="192"/>
+      <c r="R20" s="192"/>
+      <c r="S20" s="193"/>
       <c r="U20" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="V20" s="99"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="144"/>
+      <c r="X20" s="144"/>
       <c r="Y20" s="6" t="s">
         <v>15</v>
       </c>
@@ -3421,36 +3433,36 @@
       <c r="I21" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="148"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="149"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="190"/>
       <c r="O21" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="149"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="140"/>
+      <c r="S21" s="190"/>
       <c r="U21" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="V21" s="70"/>
-      <c r="W21" s="71" t="s">
+      <c r="V21" s="69"/>
+      <c r="W21" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="X21" s="71">
+      <c r="X21" s="70">
         <f>W28+Z28+AB28</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="71" t="s">
+      <c r="Y21" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71" t="s">
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="AB21" s="243"/>
+      <c r="AB21" s="89"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
@@ -3471,28 +3483,28 @@
       <c r="G22" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="103" t="s">
+      <c r="I22" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="152"/>
-      <c r="O22" s="103" t="s">
+      <c r="J22" s="177"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="179"/>
+      <c r="O22" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="152"/>
-      <c r="U22" s="102" t="s">
+      <c r="P22" s="177"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="178"/>
+      <c r="S22" s="179"/>
+      <c r="U22" s="234" t="s">
         <v>52</v>
       </c>
       <c r="V22" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="W22" s="105"/>
-      <c r="X22" s="105"/>
+      <c r="W22" s="233"/>
+      <c r="X22" s="233"/>
       <c r="Y22" s="47" t="s">
         <v>49</v>
       </c>
@@ -3517,22 +3529,22 @@
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="152"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="152"/>
-      <c r="U23" s="103"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="179"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="179"/>
+      <c r="U23" s="112"/>
       <c r="V23" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
+      <c r="W23" s="232"/>
+      <c r="X23" s="232"/>
       <c r="Y23" s="54" t="s">
         <v>15</v>
       </c>
@@ -3565,22 +3577,22 @@
       <c r="G24" s="25">
         <v>10</v>
       </c>
-      <c r="I24" s="110"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="155"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="155"/>
-      <c r="U24" s="103"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="182"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="180"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="181"/>
+      <c r="S24" s="182"/>
+      <c r="U24" s="112"/>
       <c r="V24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
+      <c r="W24" s="140"/>
+      <c r="X24" s="140"/>
       <c r="Y24" s="10" t="s">
         <v>49</v>
       </c>
@@ -3591,12 +3603,12 @@
       <c r="AB24" s="11"/>
     </row>
     <row r="25" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U25" s="103"/>
+      <c r="U25" s="112"/>
       <c r="V25" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
+      <c r="W25" s="232"/>
+      <c r="X25" s="232"/>
       <c r="Y25" s="54" t="s">
         <v>15</v>
       </c>
@@ -3607,33 +3619,33 @@
       <c r="AB25" s="55"/>
     </row>
     <row r="26" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="196" t="s">
+      <c r="B26" s="159" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="198"/>
-      <c r="I26" s="118" t="s">
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="161"/>
+      <c r="I26" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="120"/>
-      <c r="U26" s="103"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="97"/>
+      <c r="U26" s="112"/>
       <c r="V26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W26" s="107"/>
-      <c r="X26" s="107"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="140"/>
       <c r="Y26" s="10" t="s">
         <v>49</v>
       </c>
@@ -3662,12 +3674,12 @@
       <c r="I27" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="97"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="117"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="120"/>
       <c r="P27" s="9" t="s">
         <v>30</v>
       </c>
@@ -3678,12 +3690,12 @@
         <v>2</v>
       </c>
       <c r="S27" s="11"/>
-      <c r="U27" s="104"/>
+      <c r="U27" s="121"/>
       <c r="V27" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="W27" s="108"/>
-      <c r="X27" s="108"/>
+      <c r="W27" s="141"/>
+      <c r="X27" s="141"/>
       <c r="Y27" s="56" t="s">
         <v>15</v>
       </c>
@@ -3715,24 +3727,24 @@
         <f>D21</f>
         <v>10</v>
       </c>
-      <c r="I28" s="103" t="s">
+      <c r="I28" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="111"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="113"/>
-      <c r="U28" s="82" t="s">
+      <c r="J28" s="122"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="124"/>
+      <c r="U28" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
+      <c r="V28" s="238"/>
+      <c r="W28" s="238"/>
       <c r="X28" s="49" t="s">
         <v>107</v>
       </c>
@@ -3746,7 +3758,7 @@
       <c r="AA28" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AB28" s="69">
+      <c r="AB28" s="68">
         <f>SUM(AB18:AB20) + AB23+AB25+AB27</f>
         <v>0</v>
       </c>
@@ -3755,72 +3767,72 @@
       <c r="B29" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="77">
+      <c r="C29" s="76">
         <f>C21*职阶数值!D3+职阶数值!E3</f>
         <v>33</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="77">
+      <c r="E29" s="76">
         <f>G21*职阶数值!F3+职阶数值!G3</f>
         <v>40</v>
       </c>
-      <c r="F29" s="78" t="s">
+      <c r="F29" s="77" t="s">
         <v>93</v>
       </c>
       <c r="G29" s="11">
         <f>G21</f>
         <v>10</v>
       </c>
-      <c r="I29" s="104"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="123"/>
-      <c r="U29" s="103" t="s">
+      <c r="I29" s="121"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="127"/>
+      <c r="U29" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="V29" s="91"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="93"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="105"/>
+      <c r="AA29" s="105"/>
+      <c r="AB29" s="106"/>
     </row>
     <row r="30" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="242" t="s">
+      <c r="B30" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="83">
+      <c r="C30" s="82">
         <f>SUM(V4:V11)</f>
         <v>24</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="80">
+      <c r="E30" s="79">
         <f>CEILING(C30 / 5, 1)</f>
         <v>5</v>
       </c>
-      <c r="F30" s="81"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="19"/>
       <c r="I30" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="117"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="120"/>
       <c r="P30" s="9" t="s">
         <v>30</v>
       </c>
@@ -3831,14 +3843,14 @@
         <v>2</v>
       </c>
       <c r="S30" s="11"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="93"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="105"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="105"/>
+      <c r="AB30" s="106"/>
     </row>
     <row r="31" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
@@ -3862,27 +3874,27 @@
         <f>C24</f>
         <v>10</v>
       </c>
-      <c r="I31" s="103" t="s">
+      <c r="I31" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="111"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="113"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="93"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="124"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="105"/>
+      <c r="X31" s="105"/>
+      <c r="Y31" s="105"/>
+      <c r="Z31" s="105"/>
+      <c r="AA31" s="105"/>
+      <c r="AB31" s="106"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
@@ -3902,46 +3914,46 @@
       <c r="F32" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G32" s="87">
+      <c r="G32" s="86">
         <f>MIN(E24,F24)</f>
         <v>3</v>
       </c>
-      <c r="I32" s="104"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="123"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="93"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="126"/>
+      <c r="S32" s="127"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="105"/>
+      <c r="X32" s="105"/>
+      <c r="Y32" s="105"/>
+      <c r="Z32" s="105"/>
+      <c r="AA32" s="105"/>
+      <c r="AB32" s="106"/>
     </row>
     <row r="33" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="77">
+      <c r="C33" s="76">
         <f>MAX(C21+D21+E21, C21+F21+G21)</f>
         <v>30</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="E33" s="77">
+      <c r="E33" s="76">
         <f>C21* 2</f>
         <v>20</v>
       </c>
-      <c r="F33" s="77" t="s">
+      <c r="F33" s="76" t="s">
         <v>211</v>
       </c>
       <c r="G33" s="11">
@@ -3950,12 +3962,12 @@
       <c r="I33" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="J33" s="97"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="117"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="120"/>
       <c r="P33" s="9" t="s">
         <v>30</v>
       </c>
@@ -3966,91 +3978,91 @@
         <v>2</v>
       </c>
       <c r="S33" s="11"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="93"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="105"/>
+      <c r="AA33" s="105"/>
+      <c r="AB33" s="106"/>
     </row>
     <row r="34" spans="2:28" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="80">
+      <c r="C34" s="79">
         <v>1</v>
       </c>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="82">
         <v>1</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="82" t="s">
         <v>174</v>
       </c>
       <c r="G34" s="19">
         <v>1</v>
       </c>
-      <c r="I34" s="103" t="s">
+      <c r="I34" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="111"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="113"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="96"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="124"/>
+      <c r="U34" s="138"/>
+      <c r="V34" s="235"/>
+      <c r="W34" s="236"/>
+      <c r="X34" s="236"/>
+      <c r="Y34" s="236"/>
+      <c r="Z34" s="236"/>
+      <c r="AA34" s="236"/>
+      <c r="AB34" s="237"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B35" s="199" t="s">
+      <c r="B35" s="162" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="200"/>
+      <c r="C35" s="163"/>
       <c r="D35" s="34">
         <v>30</v>
       </c>
-      <c r="E35" s="201" t="s">
+      <c r="E35" s="164" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="200"/>
+      <c r="F35" s="163"/>
       <c r="G35" s="38">
         <f>D35*2</f>
         <v>60</v>
       </c>
-      <c r="I35" s="104"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="123"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="126"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="126"/>
+      <c r="R35" s="126"/>
+      <c r="S35" s="127"/>
       <c r="U35" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
+      <c r="V35" s="152"/>
+      <c r="W35" s="152"/>
+      <c r="X35" s="152"/>
+      <c r="Y35" s="152"/>
+      <c r="Z35" s="152"/>
       <c r="AA35" s="14" t="s">
         <v>2</v>
       </c>
@@ -4060,17 +4072,17 @@
       </c>
     </row>
     <row r="36" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="202" t="s">
+      <c r="B36" s="165" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="203"/>
+      <c r="C36" s="166"/>
       <c r="D36" s="35">
         <v>50</v>
       </c>
-      <c r="E36" s="204" t="s">
+      <c r="E36" s="167" t="s">
         <v>204</v>
       </c>
-      <c r="F36" s="203"/>
+      <c r="F36" s="166"/>
       <c r="G36" s="7">
         <f>D36*2</f>
         <v>100</v>
@@ -4078,12 +4090,12 @@
       <c r="I36" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="J36" s="97"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="117"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="142"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="120"/>
       <c r="P36" s="9" t="s">
         <v>30</v>
       </c>
@@ -4097,9 +4109,9 @@
       <c r="U36" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="V36" s="99"/>
-      <c r="W36" s="100"/>
-      <c r="X36" s="100"/>
+      <c r="V36" s="143"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="144"/>
       <c r="Y36" s="6" t="s">
         <v>15</v>
       </c>
@@ -4110,39 +4122,39 @@
       <c r="AB36" s="7"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B37" s="221" t="s">
+      <c r="B37" s="134" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="222"/>
-      <c r="D37" s="78" t="s">
+      <c r="C37" s="135"/>
+      <c r="D37" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="E37" s="223" t="s">
+      <c r="E37" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="222"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="11">
         <v>0</v>
       </c>
-      <c r="I37" s="103" t="s">
+      <c r="I37" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="111"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="112"/>
-      <c r="S37" s="113"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="124"/>
       <c r="U37" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="V37" s="97"/>
-      <c r="W37" s="98"/>
-      <c r="X37" s="98"/>
+      <c r="V37" s="119"/>
+      <c r="W37" s="142"/>
+      <c r="X37" s="142"/>
       <c r="Y37" s="10" t="s">
         <v>15</v>
       </c>
@@ -4153,37 +4165,37 @@
       <c r="AB37" s="11"/>
     </row>
     <row r="38" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="224" t="s">
+      <c r="B38" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="C38" s="225"/>
-      <c r="D38" s="81" t="s">
+      <c r="C38" s="94"/>
+      <c r="D38" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="E38" s="230" t="s">
+      <c r="E38" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="F38" s="225"/>
+      <c r="F38" s="94"/>
       <c r="G38" s="19">
         <v>0</v>
       </c>
-      <c r="I38" s="104"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="123"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="126"/>
+      <c r="N38" s="126"/>
+      <c r="O38" s="126"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="126"/>
+      <c r="R38" s="126"/>
+      <c r="S38" s="127"/>
       <c r="U38" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="V38" s="99"/>
-      <c r="W38" s="100"/>
-      <c r="X38" s="100"/>
+      <c r="V38" s="143"/>
+      <c r="W38" s="144"/>
+      <c r="X38" s="144"/>
       <c r="Y38" s="6" t="s">
         <v>15</v>
       </c>
@@ -4197,12 +4209,12 @@
       <c r="I39" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="J39" s="97"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="117"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="142"/>
+      <c r="N39" s="142"/>
+      <c r="O39" s="120"/>
       <c r="P39" s="9" t="s">
         <v>30</v>
       </c>
@@ -4216,53 +4228,53 @@
       <c r="U39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="V39" s="70"/>
-      <c r="W39" s="71" t="s">
+      <c r="V39" s="69"/>
+      <c r="W39" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="X39" s="71">
+      <c r="X39" s="70">
         <f>W46+Z46+AB46</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="71" t="s">
+      <c r="Y39" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="71" t="s">
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="AB39" s="243"/>
+      <c r="AB39" s="89"/>
     </row>
     <row r="40" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="118" t="s">
+      <c r="B40" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="120"/>
-      <c r="I40" s="103" t="s">
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="97"/>
+      <c r="I40" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="111"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="113"/>
-      <c r="U40" s="102" t="s">
+      <c r="J40" s="122"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="124"/>
+      <c r="U40" s="234" t="s">
         <v>52</v>
       </c>
       <c r="V40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="W40" s="105"/>
-      <c r="X40" s="105"/>
+      <c r="W40" s="233"/>
+      <c r="X40" s="233"/>
       <c r="Y40" s="47" t="s">
         <v>49</v>
       </c>
@@ -4273,31 +4285,31 @@
       <c r="AB40" s="38"/>
     </row>
     <row r="41" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="189" t="s">
+      <c r="B41" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="190"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="160"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="115"/>
-      <c r="N41" s="115"/>
-      <c r="O41" s="115"/>
-      <c r="P41" s="115"/>
-      <c r="Q41" s="115"/>
-      <c r="R41" s="115"/>
-      <c r="S41" s="116"/>
-      <c r="U41" s="103"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="153"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="139"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="92"/>
+      <c r="U41" s="112"/>
       <c r="V41" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W41" s="106"/>
-      <c r="X41" s="106"/>
+      <c r="W41" s="232"/>
+      <c r="X41" s="232"/>
       <c r="Y41" s="54" t="s">
         <v>15</v>
       </c>
@@ -4308,20 +4320,20 @@
       <c r="AB41" s="55"/>
     </row>
     <row r="42" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="180" t="s">
+      <c r="B42" s="154" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="181"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="159"/>
-      <c r="U42" s="103"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="151"/>
+      <c r="U42" s="112"/>
       <c r="V42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W42" s="107"/>
-      <c r="X42" s="107"/>
+      <c r="W42" s="140"/>
+      <c r="X42" s="140"/>
       <c r="Y42" s="10" t="s">
         <v>49</v>
       </c>
@@ -4332,33 +4344,33 @@
       <c r="AB42" s="11"/>
     </row>
     <row r="43" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="191" t="s">
+      <c r="B43" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="182"/>
-      <c r="D43" s="183"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="183"/>
-      <c r="G43" s="184"/>
-      <c r="I43" s="118" t="s">
+      <c r="C43" s="156"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="131"/>
+      <c r="I43" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="119"/>
-      <c r="S43" s="120"/>
-      <c r="U43" s="103"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="97"/>
+      <c r="U43" s="112"/>
       <c r="V43" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W43" s="106"/>
-      <c r="X43" s="106"/>
+      <c r="W43" s="232"/>
+      <c r="X43" s="232"/>
       <c r="Y43" s="54" t="s">
         <v>15</v>
       </c>
@@ -4369,21 +4381,21 @@
       <c r="AB43" s="55"/>
     </row>
     <row r="44" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="191"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="183"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="183"/>
-      <c r="G44" s="184"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="131"/>
       <c r="I44" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="124"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="126"/>
+      <c r="J44" s="209"/>
+      <c r="K44" s="210"/>
+      <c r="L44" s="210"/>
+      <c r="M44" s="210"/>
+      <c r="N44" s="210"/>
+      <c r="O44" s="211"/>
       <c r="P44" s="9" t="s">
         <v>30</v>
       </c>
@@ -4394,12 +4406,12 @@
         <v>2</v>
       </c>
       <c r="S44" s="11"/>
-      <c r="U44" s="103"/>
+      <c r="U44" s="112"/>
       <c r="V44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W44" s="107"/>
-      <c r="X44" s="107"/>
+      <c r="W44" s="140"/>
+      <c r="X44" s="140"/>
       <c r="Y44" s="10" t="s">
         <v>49</v>
       </c>
@@ -4410,31 +4422,31 @@
       <c r="AB44" s="11"/>
     </row>
     <row r="45" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="191"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="184"/>
-      <c r="I45" s="103" t="s">
+      <c r="B45" s="111"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="131"/>
+      <c r="I45" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="111"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112"/>
-      <c r="M45" s="112"/>
-      <c r="N45" s="112"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="112"/>
-      <c r="R45" s="112"/>
-      <c r="S45" s="113"/>
-      <c r="U45" s="104"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="123"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="123"/>
+      <c r="N45" s="123"/>
+      <c r="O45" s="123"/>
+      <c r="P45" s="123"/>
+      <c r="Q45" s="123"/>
+      <c r="R45" s="123"/>
+      <c r="S45" s="124"/>
+      <c r="U45" s="121"/>
       <c r="V45" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="W45" s="108"/>
-      <c r="X45" s="108"/>
+      <c r="W45" s="141"/>
+      <c r="X45" s="141"/>
       <c r="Y45" s="56" t="s">
         <v>15</v>
       </c>
@@ -4445,28 +4457,28 @@
       <c r="AB45" s="57"/>
     </row>
     <row r="46" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="191"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="184"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="122"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="122"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
-      <c r="S46" s="123"/>
-      <c r="U46" s="82" t="s">
+      <c r="B46" s="111"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="131"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="126"/>
+      <c r="N46" s="126"/>
+      <c r="O46" s="126"/>
+      <c r="P46" s="126"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="126"/>
+      <c r="S46" s="127"/>
+      <c r="U46" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V46" s="109"/>
-      <c r="W46" s="109"/>
+      <c r="V46" s="238"/>
+      <c r="W46" s="238"/>
       <c r="X46" s="49" t="s">
         <v>107</v>
       </c>
@@ -4480,27 +4492,27 @@
       <c r="AA46" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AB46" s="69">
+      <c r="AB46" s="68">
         <f>SUM(AB36:AB38) + AB41+AB43+AB45</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="192"/>
-      <c r="C47" s="185"/>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="187"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="133"/>
       <c r="I47" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="97"/>
-      <c r="K47" s="98"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="98"/>
-      <c r="N47" s="98"/>
-      <c r="O47" s="117"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="142"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
+      <c r="O47" s="120"/>
       <c r="P47" s="9" t="s">
         <v>30</v>
       </c>
@@ -4511,91 +4523,91 @@
         <v>2</v>
       </c>
       <c r="S47" s="11"/>
-      <c r="U47" s="103" t="s">
+      <c r="U47" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="V47" s="91"/>
-      <c r="W47" s="92"/>
-      <c r="X47" s="92"/>
-      <c r="Y47" s="92"/>
-      <c r="Z47" s="92"/>
-      <c r="AA47" s="92"/>
-      <c r="AB47" s="93"/>
+      <c r="V47" s="104"/>
+      <c r="W47" s="105"/>
+      <c r="X47" s="105"/>
+      <c r="Y47" s="105"/>
+      <c r="Z47" s="105"/>
+      <c r="AA47" s="105"/>
+      <c r="AB47" s="106"/>
     </row>
     <row r="48" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="188" t="s">
+      <c r="B48" s="221" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="193"/>
-      <c r="D48" s="194"/>
-      <c r="E48" s="194"/>
-      <c r="F48" s="194"/>
-      <c r="G48" s="195"/>
-      <c r="I48" s="103" t="s">
+      <c r="C48" s="222"/>
+      <c r="D48" s="223"/>
+      <c r="E48" s="223"/>
+      <c r="F48" s="223"/>
+      <c r="G48" s="224"/>
+      <c r="I48" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="111"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="112"/>
-      <c r="M48" s="112"/>
-      <c r="N48" s="112"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="112"/>
-      <c r="Q48" s="112"/>
-      <c r="R48" s="112"/>
-      <c r="S48" s="113"/>
-      <c r="U48" s="103"/>
-      <c r="V48" s="91"/>
-      <c r="W48" s="92"/>
-      <c r="X48" s="92"/>
-      <c r="Y48" s="92"/>
-      <c r="Z48" s="92"/>
-      <c r="AA48" s="92"/>
-      <c r="AB48" s="93"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="123"/>
+      <c r="N48" s="123"/>
+      <c r="O48" s="123"/>
+      <c r="P48" s="123"/>
+      <c r="Q48" s="123"/>
+      <c r="R48" s="123"/>
+      <c r="S48" s="124"/>
+      <c r="U48" s="112"/>
+      <c r="V48" s="104"/>
+      <c r="W48" s="105"/>
+      <c r="X48" s="105"/>
+      <c r="Y48" s="105"/>
+      <c r="Z48" s="105"/>
+      <c r="AA48" s="105"/>
+      <c r="AB48" s="106"/>
     </row>
     <row r="49" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="103"/>
-      <c r="C49" s="150"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="152"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="122"/>
-      <c r="L49" s="122"/>
-      <c r="M49" s="122"/>
-      <c r="N49" s="122"/>
-      <c r="O49" s="122"/>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="123"/>
-      <c r="U49" s="103"/>
-      <c r="V49" s="91"/>
-      <c r="W49" s="92"/>
-      <c r="X49" s="92"/>
-      <c r="Y49" s="92"/>
-      <c r="Z49" s="92"/>
-      <c r="AA49" s="92"/>
-      <c r="AB49" s="93"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="178"/>
+      <c r="E49" s="178"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="179"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="126"/>
+      <c r="M49" s="126"/>
+      <c r="N49" s="126"/>
+      <c r="O49" s="126"/>
+      <c r="P49" s="126"/>
+      <c r="Q49" s="126"/>
+      <c r="R49" s="126"/>
+      <c r="S49" s="127"/>
+      <c r="U49" s="112"/>
+      <c r="V49" s="104"/>
+      <c r="W49" s="105"/>
+      <c r="X49" s="105"/>
+      <c r="Y49" s="105"/>
+      <c r="Z49" s="105"/>
+      <c r="AA49" s="105"/>
+      <c r="AB49" s="106"/>
     </row>
     <row r="50" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="103"/>
-      <c r="C50" s="150"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="152"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="178"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="178"/>
+      <c r="G50" s="179"/>
       <c r="I50" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="97"/>
-      <c r="K50" s="98"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="98"/>
-      <c r="O50" s="117"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="142"/>
+      <c r="L50" s="142"/>
+      <c r="M50" s="142"/>
+      <c r="N50" s="142"/>
+      <c r="O50" s="120"/>
       <c r="P50" s="9" t="s">
         <v>30</v>
       </c>
@@ -4606,88 +4618,88 @@
         <v>2</v>
       </c>
       <c r="S50" s="11"/>
-      <c r="U50" s="103"/>
-      <c r="V50" s="91"/>
-      <c r="W50" s="92"/>
-      <c r="X50" s="92"/>
-      <c r="Y50" s="92"/>
-      <c r="Z50" s="92"/>
-      <c r="AA50" s="92"/>
-      <c r="AB50" s="93"/>
+      <c r="U50" s="112"/>
+      <c r="V50" s="104"/>
+      <c r="W50" s="105"/>
+      <c r="X50" s="105"/>
+      <c r="Y50" s="105"/>
+      <c r="Z50" s="105"/>
+      <c r="AA50" s="105"/>
+      <c r="AB50" s="106"/>
     </row>
     <row r="51" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="103"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="152"/>
-      <c r="I51" s="103" t="s">
+      <c r="B51" s="112"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="179"/>
+      <c r="I51" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="J51" s="111"/>
-      <c r="K51" s="112"/>
-      <c r="L51" s="112"/>
-      <c r="M51" s="112"/>
-      <c r="N51" s="112"/>
-      <c r="O51" s="112"/>
-      <c r="P51" s="112"/>
-      <c r="Q51" s="112"/>
-      <c r="R51" s="112"/>
-      <c r="S51" s="113"/>
-      <c r="U51" s="103"/>
-      <c r="V51" s="91"/>
-      <c r="W51" s="92"/>
-      <c r="X51" s="92"/>
-      <c r="Y51" s="92"/>
-      <c r="Z51" s="92"/>
-      <c r="AA51" s="92"/>
-      <c r="AB51" s="93"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="123"/>
+      <c r="L51" s="123"/>
+      <c r="M51" s="123"/>
+      <c r="N51" s="123"/>
+      <c r="O51" s="123"/>
+      <c r="P51" s="123"/>
+      <c r="Q51" s="123"/>
+      <c r="R51" s="123"/>
+      <c r="S51" s="124"/>
+      <c r="U51" s="112"/>
+      <c r="V51" s="104"/>
+      <c r="W51" s="105"/>
+      <c r="X51" s="105"/>
+      <c r="Y51" s="105"/>
+      <c r="Z51" s="105"/>
+      <c r="AA51" s="105"/>
+      <c r="AB51" s="106"/>
     </row>
     <row r="52" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="110"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="155"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="115"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="115"/>
-      <c r="N52" s="115"/>
-      <c r="O52" s="115"/>
-      <c r="P52" s="115"/>
-      <c r="Q52" s="115"/>
-      <c r="R52" s="115"/>
-      <c r="S52" s="116"/>
-      <c r="U52" s="110"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="95"/>
-      <c r="X52" s="95"/>
-      <c r="Y52" s="95"/>
-      <c r="Z52" s="95"/>
-      <c r="AA52" s="95"/>
-      <c r="AB52" s="96"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="180"/>
+      <c r="D52" s="181"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="181"/>
+      <c r="G52" s="182"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="139"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="91"/>
+      <c r="M52" s="91"/>
+      <c r="N52" s="91"/>
+      <c r="O52" s="91"/>
+      <c r="P52" s="91"/>
+      <c r="Q52" s="91"/>
+      <c r="R52" s="91"/>
+      <c r="S52" s="92"/>
+      <c r="U52" s="138"/>
+      <c r="V52" s="235"/>
+      <c r="W52" s="236"/>
+      <c r="X52" s="236"/>
+      <c r="Y52" s="236"/>
+      <c r="Z52" s="236"/>
+      <c r="AA52" s="236"/>
+      <c r="AB52" s="237"/>
     </row>
     <row r="53" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="220" t="s">
+      <c r="B53" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="218"/>
-      <c r="D53" s="218"/>
-      <c r="E53" s="218"/>
-      <c r="F53" s="218"/>
-      <c r="G53" s="219"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="129"/>
       <c r="U53" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="V53" s="101"/>
-      <c r="W53" s="101"/>
-      <c r="X53" s="101"/>
-      <c r="Y53" s="101"/>
-      <c r="Z53" s="101"/>
+      <c r="V53" s="152"/>
+      <c r="W53" s="152"/>
+      <c r="X53" s="152"/>
+      <c r="Y53" s="152"/>
+      <c r="Z53" s="152"/>
       <c r="AA53" s="14" t="s">
         <v>2</v>
       </c>
@@ -4697,32 +4709,32 @@
       </c>
     </row>
     <row r="54" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="191"/>
-      <c r="C54" s="183"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="183"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="184"/>
-      <c r="I54" s="118" t="s">
+      <c r="B54" s="111"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="131"/>
+      <c r="I54" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="120"/>
-      <c r="O54" s="118" t="s">
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="97"/>
+      <c r="O54" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="119"/>
-      <c r="S54" s="120"/>
+      <c r="P54" s="96"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="97"/>
       <c r="U54" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="V54" s="99"/>
-      <c r="W54" s="100"/>
-      <c r="X54" s="100"/>
+      <c r="V54" s="143"/>
+      <c r="W54" s="144"/>
+      <c r="X54" s="144"/>
       <c r="Y54" s="6" t="s">
         <v>15</v>
       </c>
@@ -4733,32 +4745,32 @@
       <c r="AB54" s="7"/>
     </row>
     <row r="55" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="191"/>
-      <c r="C55" s="183"/>
-      <c r="D55" s="183"/>
-      <c r="E55" s="183"/>
-      <c r="F55" s="183"/>
-      <c r="G55" s="184"/>
-      <c r="I55" s="220" t="s">
+      <c r="B55" s="111"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="131"/>
+      <c r="I55" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="231"/>
-      <c r="K55" s="232"/>
-      <c r="L55" s="232"/>
-      <c r="M55" s="233"/>
-      <c r="O55" s="220" t="s">
+      <c r="J55" s="98"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="100"/>
+      <c r="O55" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="P55" s="231"/>
-      <c r="Q55" s="232"/>
-      <c r="R55" s="232"/>
-      <c r="S55" s="233"/>
+      <c r="P55" s="98"/>
+      <c r="Q55" s="99"/>
+      <c r="R55" s="99"/>
+      <c r="S55" s="100"/>
       <c r="U55" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="V55" s="97"/>
-      <c r="W55" s="98"/>
-      <c r="X55" s="98"/>
+      <c r="V55" s="119"/>
+      <c r="W55" s="142"/>
+      <c r="X55" s="142"/>
       <c r="Y55" s="10" t="s">
         <v>15</v>
       </c>
@@ -4769,28 +4781,28 @@
       <c r="AB55" s="11"/>
     </row>
     <row r="56" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="191"/>
-      <c r="C56" s="183"/>
-      <c r="D56" s="183"/>
-      <c r="E56" s="183"/>
-      <c r="F56" s="183"/>
-      <c r="G56" s="184"/>
-      <c r="I56" s="191"/>
-      <c r="J56" s="234"/>
-      <c r="K56" s="235"/>
-      <c r="L56" s="235"/>
-      <c r="M56" s="236"/>
-      <c r="O56" s="191"/>
-      <c r="P56" s="234"/>
-      <c r="Q56" s="235"/>
-      <c r="R56" s="235"/>
-      <c r="S56" s="236"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="131"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="102"/>
+      <c r="M56" s="103"/>
+      <c r="O56" s="111"/>
+      <c r="P56" s="101"/>
+      <c r="Q56" s="102"/>
+      <c r="R56" s="102"/>
+      <c r="S56" s="103"/>
       <c r="U56" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="V56" s="99"/>
-      <c r="W56" s="100"/>
-      <c r="X56" s="100"/>
+      <c r="V56" s="143"/>
+      <c r="W56" s="144"/>
+      <c r="X56" s="144"/>
       <c r="Y56" s="6" t="s">
         <v>15</v>
       </c>
@@ -4801,65 +4813,65 @@
       <c r="AB56" s="7"/>
     </row>
     <row r="57" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="192"/>
-      <c r="C57" s="186"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="186"/>
-      <c r="F57" s="186"/>
-      <c r="G57" s="187"/>
-      <c r="I57" s="191"/>
-      <c r="J57" s="234"/>
-      <c r="K57" s="235"/>
-      <c r="L57" s="235"/>
-      <c r="M57" s="236"/>
-      <c r="O57" s="191"/>
-      <c r="P57" s="234"/>
-      <c r="Q57" s="235"/>
-      <c r="R57" s="235"/>
-      <c r="S57" s="236"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="133"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="102"/>
+      <c r="M57" s="103"/>
+      <c r="O57" s="111"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="102"/>
+      <c r="R57" s="102"/>
+      <c r="S57" s="103"/>
       <c r="U57" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="V57" s="70"/>
-      <c r="W57" s="71" t="s">
+      <c r="V57" s="69"/>
+      <c r="W57" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="X57" s="71">
+      <c r="X57" s="70">
         <f>W64+Z64+AB64</f>
         <v>0</v>
       </c>
-      <c r="Y57" s="71" t="s">
+      <c r="Y57" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="71" t="s">
+      <c r="Z57" s="70"/>
+      <c r="AA57" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="AB57" s="243"/>
+      <c r="AB57" s="89"/>
     </row>
     <row r="58" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I58" s="103" t="s">
+      <c r="I58" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="J58" s="91"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="93"/>
-      <c r="O58" s="103" t="s">
+      <c r="J58" s="104"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="106"/>
+      <c r="O58" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="P58" s="91"/>
-      <c r="Q58" s="92"/>
-      <c r="R58" s="92"/>
-      <c r="S58" s="93"/>
-      <c r="U58" s="102" t="s">
+      <c r="P58" s="104"/>
+      <c r="Q58" s="105"/>
+      <c r="R58" s="105"/>
+      <c r="S58" s="106"/>
+      <c r="U58" s="234" t="s">
         <v>52</v>
       </c>
       <c r="V58" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="W58" s="105"/>
-      <c r="X58" s="105"/>
+      <c r="W58" s="233"/>
+      <c r="X58" s="233"/>
       <c r="Y58" s="47" t="s">
         <v>49</v>
       </c>
@@ -4870,30 +4882,30 @@
       <c r="AB58" s="38"/>
     </row>
     <row r="59" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="120"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="93"/>
-      <c r="O59" s="103"/>
-      <c r="P59" s="91"/>
-      <c r="Q59" s="92"/>
-      <c r="R59" s="92"/>
-      <c r="S59" s="93"/>
-      <c r="U59" s="103"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="97"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="105"/>
+      <c r="L59" s="105"/>
+      <c r="M59" s="106"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="104"/>
+      <c r="Q59" s="105"/>
+      <c r="R59" s="105"/>
+      <c r="S59" s="106"/>
+      <c r="U59" s="112"/>
       <c r="V59" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W59" s="106"/>
-      <c r="X59" s="106"/>
+      <c r="W59" s="232"/>
+      <c r="X59" s="232"/>
       <c r="Y59" s="54" t="s">
         <v>15</v>
       </c>
@@ -4904,30 +4916,30 @@
       <c r="AB59" s="55"/>
     </row>
     <row r="60" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="217"/>
-      <c r="D60" s="218"/>
-      <c r="E60" s="218"/>
-      <c r="F60" s="218"/>
-      <c r="G60" s="219"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
-      <c r="M60" s="93"/>
-      <c r="O60" s="103"/>
-      <c r="P60" s="91"/>
-      <c r="Q60" s="92"/>
-      <c r="R60" s="92"/>
-      <c r="S60" s="93"/>
-      <c r="U60" s="103"/>
+      <c r="C60" s="231"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="129"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="106"/>
+      <c r="O60" s="112"/>
+      <c r="P60" s="104"/>
+      <c r="Q60" s="105"/>
+      <c r="R60" s="105"/>
+      <c r="S60" s="106"/>
+      <c r="U60" s="112"/>
       <c r="V60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W60" s="107"/>
-      <c r="X60" s="107"/>
+      <c r="W60" s="140"/>
+      <c r="X60" s="140"/>
       <c r="Y60" s="10" t="s">
         <v>49</v>
       </c>
@@ -4938,38 +4950,38 @@
       <c r="AB60" s="11"/>
     </row>
     <row r="61" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="75"/>
-      <c r="D61" s="73" t="s">
+      <c r="C61" s="74"/>
+      <c r="D61" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="E61" s="75"/>
-      <c r="F61" s="73" t="s">
+      <c r="E61" s="74"/>
+      <c r="F61" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="G61" s="76"/>
-      <c r="I61" s="191" t="s">
+      <c r="G61" s="75"/>
+      <c r="I61" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="J61" s="234"/>
-      <c r="K61" s="235"/>
-      <c r="L61" s="235"/>
-      <c r="M61" s="236"/>
-      <c r="O61" s="191" t="s">
+      <c r="J61" s="101"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="103"/>
+      <c r="O61" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="P61" s="234"/>
-      <c r="Q61" s="235"/>
-      <c r="R61" s="235"/>
-      <c r="S61" s="236"/>
-      <c r="U61" s="103"/>
+      <c r="P61" s="101"/>
+      <c r="Q61" s="102"/>
+      <c r="R61" s="102"/>
+      <c r="S61" s="103"/>
+      <c r="U61" s="112"/>
       <c r="V61" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W61" s="106"/>
-      <c r="X61" s="106"/>
+      <c r="W61" s="232"/>
+      <c r="X61" s="232"/>
       <c r="Y61" s="54" t="s">
         <v>15</v>
       </c>
@@ -4980,28 +4992,28 @@
       <c r="AB61" s="55"/>
     </row>
     <row r="62" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="211"/>
-      <c r="C62" s="212"/>
-      <c r="D62" s="212"/>
-      <c r="E62" s="212"/>
-      <c r="F62" s="212"/>
-      <c r="G62" s="213"/>
-      <c r="I62" s="191"/>
-      <c r="J62" s="234"/>
-      <c r="K62" s="235"/>
-      <c r="L62" s="235"/>
-      <c r="M62" s="236"/>
-      <c r="O62" s="191"/>
-      <c r="P62" s="234"/>
-      <c r="Q62" s="235"/>
-      <c r="R62" s="235"/>
-      <c r="S62" s="236"/>
-      <c r="U62" s="103"/>
+      <c r="B62" s="225"/>
+      <c r="C62" s="226"/>
+      <c r="D62" s="226"/>
+      <c r="E62" s="226"/>
+      <c r="F62" s="226"/>
+      <c r="G62" s="227"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="103"/>
+      <c r="O62" s="111"/>
+      <c r="P62" s="101"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="102"/>
+      <c r="S62" s="103"/>
+      <c r="U62" s="112"/>
       <c r="V62" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W62" s="107"/>
-      <c r="X62" s="107"/>
+      <c r="W62" s="140"/>
+      <c r="X62" s="140"/>
       <c r="Y62" s="10" t="s">
         <v>49</v>
       </c>
@@ -5012,28 +5024,28 @@
       <c r="AB62" s="11"/>
     </row>
     <row r="63" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="211"/>
-      <c r="C63" s="212"/>
-      <c r="D63" s="212"/>
-      <c r="E63" s="212"/>
-      <c r="F63" s="212"/>
-      <c r="G63" s="213"/>
-      <c r="I63" s="192"/>
-      <c r="J63" s="237"/>
-      <c r="K63" s="238"/>
-      <c r="L63" s="238"/>
-      <c r="M63" s="239"/>
-      <c r="O63" s="192"/>
-      <c r="P63" s="237"/>
-      <c r="Q63" s="238"/>
-      <c r="R63" s="238"/>
-      <c r="S63" s="239"/>
-      <c r="U63" s="104"/>
+      <c r="B63" s="225"/>
+      <c r="C63" s="226"/>
+      <c r="D63" s="226"/>
+      <c r="E63" s="226"/>
+      <c r="F63" s="226"/>
+      <c r="G63" s="227"/>
+      <c r="I63" s="113"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="109"/>
+      <c r="O63" s="113"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="108"/>
+      <c r="R63" s="108"/>
+      <c r="S63" s="109"/>
+      <c r="U63" s="121"/>
       <c r="V63" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="W63" s="108"/>
-      <c r="X63" s="108"/>
+      <c r="W63" s="141"/>
+      <c r="X63" s="141"/>
       <c r="Y63" s="56" t="s">
         <v>15</v>
       </c>
@@ -5044,17 +5056,17 @@
       <c r="AB63" s="57"/>
     </row>
     <row r="64" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="211"/>
-      <c r="C64" s="212"/>
-      <c r="D64" s="212"/>
-      <c r="E64" s="212"/>
-      <c r="F64" s="212"/>
-      <c r="G64" s="213"/>
-      <c r="U64" s="82" t="s">
+      <c r="B64" s="225"/>
+      <c r="C64" s="226"/>
+      <c r="D64" s="226"/>
+      <c r="E64" s="226"/>
+      <c r="F64" s="226"/>
+      <c r="G64" s="227"/>
+      <c r="U64" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V64" s="109"/>
-      <c r="W64" s="109"/>
+      <c r="V64" s="238"/>
+      <c r="W64" s="238"/>
       <c r="X64" s="49" t="s">
         <v>107</v>
       </c>
@@ -5068,115 +5080,115 @@
       <c r="AA64" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AB64" s="69">
+      <c r="AB64" s="68">
         <f>SUM(AB54:AB56) + AB59+AB61+AB63</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="211"/>
-      <c r="C65" s="212"/>
-      <c r="D65" s="212"/>
-      <c r="E65" s="212"/>
-      <c r="F65" s="212"/>
-      <c r="G65" s="213"/>
-      <c r="I65" s="118" t="s">
+      <c r="B65" s="225"/>
+      <c r="C65" s="226"/>
+      <c r="D65" s="226"/>
+      <c r="E65" s="226"/>
+      <c r="F65" s="226"/>
+      <c r="G65" s="227"/>
+      <c r="I65" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="J65" s="119"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="119"/>
-      <c r="M65" s="120"/>
-      <c r="O65" s="118" t="s">
+      <c r="J65" s="96"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="96"/>
+      <c r="M65" s="97"/>
+      <c r="O65" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="119"/>
-      <c r="Q65" s="119"/>
-      <c r="R65" s="119"/>
-      <c r="S65" s="120"/>
-      <c r="U65" s="103" t="s">
+      <c r="P65" s="96"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="96"/>
+      <c r="S65" s="97"/>
+      <c r="U65" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="V65" s="91"/>
-      <c r="W65" s="92"/>
-      <c r="X65" s="92"/>
-      <c r="Y65" s="92"/>
-      <c r="Z65" s="92"/>
-      <c r="AA65" s="92"/>
-      <c r="AB65" s="93"/>
+      <c r="V65" s="104"/>
+      <c r="W65" s="105"/>
+      <c r="X65" s="105"/>
+      <c r="Y65" s="105"/>
+      <c r="Z65" s="105"/>
+      <c r="AA65" s="105"/>
+      <c r="AB65" s="106"/>
     </row>
     <row r="66" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="211"/>
-      <c r="C66" s="212"/>
-      <c r="D66" s="212"/>
-      <c r="E66" s="212"/>
-      <c r="F66" s="212"/>
-      <c r="G66" s="213"/>
-      <c r="I66" s="84" t="s">
+      <c r="B66" s="225"/>
+      <c r="C66" s="226"/>
+      <c r="D66" s="226"/>
+      <c r="E66" s="226"/>
+      <c r="F66" s="226"/>
+      <c r="G66" s="227"/>
+      <c r="I66" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="J66" s="179"/>
-      <c r="K66" s="190"/>
-      <c r="L66" s="85" t="s">
+      <c r="J66" s="117"/>
+      <c r="K66" s="118"/>
+      <c r="L66" s="84" t="s">
         <v>108</v>
       </c>
       <c r="M66" s="4"/>
-      <c r="O66" s="84" t="s">
+      <c r="O66" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="P66" s="179"/>
-      <c r="Q66" s="190"/>
-      <c r="R66" s="85" t="s">
+      <c r="P66" s="117"/>
+      <c r="Q66" s="118"/>
+      <c r="R66" s="84" t="s">
         <v>108</v>
       </c>
       <c r="S66" s="4"/>
-      <c r="U66" s="103"/>
-      <c r="V66" s="91"/>
-      <c r="W66" s="92"/>
-      <c r="X66" s="92"/>
-      <c r="Y66" s="92"/>
-      <c r="Z66" s="92"/>
-      <c r="AA66" s="92"/>
-      <c r="AB66" s="93"/>
+      <c r="U66" s="112"/>
+      <c r="V66" s="104"/>
+      <c r="W66" s="105"/>
+      <c r="X66" s="105"/>
+      <c r="Y66" s="105"/>
+      <c r="Z66" s="105"/>
+      <c r="AA66" s="105"/>
+      <c r="AB66" s="106"/>
     </row>
     <row r="67" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="211"/>
-      <c r="C67" s="212"/>
-      <c r="D67" s="212"/>
-      <c r="E67" s="212"/>
-      <c r="F67" s="212"/>
-      <c r="G67" s="213"/>
-      <c r="I67" s="226"/>
-      <c r="J67" s="227"/>
-      <c r="K67" s="227"/>
-      <c r="L67" s="227"/>
-      <c r="M67" s="228"/>
-      <c r="O67" s="226"/>
-      <c r="P67" s="227"/>
-      <c r="Q67" s="227"/>
-      <c r="R67" s="227"/>
-      <c r="S67" s="228"/>
-      <c r="U67" s="103"/>
-      <c r="V67" s="91"/>
-      <c r="W67" s="92"/>
-      <c r="X67" s="92"/>
-      <c r="Y67" s="92"/>
-      <c r="Z67" s="92"/>
-      <c r="AA67" s="92"/>
-      <c r="AB67" s="93"/>
+      <c r="B67" s="225"/>
+      <c r="C67" s="226"/>
+      <c r="D67" s="226"/>
+      <c r="E67" s="226"/>
+      <c r="F67" s="226"/>
+      <c r="G67" s="227"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="115"/>
+      <c r="K67" s="115"/>
+      <c r="L67" s="115"/>
+      <c r="M67" s="116"/>
+      <c r="O67" s="114"/>
+      <c r="P67" s="115"/>
+      <c r="Q67" s="115"/>
+      <c r="R67" s="115"/>
+      <c r="S67" s="116"/>
+      <c r="U67" s="112"/>
+      <c r="V67" s="104"/>
+      <c r="W67" s="105"/>
+      <c r="X67" s="105"/>
+      <c r="Y67" s="105"/>
+      <c r="Z67" s="105"/>
+      <c r="AA67" s="105"/>
+      <c r="AB67" s="106"/>
     </row>
     <row r="68" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="214"/>
-      <c r="C68" s="215"/>
-      <c r="D68" s="215"/>
-      <c r="E68" s="215"/>
-      <c r="F68" s="215"/>
-      <c r="G68" s="216"/>
+      <c r="B68" s="228"/>
+      <c r="C68" s="229"/>
+      <c r="D68" s="229"/>
+      <c r="E68" s="229"/>
+      <c r="F68" s="229"/>
+      <c r="G68" s="230"/>
       <c r="I68" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="J68" s="97"/>
-      <c r="K68" s="117"/>
+      <c r="J68" s="119"/>
+      <c r="K68" s="120"/>
       <c r="L68" s="9" t="s">
         <v>108</v>
       </c>
@@ -5184,55 +5196,55 @@
       <c r="O68" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="P68" s="97"/>
-      <c r="Q68" s="117"/>
+      <c r="P68" s="119"/>
+      <c r="Q68" s="120"/>
       <c r="R68" s="9" t="s">
         <v>108</v>
       </c>
       <c r="S68" s="11"/>
-      <c r="U68" s="103"/>
-      <c r="V68" s="91"/>
-      <c r="W68" s="92"/>
-      <c r="X68" s="92"/>
-      <c r="Y68" s="92"/>
-      <c r="Z68" s="92"/>
-      <c r="AA68" s="92"/>
-      <c r="AB68" s="93"/>
+      <c r="U68" s="112"/>
+      <c r="V68" s="104"/>
+      <c r="W68" s="105"/>
+      <c r="X68" s="105"/>
+      <c r="Y68" s="105"/>
+      <c r="Z68" s="105"/>
+      <c r="AA68" s="105"/>
+      <c r="AB68" s="106"/>
     </row>
     <row r="69" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="226"/>
-      <c r="J69" s="227"/>
-      <c r="K69" s="227"/>
-      <c r="L69" s="227"/>
-      <c r="M69" s="228"/>
-      <c r="O69" s="226"/>
-      <c r="P69" s="227"/>
-      <c r="Q69" s="227"/>
-      <c r="R69" s="227"/>
-      <c r="S69" s="228"/>
-      <c r="U69" s="103"/>
-      <c r="V69" s="91"/>
-      <c r="W69" s="92"/>
-      <c r="X69" s="92"/>
-      <c r="Y69" s="92"/>
-      <c r="Z69" s="92"/>
-      <c r="AA69" s="92"/>
-      <c r="AB69" s="93"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="115"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="116"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="115"/>
+      <c r="Q69" s="115"/>
+      <c r="R69" s="115"/>
+      <c r="S69" s="116"/>
+      <c r="U69" s="112"/>
+      <c r="V69" s="104"/>
+      <c r="W69" s="105"/>
+      <c r="X69" s="105"/>
+      <c r="Y69" s="105"/>
+      <c r="Z69" s="105"/>
+      <c r="AA69" s="105"/>
+      <c r="AB69" s="106"/>
     </row>
     <row r="70" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="118" t="s">
+      <c r="B70" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="119"/>
-      <c r="D70" s="119"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="119"/>
-      <c r="G70" s="120"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="97"/>
       <c r="I70" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="97"/>
-      <c r="K70" s="117"/>
+      <c r="J70" s="119"/>
+      <c r="K70" s="120"/>
       <c r="L70" s="9" t="s">
         <v>108</v>
       </c>
@@ -5240,197 +5252,77 @@
       <c r="O70" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="P70" s="97"/>
-      <c r="Q70" s="117"/>
+      <c r="P70" s="119"/>
+      <c r="Q70" s="120"/>
       <c r="R70" s="9" t="s">
         <v>108</v>
       </c>
       <c r="S70" s="11"/>
-      <c r="U70" s="110"/>
-      <c r="V70" s="94"/>
-      <c r="W70" s="95"/>
-      <c r="X70" s="95"/>
-      <c r="Y70" s="95"/>
-      <c r="Z70" s="95"/>
-      <c r="AA70" s="95"/>
-      <c r="AB70" s="96"/>
+      <c r="U70" s="138"/>
+      <c r="V70" s="235"/>
+      <c r="W70" s="236"/>
+      <c r="X70" s="236"/>
+      <c r="Y70" s="236"/>
+      <c r="Z70" s="236"/>
+      <c r="AA70" s="236"/>
+      <c r="AB70" s="237"/>
     </row>
     <row r="71" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="127"/>
-      <c r="C71" s="128"/>
-      <c r="D71" s="128"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="129"/>
-      <c r="I71" s="229"/>
-      <c r="J71" s="115"/>
-      <c r="K71" s="115"/>
-      <c r="L71" s="115"/>
-      <c r="M71" s="116"/>
-      <c r="O71" s="229"/>
-      <c r="P71" s="115"/>
-      <c r="Q71" s="115"/>
-      <c r="R71" s="115"/>
-      <c r="S71" s="116"/>
+      <c r="B71" s="212"/>
+      <c r="C71" s="213"/>
+      <c r="D71" s="213"/>
+      <c r="E71" s="213"/>
+      <c r="F71" s="213"/>
+      <c r="G71" s="214"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="91"/>
+      <c r="M71" s="92"/>
+      <c r="O71" s="90"/>
+      <c r="P71" s="91"/>
+      <c r="Q71" s="91"/>
+      <c r="R71" s="91"/>
+      <c r="S71" s="92"/>
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B72" s="130"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="131"/>
-      <c r="E72" s="131"/>
-      <c r="F72" s="131"/>
-      <c r="G72" s="132"/>
+      <c r="B72" s="215"/>
+      <c r="C72" s="216"/>
+      <c r="D72" s="216"/>
+      <c r="E72" s="216"/>
+      <c r="F72" s="216"/>
+      <c r="G72" s="217"/>
     </row>
     <row r="73" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="130"/>
-      <c r="C73" s="131"/>
-      <c r="D73" s="131"/>
-      <c r="E73" s="131"/>
-      <c r="F73" s="131"/>
-      <c r="G73" s="132"/>
+      <c r="B73" s="215"/>
+      <c r="C73" s="216"/>
+      <c r="D73" s="216"/>
+      <c r="E73" s="216"/>
+      <c r="F73" s="216"/>
+      <c r="G73" s="217"/>
     </row>
     <row r="74" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="133"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="135"/>
+      <c r="B74" s="218"/>
+      <c r="C74" s="219"/>
+      <c r="D74" s="219"/>
+      <c r="E74" s="219"/>
+      <c r="F74" s="219"/>
+      <c r="G74" s="220"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="O71:S71"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="J55:M57"/>
-    <mergeCell ref="J58:M60"/>
-    <mergeCell ref="J61:M63"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="O55:O57"/>
-    <mergeCell ref="P55:S57"/>
-    <mergeCell ref="O58:O60"/>
-    <mergeCell ref="P58:S60"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="P61:S63"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I71:M71"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:S32"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:G57"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:S49"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:S41"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="C43:G47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J16:M17"/>
-    <mergeCell ref="I26:S26"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:M12"/>
-    <mergeCell ref="J6:M7"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B10:D16"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J18:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:S38"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:M24"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P18:S19"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="P22:S24"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:S35"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:S29"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="U2:AB2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="U16:AB16"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:S12"/>
-    <mergeCell ref="J51:S52"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="I43:S43"/>
-    <mergeCell ref="J45:S46"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G74"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:G52"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B62:G68"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="O67:S67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="U65:U70"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V53:Z53"/>
+    <mergeCell ref="U58:U63"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="W63:X63"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="V20:X20"/>
     <mergeCell ref="V54:X54"/>
@@ -5455,18 +5347,138 @@
     <mergeCell ref="V36:X36"/>
     <mergeCell ref="V47:AB52"/>
     <mergeCell ref="V65:AB70"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V53:Z53"/>
-    <mergeCell ref="U58:U63"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="U65:U70"/>
+    <mergeCell ref="B62:G68"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="O67:S67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="U16:AB16"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="P10:S12"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:S38"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:M24"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P18:S19"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="P22:S24"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:S35"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:S29"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:M12"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B10:D16"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="C43:G47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="I26:S26"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="J18:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:S32"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:G57"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:S49"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:S41"/>
+    <mergeCell ref="J51:S52"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="I43:S43"/>
+    <mergeCell ref="J45:S46"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:G52"/>
+    <mergeCell ref="O71:S71"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="J55:M57"/>
+    <mergeCell ref="J58:M60"/>
+    <mergeCell ref="J61:M63"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O55:O57"/>
+    <mergeCell ref="P55:S57"/>
+    <mergeCell ref="O58:O60"/>
+    <mergeCell ref="P58:S60"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="P61:S63"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G74"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="B59:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5503,305 +5515,307 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="241"/>
+    <col min="2" max="2" width="19.5546875" style="241" customWidth="1"/>
+    <col min="3" max="3" width="13" style="241" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="241"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="66"/>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="240"/>
+      <c r="C2" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="240" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="240" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="240" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="67" t="str">
+      <c r="C3" s="242" t="str">
         <f>角色卡!C5</f>
         <v>Saber</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="242">
         <f>VLOOKUP($C$3, $C$4:$G$10, 2, FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="242">
         <f>VLOOKUP($C$3, $C$4:$G$10, 3, FALSE)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="242">
         <f>VLOOKUP($C$3, $C$4:$G$10, 4, FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="242">
         <f>VLOOKUP($C$3, $C$4:$G$10, 5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="242">
         <f>VLOOKUP($C$3, $C$4:$H$10, 6, FALSE)</f>
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="239" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="242">
         <v>3</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="242">
         <v>3</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="242">
         <v>4</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="242">
         <v>0</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="242">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="240"/>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="239"/>
+      <c r="C5" s="242" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="242">
         <v>3</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="242">
         <v>0</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="242">
         <v>3</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="242">
         <v>6</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="242">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="240"/>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="239"/>
+      <c r="C6" s="242" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="242">
         <v>3</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="242">
         <v>-3</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="242">
         <v>3</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="242">
         <v>9</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="242">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="240"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="239"/>
+      <c r="C7" s="242" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="242">
         <v>3</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="242">
         <v>6</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="242">
         <v>4</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="242">
         <v>0</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="240"/>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="239"/>
+      <c r="C8" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="242">
         <v>2</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="242">
         <v>3</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="242">
         <v>5</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="242">
         <v>9</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="240"/>
-      <c r="C9" s="67" t="s">
+      <c r="B9" s="239"/>
+      <c r="C9" s="242" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="242">
         <v>2</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="242">
         <v>3</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="242">
         <v>4</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="242">
         <v>3</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="242">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="240"/>
-      <c r="C10" s="89" t="s">
+      <c r="B10" s="239"/>
+      <c r="C10" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="243">
         <v>4</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="243">
         <v>0</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="243">
         <v>3</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="243">
         <v>0</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="243">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="240" t="s">
+      <c r="B11" s="239" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="244" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="240"/>
-      <c r="C12" s="90" t="s">
+      <c r="B12" s="239"/>
+      <c r="C12" s="244" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="240"/>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="239"/>
+      <c r="C13" s="244" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="D13" s="244"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="244"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="240"/>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="239"/>
+      <c r="C14" s="244" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="240"/>
-      <c r="C15" s="90" t="s">
+      <c r="B15" s="239"/>
+      <c r="C15" s="244" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="240"/>
-      <c r="C16" s="90" t="s">
+      <c r="B16" s="239"/>
+      <c r="C16" s="244" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="240"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="239"/>
+      <c r="C17" s="244" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-    </row>
-    <row r="18" spans="2:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B18" s="241" t="s">
+      <c r="D17" s="244"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="D18" s="244"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5819,7 +5833,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/角色卡/FAG英灵角色卡v0.5.xlsx
+++ b/角色卡/FAG英灵角色卡v0.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxlyl\OneDrive\文档\Others\TRPG\规则书与设定集与人物卡\Fate Atrous Grail\github\FateAtrousGrailTRPG\角色卡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FFE4E1-8728-4C44-8F21-54F054C19F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{A9FFE4E1-8728-4C44-8F21-54F054C19F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C2A0DB-D822-43FB-BB3A-0F6641B69768}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="237">
   <si>
     <t>属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -950,6 +950,14 @@
   </si>
   <si>
     <t>E-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术节加值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1839,6 +1847,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="43" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1932,6 +1958,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1953,318 +2021,276 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2288,24 +2314,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="7" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="43" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="51" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2596,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2610,62 +2618,62 @@
   <sheetData>
     <row r="1" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="I2" s="95" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="I2" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
-      <c r="O2" s="95" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+      <c r="O2" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="97"/>
-      <c r="U2" s="95" t="s">
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="103"/>
+      <c r="U2" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="97"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="103"/>
     </row>
     <row r="3" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
       <c r="I3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="176"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="211"/>
       <c r="O3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="176"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="210"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="211"/>
       <c r="U3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2695,11 +2703,11 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="151"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="173"/>
       <c r="I4" s="41" t="s">
         <v>96</v>
       </c>
@@ -2759,10 +2767,10 @@
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="142"/>
+      <c r="D5" s="149"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2811,25 +2819,25 @@
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="151"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="173"/>
       <c r="I6" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="183"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="185"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="201"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="202"/>
       <c r="O6" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="183"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="184"/>
-      <c r="S6" s="185"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="S6" s="202"/>
       <c r="U6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2859,21 +2867,21 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="148"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="170"/>
       <c r="I7" s="44"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="188"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="205"/>
       <c r="O7" s="44"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="188"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="205"/>
       <c r="U7" s="8" t="s">
         <v>198</v>
       </c>
@@ -2903,25 +2911,25 @@
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="195"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="215"/>
       <c r="I8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="191"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="193"/>
+      <c r="J8" s="206"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="208"/>
       <c r="O8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="191"/>
-      <c r="Q8" s="192"/>
-      <c r="R8" s="192"/>
-      <c r="S8" s="193"/>
+      <c r="P8" s="206"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="207"/>
+      <c r="S8" s="208"/>
       <c r="U8" s="5" t="s">
         <v>199</v>
       </c>
@@ -2951,17 +2959,17 @@
       <c r="I9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="189"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="190"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="213"/>
       <c r="O9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="190"/>
+      <c r="P9" s="212"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="213"/>
       <c r="U9" s="8" t="s">
         <v>5</v>
       </c>
@@ -2982,30 +2990,30 @@
       <c r="AB9" s="11"/>
     </row>
     <row r="10" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="95" t="s">
+      <c r="C10" s="218"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="I10" s="112" t="s">
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="I10" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="177"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="179"/>
-      <c r="O10" s="112" t="s">
+      <c r="J10" s="157"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="159"/>
+      <c r="O10" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="179"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="159"/>
       <c r="U10" s="5" t="s">
         <v>59</v>
       </c>
@@ -3023,24 +3031,24 @@
       <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="200"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="202"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
       <c r="E11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="152"/>
-      <c r="G11" s="153"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="179"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="178"/>
-      <c r="R11" s="178"/>
-      <c r="S11" s="179"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="175"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="159"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="159"/>
       <c r="U11" s="8" t="s">
         <v>60</v>
       </c>
@@ -3058,24 +3066,24 @@
       <c r="AB11" s="27"/>
     </row>
     <row r="12" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="200"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="202"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="196"/>
-      <c r="G12" s="151"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="182"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="180"/>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="181"/>
-      <c r="S12" s="182"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="173"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="162"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="161"/>
+      <c r="S12" s="162"/>
       <c r="U12" s="28" t="s">
         <v>6</v>
       </c>
@@ -3096,14 +3104,14 @@
       <c r="AB12" s="30"/>
     </row>
     <row r="13" spans="2:28" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="200"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="206" t="s">
+      <c r="B13" s="220"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="226" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="207"/>
-      <c r="G13" s="208"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="228"/>
       <c r="U13" s="8" t="s">
         <v>75</v>
       </c>
@@ -3130,28 +3138,28 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="200"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="202"/>
+      <c r="B14" s="220"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="222"/>
       <c r="E14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="196"/>
-      <c r="G14" s="151"/>
-      <c r="I14" s="95" t="s">
+      <c r="F14" s="216"/>
+      <c r="G14" s="173"/>
+      <c r="I14" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="97"/>
-      <c r="O14" s="95" t="s">
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="103"/>
+      <c r="O14" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="97"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="103"/>
       <c r="U14" s="12" t="s">
         <v>72</v>
       </c>
@@ -3181,43 +3189,43 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="200"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="145" t="s">
+      <c r="B15" s="220"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="147"/>
-      <c r="G15" s="148"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="170"/>
       <c r="I15" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="174"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="176"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="210"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="211"/>
       <c r="O15" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="175"/>
-      <c r="R15" s="175"/>
-      <c r="S15" s="176"/>
+      <c r="P15" s="209"/>
+      <c r="Q15" s="210"/>
+      <c r="R15" s="210"/>
+      <c r="S15" s="211"/>
     </row>
     <row r="16" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="203"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="150"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="225"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="172"/>
       <c r="I16" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="168"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="170"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="196"/>
       <c r="O16" s="41" t="s">
         <v>189</v>
       </c>
@@ -3233,23 +3241,23 @@
       <c r="S16" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="U16" s="95" t="s">
+      <c r="U16" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="97"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="103"/>
     </row>
     <row r="17" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="44"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="173"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="199"/>
       <c r="O17" s="44"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
@@ -3258,11 +3266,11 @@
       <c r="U17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V17" s="152"/>
-      <c r="W17" s="152"/>
-      <c r="X17" s="152"/>
-      <c r="Y17" s="152"/>
-      <c r="Z17" s="152"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="174"/>
       <c r="AA17" s="14" t="s">
         <v>47</v>
       </c>
@@ -3272,34 +3280,34 @@
       </c>
     </row>
     <row r="18" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
       <c r="I18" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="J18" s="183"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="185"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="202"/>
       <c r="O18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="184"/>
-      <c r="S18" s="185"/>
+      <c r="P18" s="200"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="202"/>
       <c r="U18" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="V18" s="143"/>
-      <c r="W18" s="144"/>
-      <c r="X18" s="144"/>
+      <c r="V18" s="165"/>
+      <c r="W18" s="166"/>
+      <c r="X18" s="166"/>
       <c r="Y18" s="6" t="s">
         <v>15</v>
       </c>
@@ -3329,21 +3337,21 @@
         <v>197</v>
       </c>
       <c r="I19" s="44"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="188"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="205"/>
       <c r="O19" s="44"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="187"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="188"/>
+      <c r="P19" s="203"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="205"/>
       <c r="U19" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="V19" s="119"/>
-      <c r="W19" s="142"/>
-      <c r="X19" s="142"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
       <c r="Y19" s="10" t="s">
         <v>15</v>
       </c>
@@ -3380,23 +3388,23 @@
       <c r="I20" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="191"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="193"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="207"/>
+      <c r="M20" s="208"/>
       <c r="O20" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="P20" s="191"/>
-      <c r="Q20" s="192"/>
-      <c r="R20" s="192"/>
-      <c r="S20" s="193"/>
+      <c r="P20" s="206"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="208"/>
       <c r="U20" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="V20" s="143"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
       <c r="Y20" s="6" t="s">
         <v>15</v>
       </c>
@@ -3433,17 +3441,17 @@
       <c r="I21" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="189"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="190"/>
+      <c r="J21" s="212"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="213"/>
       <c r="O21" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="P21" s="189"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
-      <c r="S21" s="190"/>
+      <c r="P21" s="212"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="213"/>
       <c r="U21" s="8" t="s">
         <v>109</v>
       </c>
@@ -3483,28 +3491,28 @@
       <c r="G22" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="112" t="s">
+      <c r="I22" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="177"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="179"/>
-      <c r="O22" s="112" t="s">
+      <c r="J22" s="157"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="159"/>
+      <c r="O22" s="118" t="s">
         <v>195</v>
       </c>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="178"/>
-      <c r="S22" s="179"/>
-      <c r="U22" s="234" t="s">
+      <c r="P22" s="157"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="159"/>
+      <c r="U22" s="240" t="s">
         <v>52</v>
       </c>
       <c r="V22" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="W22" s="233"/>
-      <c r="X22" s="233"/>
+      <c r="W22" s="239"/>
+      <c r="X22" s="239"/>
       <c r="Y22" s="47" t="s">
         <v>49</v>
       </c>
@@ -3529,22 +3537,22 @@
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="179"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="177"/>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="179"/>
-      <c r="U23" s="112"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="159"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="159"/>
+      <c r="U23" s="118"/>
       <c r="V23" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W23" s="232"/>
-      <c r="X23" s="232"/>
+      <c r="W23" s="238"/>
+      <c r="X23" s="238"/>
       <c r="Y23" s="54" t="s">
         <v>15</v>
       </c>
@@ -3577,22 +3585,22 @@
       <c r="G24" s="25">
         <v>10</v>
       </c>
-      <c r="I24" s="138"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="182"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="181"/>
-      <c r="S24" s="182"/>
-      <c r="U24" s="112"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="162"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="162"/>
+      <c r="U24" s="118"/>
       <c r="V24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W24" s="140"/>
-      <c r="X24" s="140"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="163"/>
       <c r="Y24" s="10" t="s">
         <v>49</v>
       </c>
@@ -3603,12 +3611,12 @@
       <c r="AB24" s="11"/>
     </row>
     <row r="25" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U25" s="112"/>
+      <c r="U25" s="118"/>
       <c r="V25" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W25" s="232"/>
-      <c r="X25" s="232"/>
+      <c r="W25" s="238"/>
+      <c r="X25" s="238"/>
       <c r="Y25" s="54" t="s">
         <v>15</v>
       </c>
@@ -3619,33 +3627,33 @@
       <c r="AB25" s="55"/>
     </row>
     <row r="26" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="185" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="161"/>
-      <c r="I26" s="95" t="s">
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="187"/>
+      <c r="I26" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="97"/>
-      <c r="U26" s="112"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="103"/>
+      <c r="U26" s="118"/>
       <c r="V26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W26" s="140"/>
-      <c r="X26" s="140"/>
+      <c r="W26" s="163"/>
+      <c r="X26" s="163"/>
       <c r="Y26" s="10" t="s">
         <v>49</v>
       </c>
@@ -3674,12 +3682,12 @@
       <c r="I27" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="119"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="120"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="126"/>
       <c r="P27" s="9" t="s">
         <v>30</v>
       </c>
@@ -3690,12 +3698,12 @@
         <v>2</v>
       </c>
       <c r="S27" s="11"/>
-      <c r="U27" s="121"/>
+      <c r="U27" s="141"/>
       <c r="V27" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="W27" s="141"/>
-      <c r="X27" s="141"/>
+      <c r="W27" s="164"/>
+      <c r="X27" s="164"/>
       <c r="Y27" s="56" t="s">
         <v>15</v>
       </c>
@@ -3727,24 +3735,24 @@
         <f>D21</f>
         <v>10</v>
       </c>
-      <c r="I28" s="112" t="s">
+      <c r="I28" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="122"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="124"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="143"/>
+      <c r="S28" s="144"/>
       <c r="U28" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="238"/>
-      <c r="W28" s="238"/>
+      <c r="V28" s="244"/>
+      <c r="W28" s="244"/>
       <c r="X28" s="49" t="s">
         <v>107</v>
       </c>
@@ -3785,27 +3793,27 @@
         <f>G21</f>
         <v>10</v>
       </c>
-      <c r="I29" s="121"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="127"/>
-      <c r="U29" s="112" t="s">
+      <c r="I29" s="141"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="147"/>
+      <c r="U29" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="V29" s="104"/>
-      <c r="W29" s="105"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="105"/>
-      <c r="AB29" s="106"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111"/>
+      <c r="AB29" s="112"/>
     </row>
     <row r="30" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="88" t="s">
@@ -3822,17 +3830,22 @@
         <f>CEILING(C30 / 5, 1)</f>
         <v>5</v>
       </c>
-      <c r="F30" s="80"/>
-      <c r="G30" s="19"/>
+      <c r="F30" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" s="19">
+        <f>FLOOR((F21 -3) / 3, 1)+职阶数值!I3</f>
+        <v>2</v>
+      </c>
       <c r="I30" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="J30" s="119"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="120"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="126"/>
       <c r="P30" s="9" t="s">
         <v>30</v>
       </c>
@@ -3843,14 +3856,14 @@
         <v>2</v>
       </c>
       <c r="S30" s="11"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="105"/>
-      <c r="X30" s="105"/>
-      <c r="Y30" s="105"/>
-      <c r="Z30" s="105"/>
-      <c r="AA30" s="105"/>
-      <c r="AB30" s="106"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="110"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="112"/>
     </row>
     <row r="31" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
@@ -3874,27 +3887,27 @@
         <f>C24</f>
         <v>10</v>
       </c>
-      <c r="I31" s="112" t="s">
+      <c r="I31" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="122"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="124"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="105"/>
-      <c r="X31" s="105"/>
-      <c r="Y31" s="105"/>
-      <c r="Z31" s="105"/>
-      <c r="AA31" s="105"/>
-      <c r="AB31" s="106"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="143"/>
+      <c r="P31" s="143"/>
+      <c r="Q31" s="143"/>
+      <c r="R31" s="143"/>
+      <c r="S31" s="144"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="110"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="112"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
@@ -3918,25 +3931,25 @@
         <f>MIN(E24,F24)</f>
         <v>3</v>
       </c>
-      <c r="I32" s="121"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="126"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="126"/>
-      <c r="R32" s="126"/>
-      <c r="S32" s="127"/>
-      <c r="U32" s="112"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="105"/>
-      <c r="X32" s="105"/>
-      <c r="Y32" s="105"/>
-      <c r="Z32" s="105"/>
-      <c r="AA32" s="105"/>
-      <c r="AB32" s="106"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="147"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="112"/>
     </row>
     <row r="33" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -3962,12 +3975,12 @@
       <c r="I33" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="J33" s="119"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="142"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="120"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="126"/>
       <c r="P33" s="9" t="s">
         <v>30</v>
       </c>
@@ -3978,14 +3991,14 @@
         <v>2</v>
       </c>
       <c r="S33" s="11"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="105"/>
-      <c r="X33" s="105"/>
-      <c r="Y33" s="105"/>
-      <c r="Z33" s="105"/>
-      <c r="AA33" s="105"/>
-      <c r="AB33" s="106"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="110"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="112"/>
     </row>
     <row r="34" spans="2:28" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="78" t="s">
@@ -4006,63 +4019,63 @@
       <c r="G34" s="19">
         <v>1</v>
       </c>
-      <c r="I34" s="112" t="s">
+      <c r="I34" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="122"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="124"/>
-      <c r="U34" s="138"/>
-      <c r="V34" s="235"/>
-      <c r="W34" s="236"/>
-      <c r="X34" s="236"/>
-      <c r="Y34" s="236"/>
-      <c r="Z34" s="236"/>
-      <c r="AA34" s="236"/>
-      <c r="AB34" s="237"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" s="143"/>
+      <c r="R34" s="143"/>
+      <c r="S34" s="144"/>
+      <c r="U34" s="140"/>
+      <c r="V34" s="241"/>
+      <c r="W34" s="242"/>
+      <c r="X34" s="242"/>
+      <c r="Y34" s="242"/>
+      <c r="Z34" s="242"/>
+      <c r="AA34" s="242"/>
+      <c r="AB34" s="243"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B35" s="162" t="s">
+      <c r="B35" s="188" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="163"/>
+      <c r="C35" s="189"/>
       <c r="D35" s="34">
         <v>30</v>
       </c>
-      <c r="E35" s="164" t="s">
+      <c r="E35" s="190" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="163"/>
+      <c r="F35" s="189"/>
       <c r="G35" s="38">
         <f>D35*2</f>
         <v>60</v>
       </c>
-      <c r="I35" s="121"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="127"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="146"/>
+      <c r="P35" s="146"/>
+      <c r="Q35" s="146"/>
+      <c r="R35" s="146"/>
+      <c r="S35" s="147"/>
       <c r="U35" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="V35" s="152"/>
-      <c r="W35" s="152"/>
-      <c r="X35" s="152"/>
-      <c r="Y35" s="152"/>
-      <c r="Z35" s="152"/>
+      <c r="V35" s="174"/>
+      <c r="W35" s="174"/>
+      <c r="X35" s="174"/>
+      <c r="Y35" s="174"/>
+      <c r="Z35" s="174"/>
       <c r="AA35" s="14" t="s">
         <v>2</v>
       </c>
@@ -4072,17 +4085,17 @@
       </c>
     </row>
     <row r="36" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="191" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="166"/>
+      <c r="C36" s="192"/>
       <c r="D36" s="35">
         <v>50</v>
       </c>
-      <c r="E36" s="167" t="s">
+      <c r="E36" s="193" t="s">
         <v>204</v>
       </c>
-      <c r="F36" s="166"/>
+      <c r="F36" s="192"/>
       <c r="G36" s="7">
         <f>D36*2</f>
         <v>100</v>
@@ -4090,12 +4103,12 @@
       <c r="I36" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="J36" s="119"/>
-      <c r="K36" s="142"/>
-      <c r="L36" s="142"/>
-      <c r="M36" s="142"/>
-      <c r="N36" s="142"/>
-      <c r="O36" s="120"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="126"/>
       <c r="P36" s="9" t="s">
         <v>30</v>
       </c>
@@ -4109,9 +4122,9 @@
       <c r="U36" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="V36" s="143"/>
-      <c r="W36" s="144"/>
-      <c r="X36" s="144"/>
+      <c r="V36" s="165"/>
+      <c r="W36" s="166"/>
+      <c r="X36" s="166"/>
       <c r="Y36" s="6" t="s">
         <v>15</v>
       </c>
@@ -4122,39 +4135,39 @@
       <c r="AB36" s="7"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B37" s="134" t="s">
+      <c r="B37" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="135"/>
+      <c r="C37" s="137"/>
       <c r="D37" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="E37" s="136" t="s">
+      <c r="E37" s="138" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="135"/>
+      <c r="F37" s="137"/>
       <c r="G37" s="11">
         <v>0</v>
       </c>
-      <c r="I37" s="112" t="s">
+      <c r="I37" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="122"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="124"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="143"/>
+      <c r="O37" s="143"/>
+      <c r="P37" s="143"/>
+      <c r="Q37" s="143"/>
+      <c r="R37" s="143"/>
+      <c r="S37" s="144"/>
       <c r="U37" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="V37" s="119"/>
-      <c r="W37" s="142"/>
-      <c r="X37" s="142"/>
+      <c r="V37" s="125"/>
+      <c r="W37" s="149"/>
+      <c r="X37" s="149"/>
       <c r="Y37" s="10" t="s">
         <v>15</v>
       </c>
@@ -4165,37 +4178,37 @@
       <c r="AB37" s="11"/>
     </row>
     <row r="38" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="137" t="s">
+      <c r="B38" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="C38" s="94"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="F38" s="94"/>
+      <c r="F38" s="100"/>
       <c r="G38" s="19">
         <v>0</v>
       </c>
-      <c r="I38" s="121"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="126"/>
-      <c r="N38" s="126"/>
-      <c r="O38" s="126"/>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="126"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="127"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="146"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="146"/>
+      <c r="N38" s="146"/>
+      <c r="O38" s="146"/>
+      <c r="P38" s="146"/>
+      <c r="Q38" s="146"/>
+      <c r="R38" s="146"/>
+      <c r="S38" s="147"/>
       <c r="U38" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="V38" s="143"/>
-      <c r="W38" s="144"/>
-      <c r="X38" s="144"/>
+      <c r="V38" s="165"/>
+      <c r="W38" s="166"/>
+      <c r="X38" s="166"/>
       <c r="Y38" s="6" t="s">
         <v>15</v>
       </c>
@@ -4209,12 +4222,12 @@
       <c r="I39" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="J39" s="119"/>
-      <c r="K39" s="142"/>
-      <c r="L39" s="142"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="142"/>
-      <c r="O39" s="120"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
+      <c r="N39" s="149"/>
+      <c r="O39" s="126"/>
       <c r="P39" s="9" t="s">
         <v>30</v>
       </c>
@@ -4246,35 +4259,35 @@
       <c r="AB39" s="89"/>
     </row>
     <row r="40" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="97"/>
-      <c r="I40" s="112" t="s">
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="103"/>
+      <c r="I40" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="122"/>
-      <c r="K40" s="123"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="123"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="123"/>
-      <c r="Q40" s="123"/>
-      <c r="R40" s="123"/>
-      <c r="S40" s="124"/>
-      <c r="U40" s="234" t="s">
+      <c r="J40" s="142"/>
+      <c r="K40" s="143"/>
+      <c r="L40" s="143"/>
+      <c r="M40" s="143"/>
+      <c r="N40" s="143"/>
+      <c r="O40" s="143"/>
+      <c r="P40" s="143"/>
+      <c r="Q40" s="143"/>
+      <c r="R40" s="143"/>
+      <c r="S40" s="144"/>
+      <c r="U40" s="240" t="s">
         <v>52</v>
       </c>
       <c r="V40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="W40" s="233"/>
-      <c r="X40" s="233"/>
+      <c r="W40" s="239"/>
+      <c r="X40" s="239"/>
       <c r="Y40" s="47" t="s">
         <v>49</v>
       </c>
@@ -4285,31 +4298,31 @@
       <c r="AB40" s="38"/>
     </row>
     <row r="41" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="158" t="s">
+      <c r="B41" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="153"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="92"/>
-      <c r="U41" s="112"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="175"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="97"/>
+      <c r="S41" s="98"/>
+      <c r="U41" s="118"/>
       <c r="V41" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W41" s="232"/>
-      <c r="X41" s="232"/>
+      <c r="W41" s="238"/>
+      <c r="X41" s="238"/>
       <c r="Y41" s="54" t="s">
         <v>15</v>
       </c>
@@ -4320,20 +4333,20 @@
       <c r="AB41" s="55"/>
     </row>
     <row r="42" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="155"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="151"/>
-      <c r="U42" s="112"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="173"/>
+      <c r="U42" s="118"/>
       <c r="V42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W42" s="140"/>
-      <c r="X42" s="140"/>
+      <c r="W42" s="163"/>
+      <c r="X42" s="163"/>
       <c r="Y42" s="10" t="s">
         <v>49</v>
       </c>
@@ -4344,33 +4357,33 @@
       <c r="AB42" s="11"/>
     </row>
     <row r="43" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="156"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="131"/>
-      <c r="I43" s="95" t="s">
+      <c r="C43" s="178"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="180"/>
+      <c r="I43" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="97"/>
-      <c r="U43" s="112"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
+      <c r="O43" s="102"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="102"/>
+      <c r="S43" s="103"/>
+      <c r="U43" s="118"/>
       <c r="V43" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W43" s="232"/>
-      <c r="X43" s="232"/>
+      <c r="W43" s="238"/>
+      <c r="X43" s="238"/>
       <c r="Y43" s="54" t="s">
         <v>15</v>
       </c>
@@ -4381,21 +4394,21 @@
       <c r="AB43" s="55"/>
     </row>
     <row r="44" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="111"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="131"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="180"/>
       <c r="I44" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="209"/>
-      <c r="K44" s="210"/>
-      <c r="L44" s="210"/>
-      <c r="M44" s="210"/>
-      <c r="N44" s="210"/>
-      <c r="O44" s="211"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="152"/>
       <c r="P44" s="9" t="s">
         <v>30</v>
       </c>
@@ -4406,12 +4419,12 @@
         <v>2</v>
       </c>
       <c r="S44" s="11"/>
-      <c r="U44" s="112"/>
+      <c r="U44" s="118"/>
       <c r="V44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W44" s="140"/>
-      <c r="X44" s="140"/>
+      <c r="W44" s="163"/>
+      <c r="X44" s="163"/>
       <c r="Y44" s="10" t="s">
         <v>49</v>
       </c>
@@ -4422,31 +4435,31 @@
       <c r="AB44" s="11"/>
     </row>
     <row r="45" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="111"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="131"/>
-      <c r="I45" s="112" t="s">
+      <c r="B45" s="117"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="179"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="180"/>
+      <c r="I45" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="122"/>
-      <c r="K45" s="123"/>
-      <c r="L45" s="123"/>
-      <c r="M45" s="123"/>
-      <c r="N45" s="123"/>
-      <c r="O45" s="123"/>
-      <c r="P45" s="123"/>
-      <c r="Q45" s="123"/>
-      <c r="R45" s="123"/>
-      <c r="S45" s="124"/>
-      <c r="U45" s="121"/>
+      <c r="J45" s="142"/>
+      <c r="K45" s="143"/>
+      <c r="L45" s="143"/>
+      <c r="M45" s="143"/>
+      <c r="N45" s="143"/>
+      <c r="O45" s="143"/>
+      <c r="P45" s="143"/>
+      <c r="Q45" s="143"/>
+      <c r="R45" s="143"/>
+      <c r="S45" s="144"/>
+      <c r="U45" s="141"/>
       <c r="V45" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="W45" s="141"/>
-      <c r="X45" s="141"/>
+      <c r="W45" s="164"/>
+      <c r="X45" s="164"/>
       <c r="Y45" s="56" t="s">
         <v>15</v>
       </c>
@@ -4457,28 +4470,28 @@
       <c r="AB45" s="57"/>
     </row>
     <row r="46" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="111"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="131"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="126"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="126"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="127"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="178"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="180"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="146"/>
+      <c r="O46" s="146"/>
+      <c r="P46" s="146"/>
+      <c r="Q46" s="146"/>
+      <c r="R46" s="146"/>
+      <c r="S46" s="147"/>
       <c r="U46" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V46" s="238"/>
-      <c r="W46" s="238"/>
+      <c r="V46" s="244"/>
+      <c r="W46" s="244"/>
       <c r="X46" s="49" t="s">
         <v>107</v>
       </c>
@@ -4498,21 +4511,21 @@
       </c>
     </row>
     <row r="47" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="113"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="133"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="183"/>
       <c r="I47" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="119"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="120"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+      <c r="O47" s="126"/>
       <c r="P47" s="9" t="s">
         <v>30</v>
       </c>
@@ -4523,91 +4536,91 @@
         <v>2</v>
       </c>
       <c r="S47" s="11"/>
-      <c r="U47" s="112" t="s">
+      <c r="U47" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="V47" s="104"/>
-      <c r="W47" s="105"/>
-      <c r="X47" s="105"/>
-      <c r="Y47" s="105"/>
-      <c r="Z47" s="105"/>
-      <c r="AA47" s="105"/>
-      <c r="AB47" s="106"/>
+      <c r="V47" s="110"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="111"/>
+      <c r="Y47" s="111"/>
+      <c r="Z47" s="111"/>
+      <c r="AA47" s="111"/>
+      <c r="AB47" s="112"/>
     </row>
     <row r="48" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="221" t="s">
+      <c r="B48" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="222"/>
-      <c r="D48" s="223"/>
-      <c r="E48" s="223"/>
-      <c r="F48" s="223"/>
-      <c r="G48" s="224"/>
-      <c r="I48" s="112" t="s">
+      <c r="C48" s="154"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="156"/>
+      <c r="I48" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="122"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="123"/>
-      <c r="M48" s="123"/>
-      <c r="N48" s="123"/>
-      <c r="O48" s="123"/>
-      <c r="P48" s="123"/>
-      <c r="Q48" s="123"/>
-      <c r="R48" s="123"/>
-      <c r="S48" s="124"/>
-      <c r="U48" s="112"/>
-      <c r="V48" s="104"/>
-      <c r="W48" s="105"/>
-      <c r="X48" s="105"/>
-      <c r="Y48" s="105"/>
-      <c r="Z48" s="105"/>
-      <c r="AA48" s="105"/>
-      <c r="AB48" s="106"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="143"/>
+      <c r="L48" s="143"/>
+      <c r="M48" s="143"/>
+      <c r="N48" s="143"/>
+      <c r="O48" s="143"/>
+      <c r="P48" s="143"/>
+      <c r="Q48" s="143"/>
+      <c r="R48" s="143"/>
+      <c r="S48" s="144"/>
+      <c r="U48" s="118"/>
+      <c r="V48" s="110"/>
+      <c r="W48" s="111"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="111"/>
+      <c r="Z48" s="111"/>
+      <c r="AA48" s="111"/>
+      <c r="AB48" s="112"/>
     </row>
     <row r="49" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="112"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="178"/>
-      <c r="E49" s="178"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="179"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="126"/>
-      <c r="N49" s="126"/>
-      <c r="O49" s="126"/>
-      <c r="P49" s="126"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="127"/>
-      <c r="U49" s="112"/>
-      <c r="V49" s="104"/>
-      <c r="W49" s="105"/>
-      <c r="X49" s="105"/>
-      <c r="Y49" s="105"/>
-      <c r="Z49" s="105"/>
-      <c r="AA49" s="105"/>
-      <c r="AB49" s="106"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="159"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="146"/>
+      <c r="L49" s="146"/>
+      <c r="M49" s="146"/>
+      <c r="N49" s="146"/>
+      <c r="O49" s="146"/>
+      <c r="P49" s="146"/>
+      <c r="Q49" s="146"/>
+      <c r="R49" s="146"/>
+      <c r="S49" s="147"/>
+      <c r="U49" s="118"/>
+      <c r="V49" s="110"/>
+      <c r="W49" s="111"/>
+      <c r="X49" s="111"/>
+      <c r="Y49" s="111"/>
+      <c r="Z49" s="111"/>
+      <c r="AA49" s="111"/>
+      <c r="AB49" s="112"/>
     </row>
     <row r="50" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="112"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
-      <c r="G50" s="179"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="159"/>
       <c r="I50" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="119"/>
-      <c r="K50" s="142"/>
-      <c r="L50" s="142"/>
-      <c r="M50" s="142"/>
-      <c r="N50" s="142"/>
-      <c r="O50" s="120"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="149"/>
+      <c r="L50" s="149"/>
+      <c r="M50" s="149"/>
+      <c r="N50" s="149"/>
+      <c r="O50" s="126"/>
       <c r="P50" s="9" t="s">
         <v>30</v>
       </c>
@@ -4618,88 +4631,88 @@
         <v>2</v>
       </c>
       <c r="S50" s="11"/>
-      <c r="U50" s="112"/>
-      <c r="V50" s="104"/>
-      <c r="W50" s="105"/>
-      <c r="X50" s="105"/>
-      <c r="Y50" s="105"/>
-      <c r="Z50" s="105"/>
-      <c r="AA50" s="105"/>
-      <c r="AB50" s="106"/>
+      <c r="U50" s="118"/>
+      <c r="V50" s="110"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
+      <c r="AA50" s="111"/>
+      <c r="AB50" s="112"/>
     </row>
     <row r="51" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="112"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="178"/>
-      <c r="G51" s="179"/>
-      <c r="I51" s="112" t="s">
+      <c r="B51" s="118"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="159"/>
+      <c r="I51" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="J51" s="122"/>
-      <c r="K51" s="123"/>
-      <c r="L51" s="123"/>
-      <c r="M51" s="123"/>
-      <c r="N51" s="123"/>
-      <c r="O51" s="123"/>
-      <c r="P51" s="123"/>
-      <c r="Q51" s="123"/>
-      <c r="R51" s="123"/>
-      <c r="S51" s="124"/>
-      <c r="U51" s="112"/>
-      <c r="V51" s="104"/>
-      <c r="W51" s="105"/>
-      <c r="X51" s="105"/>
-      <c r="Y51" s="105"/>
-      <c r="Z51" s="105"/>
-      <c r="AA51" s="105"/>
-      <c r="AB51" s="106"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="143"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="143"/>
+      <c r="N51" s="143"/>
+      <c r="O51" s="143"/>
+      <c r="P51" s="143"/>
+      <c r="Q51" s="143"/>
+      <c r="R51" s="143"/>
+      <c r="S51" s="144"/>
+      <c r="U51" s="118"/>
+      <c r="V51" s="110"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+      <c r="AA51" s="111"/>
+      <c r="AB51" s="112"/>
     </row>
     <row r="52" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="138"/>
-      <c r="C52" s="180"/>
-      <c r="D52" s="181"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="181"/>
-      <c r="G52" s="182"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="91"/>
-      <c r="L52" s="91"/>
-      <c r="M52" s="91"/>
-      <c r="N52" s="91"/>
-      <c r="O52" s="91"/>
-      <c r="P52" s="91"/>
-      <c r="Q52" s="91"/>
-      <c r="R52" s="91"/>
-      <c r="S52" s="92"/>
-      <c r="U52" s="138"/>
-      <c r="V52" s="235"/>
-      <c r="W52" s="236"/>
-      <c r="X52" s="236"/>
-      <c r="Y52" s="236"/>
-      <c r="Z52" s="236"/>
-      <c r="AA52" s="236"/>
-      <c r="AB52" s="237"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="162"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="148"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="97"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="97"/>
+      <c r="Q52" s="97"/>
+      <c r="R52" s="97"/>
+      <c r="S52" s="98"/>
+      <c r="U52" s="140"/>
+      <c r="V52" s="241"/>
+      <c r="W52" s="242"/>
+      <c r="X52" s="242"/>
+      <c r="Y52" s="242"/>
+      <c r="Z52" s="242"/>
+      <c r="AA52" s="242"/>
+      <c r="AB52" s="243"/>
     </row>
     <row r="53" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="129"/>
+      <c r="C53" s="236"/>
+      <c r="D53" s="236"/>
+      <c r="E53" s="236"/>
+      <c r="F53" s="236"/>
+      <c r="G53" s="237"/>
       <c r="U53" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="V53" s="152"/>
-      <c r="W53" s="152"/>
-      <c r="X53" s="152"/>
-      <c r="Y53" s="152"/>
-      <c r="Z53" s="152"/>
+      <c r="V53" s="174"/>
+      <c r="W53" s="174"/>
+      <c r="X53" s="174"/>
+      <c r="Y53" s="174"/>
+      <c r="Z53" s="174"/>
       <c r="AA53" s="14" t="s">
         <v>2</v>
       </c>
@@ -4709,32 +4722,32 @@
       </c>
     </row>
     <row r="54" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="111"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="131"/>
-      <c r="I54" s="95" t="s">
+      <c r="B54" s="117"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="179"/>
+      <c r="E54" s="179"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="180"/>
+      <c r="I54" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="96"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="97"/>
-      <c r="O54" s="95" t="s">
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="103"/>
+      <c r="O54" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="96"/>
-      <c r="S54" s="97"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="102"/>
+      <c r="S54" s="103"/>
       <c r="U54" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="V54" s="143"/>
-      <c r="W54" s="144"/>
-      <c r="X54" s="144"/>
+      <c r="V54" s="165"/>
+      <c r="W54" s="166"/>
+      <c r="X54" s="166"/>
       <c r="Y54" s="6" t="s">
         <v>15</v>
       </c>
@@ -4745,32 +4758,32 @@
       <c r="AB54" s="7"/>
     </row>
     <row r="55" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="111"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="131"/>
-      <c r="I55" s="110" t="s">
+      <c r="B55" s="117"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="179"/>
+      <c r="G55" s="180"/>
+      <c r="I55" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="98"/>
-      <c r="K55" s="99"/>
-      <c r="L55" s="99"/>
-      <c r="M55" s="100"/>
-      <c r="O55" s="110" t="s">
+      <c r="J55" s="104"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="106"/>
+      <c r="O55" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="P55" s="98"/>
-      <c r="Q55" s="99"/>
-      <c r="R55" s="99"/>
-      <c r="S55" s="100"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="105"/>
+      <c r="R55" s="105"/>
+      <c r="S55" s="106"/>
       <c r="U55" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="V55" s="119"/>
-      <c r="W55" s="142"/>
-      <c r="X55" s="142"/>
+      <c r="V55" s="125"/>
+      <c r="W55" s="149"/>
+      <c r="X55" s="149"/>
       <c r="Y55" s="10" t="s">
         <v>15</v>
       </c>
@@ -4781,28 +4794,28 @@
       <c r="AB55" s="11"/>
     </row>
     <row r="56" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="111"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="130"/>
-      <c r="G56" s="131"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="102"/>
-      <c r="L56" s="102"/>
-      <c r="M56" s="103"/>
-      <c r="O56" s="111"/>
-      <c r="P56" s="101"/>
-      <c r="Q56" s="102"/>
-      <c r="R56" s="102"/>
-      <c r="S56" s="103"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="179"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="179"/>
+      <c r="F56" s="179"/>
+      <c r="G56" s="180"/>
+      <c r="I56" s="117"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="109"/>
+      <c r="O56" s="117"/>
+      <c r="P56" s="107"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="109"/>
       <c r="U56" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="V56" s="143"/>
-      <c r="W56" s="144"/>
-      <c r="X56" s="144"/>
+      <c r="V56" s="165"/>
+      <c r="W56" s="166"/>
+      <c r="X56" s="166"/>
       <c r="Y56" s="6" t="s">
         <v>15</v>
       </c>
@@ -4813,22 +4826,22 @@
       <c r="AB56" s="7"/>
     </row>
     <row r="57" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="113"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="133"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="102"/>
-      <c r="L57" s="102"/>
-      <c r="M57" s="103"/>
-      <c r="O57" s="111"/>
-      <c r="P57" s="101"/>
-      <c r="Q57" s="102"/>
-      <c r="R57" s="102"/>
-      <c r="S57" s="103"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="182"/>
+      <c r="D57" s="182"/>
+      <c r="E57" s="182"/>
+      <c r="F57" s="182"/>
+      <c r="G57" s="183"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="109"/>
+      <c r="O57" s="117"/>
+      <c r="P57" s="107"/>
+      <c r="Q57" s="108"/>
+      <c r="R57" s="108"/>
+      <c r="S57" s="109"/>
       <c r="U57" s="8" t="s">
         <v>109</v>
       </c>
@@ -4850,28 +4863,28 @@
       <c r="AB57" s="89"/>
     </row>
     <row r="58" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I58" s="112" t="s">
+      <c r="I58" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="J58" s="104"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="106"/>
-      <c r="O58" s="112" t="s">
+      <c r="J58" s="110"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="112"/>
+      <c r="O58" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="P58" s="104"/>
-      <c r="Q58" s="105"/>
-      <c r="R58" s="105"/>
-      <c r="S58" s="106"/>
-      <c r="U58" s="234" t="s">
+      <c r="P58" s="110"/>
+      <c r="Q58" s="111"/>
+      <c r="R58" s="111"/>
+      <c r="S58" s="112"/>
+      <c r="U58" s="240" t="s">
         <v>52</v>
       </c>
       <c r="V58" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="W58" s="233"/>
-      <c r="X58" s="233"/>
+      <c r="W58" s="239"/>
+      <c r="X58" s="239"/>
       <c r="Y58" s="47" t="s">
         <v>49</v>
       </c>
@@ -4882,30 +4895,30 @@
       <c r="AB58" s="38"/>
     </row>
     <row r="59" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="95" t="s">
+      <c r="B59" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="97"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="104"/>
-      <c r="K59" s="105"/>
-      <c r="L59" s="105"/>
-      <c r="M59" s="106"/>
-      <c r="O59" s="112"/>
-      <c r="P59" s="104"/>
-      <c r="Q59" s="105"/>
-      <c r="R59" s="105"/>
-      <c r="S59" s="106"/>
-      <c r="U59" s="112"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="103"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="111"/>
+      <c r="M59" s="112"/>
+      <c r="O59" s="118"/>
+      <c r="P59" s="110"/>
+      <c r="Q59" s="111"/>
+      <c r="R59" s="111"/>
+      <c r="S59" s="112"/>
+      <c r="U59" s="118"/>
       <c r="V59" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W59" s="232"/>
-      <c r="X59" s="232"/>
+      <c r="W59" s="238"/>
+      <c r="X59" s="238"/>
       <c r="Y59" s="54" t="s">
         <v>15</v>
       </c>
@@ -4919,27 +4932,27 @@
       <c r="B60" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="231"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="129"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="104"/>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
-      <c r="M60" s="106"/>
-      <c r="O60" s="112"/>
-      <c r="P60" s="104"/>
-      <c r="Q60" s="105"/>
-      <c r="R60" s="105"/>
-      <c r="S60" s="106"/>
-      <c r="U60" s="112"/>
+      <c r="C60" s="235"/>
+      <c r="D60" s="236"/>
+      <c r="E60" s="236"/>
+      <c r="F60" s="236"/>
+      <c r="G60" s="237"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="111"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="112"/>
+      <c r="O60" s="118"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="111"/>
+      <c r="R60" s="111"/>
+      <c r="S60" s="112"/>
+      <c r="U60" s="118"/>
       <c r="V60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W60" s="140"/>
-      <c r="X60" s="140"/>
+      <c r="W60" s="163"/>
+      <c r="X60" s="163"/>
       <c r="Y60" s="10" t="s">
         <v>49</v>
       </c>
@@ -4962,26 +4975,26 @@
         <v>169</v>
       </c>
       <c r="G61" s="75"/>
-      <c r="I61" s="111" t="s">
+      <c r="I61" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="J61" s="101"/>
-      <c r="K61" s="102"/>
-      <c r="L61" s="102"/>
-      <c r="M61" s="103"/>
-      <c r="O61" s="111" t="s">
+      <c r="J61" s="107"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="109"/>
+      <c r="O61" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="P61" s="101"/>
-      <c r="Q61" s="102"/>
-      <c r="R61" s="102"/>
-      <c r="S61" s="103"/>
-      <c r="U61" s="112"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
+      <c r="S61" s="109"/>
+      <c r="U61" s="118"/>
       <c r="V61" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="W61" s="232"/>
-      <c r="X61" s="232"/>
+      <c r="W61" s="238"/>
+      <c r="X61" s="238"/>
       <c r="Y61" s="54" t="s">
         <v>15</v>
       </c>
@@ -4992,28 +5005,28 @@
       <c r="AB61" s="55"/>
     </row>
     <row r="62" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="225"/>
-      <c r="C62" s="226"/>
-      <c r="D62" s="226"/>
-      <c r="E62" s="226"/>
-      <c r="F62" s="226"/>
-      <c r="G62" s="227"/>
-      <c r="I62" s="111"/>
-      <c r="J62" s="101"/>
-      <c r="K62" s="102"/>
-      <c r="L62" s="102"/>
-      <c r="M62" s="103"/>
-      <c r="O62" s="111"/>
-      <c r="P62" s="101"/>
-      <c r="Q62" s="102"/>
-      <c r="R62" s="102"/>
-      <c r="S62" s="103"/>
-      <c r="U62" s="112"/>
+      <c r="B62" s="229"/>
+      <c r="C62" s="230"/>
+      <c r="D62" s="230"/>
+      <c r="E62" s="230"/>
+      <c r="F62" s="230"/>
+      <c r="G62" s="231"/>
+      <c r="I62" s="117"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="109"/>
+      <c r="O62" s="117"/>
+      <c r="P62" s="107"/>
+      <c r="Q62" s="108"/>
+      <c r="R62" s="108"/>
+      <c r="S62" s="109"/>
+      <c r="U62" s="118"/>
       <c r="V62" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W62" s="140"/>
-      <c r="X62" s="140"/>
+      <c r="W62" s="163"/>
+      <c r="X62" s="163"/>
       <c r="Y62" s="10" t="s">
         <v>49</v>
       </c>
@@ -5024,28 +5037,28 @@
       <c r="AB62" s="11"/>
     </row>
     <row r="63" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="225"/>
-      <c r="C63" s="226"/>
-      <c r="D63" s="226"/>
-      <c r="E63" s="226"/>
-      <c r="F63" s="226"/>
-      <c r="G63" s="227"/>
-      <c r="I63" s="113"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="108"/>
-      <c r="M63" s="109"/>
-      <c r="O63" s="113"/>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="108"/>
-      <c r="R63" s="108"/>
-      <c r="S63" s="109"/>
-      <c r="U63" s="121"/>
+      <c r="B63" s="229"/>
+      <c r="C63" s="230"/>
+      <c r="D63" s="230"/>
+      <c r="E63" s="230"/>
+      <c r="F63" s="230"/>
+      <c r="G63" s="231"/>
+      <c r="I63" s="119"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="114"/>
+      <c r="M63" s="115"/>
+      <c r="O63" s="119"/>
+      <c r="P63" s="113"/>
+      <c r="Q63" s="114"/>
+      <c r="R63" s="114"/>
+      <c r="S63" s="115"/>
+      <c r="U63" s="141"/>
       <c r="V63" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="W63" s="141"/>
-      <c r="X63" s="141"/>
+      <c r="W63" s="164"/>
+      <c r="X63" s="164"/>
       <c r="Y63" s="56" t="s">
         <v>15</v>
       </c>
@@ -5056,17 +5069,17 @@
       <c r="AB63" s="57"/>
     </row>
     <row r="64" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="225"/>
-      <c r="C64" s="226"/>
-      <c r="D64" s="226"/>
-      <c r="E64" s="226"/>
-      <c r="F64" s="226"/>
-      <c r="G64" s="227"/>
+      <c r="B64" s="229"/>
+      <c r="C64" s="230"/>
+      <c r="D64" s="230"/>
+      <c r="E64" s="230"/>
+      <c r="F64" s="230"/>
+      <c r="G64" s="231"/>
       <c r="U64" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="V64" s="238"/>
-      <c r="W64" s="238"/>
+      <c r="V64" s="244"/>
+      <c r="W64" s="244"/>
       <c r="X64" s="49" t="s">
         <v>107</v>
       </c>
@@ -5086,49 +5099,49 @@
       </c>
     </row>
     <row r="65" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="225"/>
-      <c r="C65" s="226"/>
-      <c r="D65" s="226"/>
-      <c r="E65" s="226"/>
-      <c r="F65" s="226"/>
-      <c r="G65" s="227"/>
-      <c r="I65" s="95" t="s">
+      <c r="B65" s="229"/>
+      <c r="C65" s="230"/>
+      <c r="D65" s="230"/>
+      <c r="E65" s="230"/>
+      <c r="F65" s="230"/>
+      <c r="G65" s="231"/>
+      <c r="I65" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="J65" s="96"/>
-      <c r="K65" s="96"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="97"/>
-      <c r="O65" s="95" t="s">
+      <c r="J65" s="102"/>
+      <c r="K65" s="102"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="103"/>
+      <c r="O65" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="96"/>
-      <c r="Q65" s="96"/>
-      <c r="R65" s="96"/>
-      <c r="S65" s="97"/>
-      <c r="U65" s="112" t="s">
+      <c r="P65" s="102"/>
+      <c r="Q65" s="102"/>
+      <c r="R65" s="102"/>
+      <c r="S65" s="103"/>
+      <c r="U65" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="V65" s="104"/>
-      <c r="W65" s="105"/>
-      <c r="X65" s="105"/>
-      <c r="Y65" s="105"/>
-      <c r="Z65" s="105"/>
-      <c r="AA65" s="105"/>
-      <c r="AB65" s="106"/>
+      <c r="V65" s="110"/>
+      <c r="W65" s="111"/>
+      <c r="X65" s="111"/>
+      <c r="Y65" s="111"/>
+      <c r="Z65" s="111"/>
+      <c r="AA65" s="111"/>
+      <c r="AB65" s="112"/>
     </row>
     <row r="66" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="225"/>
-      <c r="C66" s="226"/>
-      <c r="D66" s="226"/>
-      <c r="E66" s="226"/>
-      <c r="F66" s="226"/>
-      <c r="G66" s="227"/>
+      <c r="B66" s="229"/>
+      <c r="C66" s="230"/>
+      <c r="D66" s="230"/>
+      <c r="E66" s="230"/>
+      <c r="F66" s="230"/>
+      <c r="G66" s="231"/>
       <c r="I66" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="J66" s="117"/>
-      <c r="K66" s="118"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="124"/>
       <c r="L66" s="84" t="s">
         <v>108</v>
       </c>
@@ -5136,59 +5149,59 @@
       <c r="O66" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="118"/>
+      <c r="P66" s="123"/>
+      <c r="Q66" s="124"/>
       <c r="R66" s="84" t="s">
         <v>108</v>
       </c>
       <c r="S66" s="4"/>
-      <c r="U66" s="112"/>
-      <c r="V66" s="104"/>
-      <c r="W66" s="105"/>
-      <c r="X66" s="105"/>
-      <c r="Y66" s="105"/>
-      <c r="Z66" s="105"/>
-      <c r="AA66" s="105"/>
-      <c r="AB66" s="106"/>
+      <c r="U66" s="118"/>
+      <c r="V66" s="110"/>
+      <c r="W66" s="111"/>
+      <c r="X66" s="111"/>
+      <c r="Y66" s="111"/>
+      <c r="Z66" s="111"/>
+      <c r="AA66" s="111"/>
+      <c r="AB66" s="112"/>
     </row>
     <row r="67" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="225"/>
-      <c r="C67" s="226"/>
-      <c r="D67" s="226"/>
-      <c r="E67" s="226"/>
-      <c r="F67" s="226"/>
-      <c r="G67" s="227"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="115"/>
-      <c r="K67" s="115"/>
-      <c r="L67" s="115"/>
-      <c r="M67" s="116"/>
-      <c r="O67" s="114"/>
-      <c r="P67" s="115"/>
-      <c r="Q67" s="115"/>
-      <c r="R67" s="115"/>
-      <c r="S67" s="116"/>
-      <c r="U67" s="112"/>
-      <c r="V67" s="104"/>
-      <c r="W67" s="105"/>
-      <c r="X67" s="105"/>
-      <c r="Y67" s="105"/>
-      <c r="Z67" s="105"/>
-      <c r="AA67" s="105"/>
-      <c r="AB67" s="106"/>
+      <c r="B67" s="229"/>
+      <c r="C67" s="230"/>
+      <c r="D67" s="230"/>
+      <c r="E67" s="230"/>
+      <c r="F67" s="230"/>
+      <c r="G67" s="231"/>
+      <c r="I67" s="120"/>
+      <c r="J67" s="121"/>
+      <c r="K67" s="121"/>
+      <c r="L67" s="121"/>
+      <c r="M67" s="122"/>
+      <c r="O67" s="120"/>
+      <c r="P67" s="121"/>
+      <c r="Q67" s="121"/>
+      <c r="R67" s="121"/>
+      <c r="S67" s="122"/>
+      <c r="U67" s="118"/>
+      <c r="V67" s="110"/>
+      <c r="W67" s="111"/>
+      <c r="X67" s="111"/>
+      <c r="Y67" s="111"/>
+      <c r="Z67" s="111"/>
+      <c r="AA67" s="111"/>
+      <c r="AB67" s="112"/>
     </row>
     <row r="68" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="228"/>
-      <c r="C68" s="229"/>
-      <c r="D68" s="229"/>
-      <c r="E68" s="229"/>
-      <c r="F68" s="229"/>
-      <c r="G68" s="230"/>
+      <c r="B68" s="232"/>
+      <c r="C68" s="233"/>
+      <c r="D68" s="233"/>
+      <c r="E68" s="233"/>
+      <c r="F68" s="233"/>
+      <c r="G68" s="234"/>
       <c r="I68" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="J68" s="119"/>
-      <c r="K68" s="120"/>
+      <c r="J68" s="125"/>
+      <c r="K68" s="126"/>
       <c r="L68" s="9" t="s">
         <v>108</v>
       </c>
@@ -5196,55 +5209,55 @@
       <c r="O68" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="P68" s="119"/>
-      <c r="Q68" s="120"/>
+      <c r="P68" s="125"/>
+      <c r="Q68" s="126"/>
       <c r="R68" s="9" t="s">
         <v>108</v>
       </c>
       <c r="S68" s="11"/>
-      <c r="U68" s="112"/>
-      <c r="V68" s="104"/>
-      <c r="W68" s="105"/>
-      <c r="X68" s="105"/>
-      <c r="Y68" s="105"/>
-      <c r="Z68" s="105"/>
-      <c r="AA68" s="105"/>
-      <c r="AB68" s="106"/>
+      <c r="U68" s="118"/>
+      <c r="V68" s="110"/>
+      <c r="W68" s="111"/>
+      <c r="X68" s="111"/>
+      <c r="Y68" s="111"/>
+      <c r="Z68" s="111"/>
+      <c r="AA68" s="111"/>
+      <c r="AB68" s="112"/>
     </row>
     <row r="69" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="114"/>
-      <c r="J69" s="115"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="116"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="115"/>
-      <c r="Q69" s="115"/>
-      <c r="R69" s="115"/>
-      <c r="S69" s="116"/>
-      <c r="U69" s="112"/>
-      <c r="V69" s="104"/>
-      <c r="W69" s="105"/>
-      <c r="X69" s="105"/>
-      <c r="Y69" s="105"/>
-      <c r="Z69" s="105"/>
-      <c r="AA69" s="105"/>
-      <c r="AB69" s="106"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="121"/>
+      <c r="K69" s="121"/>
+      <c r="L69" s="121"/>
+      <c r="M69" s="122"/>
+      <c r="O69" s="120"/>
+      <c r="P69" s="121"/>
+      <c r="Q69" s="121"/>
+      <c r="R69" s="121"/>
+      <c r="S69" s="122"/>
+      <c r="U69" s="118"/>
+      <c r="V69" s="110"/>
+      <c r="W69" s="111"/>
+      <c r="X69" s="111"/>
+      <c r="Y69" s="111"/>
+      <c r="Z69" s="111"/>
+      <c r="AA69" s="111"/>
+      <c r="AB69" s="112"/>
     </row>
     <row r="70" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="95" t="s">
+      <c r="B70" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="96"/>
-      <c r="D70" s="96"/>
-      <c r="E70" s="96"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="97"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="103"/>
       <c r="I70" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="119"/>
-      <c r="K70" s="120"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="126"/>
       <c r="L70" s="9" t="s">
         <v>108</v>
       </c>
@@ -5252,62 +5265,62 @@
       <c r="O70" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="P70" s="119"/>
-      <c r="Q70" s="120"/>
+      <c r="P70" s="125"/>
+      <c r="Q70" s="126"/>
       <c r="R70" s="9" t="s">
         <v>108</v>
       </c>
       <c r="S70" s="11"/>
-      <c r="U70" s="138"/>
-      <c r="V70" s="235"/>
-      <c r="W70" s="236"/>
-      <c r="X70" s="236"/>
-      <c r="Y70" s="236"/>
-      <c r="Z70" s="236"/>
-      <c r="AA70" s="236"/>
-      <c r="AB70" s="237"/>
+      <c r="U70" s="140"/>
+      <c r="V70" s="241"/>
+      <c r="W70" s="242"/>
+      <c r="X70" s="242"/>
+      <c r="Y70" s="242"/>
+      <c r="Z70" s="242"/>
+      <c r="AA70" s="242"/>
+      <c r="AB70" s="243"/>
     </row>
     <row r="71" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="212"/>
-      <c r="C71" s="213"/>
-      <c r="D71" s="213"/>
-      <c r="E71" s="213"/>
-      <c r="F71" s="213"/>
-      <c r="G71" s="214"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="91"/>
-      <c r="K71" s="91"/>
-      <c r="L71" s="91"/>
-      <c r="M71" s="92"/>
-      <c r="O71" s="90"/>
-      <c r="P71" s="91"/>
-      <c r="Q71" s="91"/>
-      <c r="R71" s="91"/>
-      <c r="S71" s="92"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="129"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="97"/>
+      <c r="M71" s="98"/>
+      <c r="O71" s="96"/>
+      <c r="P71" s="97"/>
+      <c r="Q71" s="97"/>
+      <c r="R71" s="97"/>
+      <c r="S71" s="98"/>
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B72" s="215"/>
-      <c r="C72" s="216"/>
-      <c r="D72" s="216"/>
-      <c r="E72" s="216"/>
-      <c r="F72" s="216"/>
-      <c r="G72" s="217"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="131"/>
+      <c r="G72" s="132"/>
     </row>
     <row r="73" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="215"/>
-      <c r="C73" s="216"/>
-      <c r="D73" s="216"/>
-      <c r="E73" s="216"/>
-      <c r="F73" s="216"/>
-      <c r="G73" s="217"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="131"/>
+      <c r="E73" s="131"/>
+      <c r="F73" s="131"/>
+      <c r="G73" s="132"/>
     </row>
     <row r="74" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="218"/>
-      <c r="C74" s="219"/>
-      <c r="D74" s="219"/>
-      <c r="E74" s="219"/>
-      <c r="F74" s="219"/>
-      <c r="G74" s="220"/>
+      <c r="B74" s="133"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="168">
@@ -5356,6 +5369,8 @@
     <mergeCell ref="O67:S67"/>
     <mergeCell ref="P68:Q68"/>
     <mergeCell ref="O69:S69"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:G57"/>
     <mergeCell ref="U2:AB2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="P3:S3"/>
@@ -5388,6 +5403,8 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:S29"/>
     <mergeCell ref="J30:O30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:S32"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="I10:I12"/>
@@ -5434,10 +5451,6 @@
     <mergeCell ref="J27:O27"/>
     <mergeCell ref="J18:M19"/>
     <mergeCell ref="J20:M20"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:S32"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:G57"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="B38:C38"/>
@@ -5512,310 +5525,348 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F29BC86-DD82-424E-875A-63E3A3592F78}">
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="241"/>
-    <col min="2" max="2" width="19.5546875" style="241" customWidth="1"/>
-    <col min="3" max="3" width="13" style="241" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="241"/>
+    <col min="1" max="1" width="8.88671875" style="91"/>
+    <col min="2" max="2" width="19.5546875" style="91" customWidth="1"/>
+    <col min="3" max="3" width="13" style="91" customWidth="1"/>
+    <col min="4" max="8" width="8.88671875" style="91"/>
+    <col min="9" max="9" width="11" style="91" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="91"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="240"/>
-      <c r="C2" s="240" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="240" t="s">
+      <c r="D2" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="240" t="s">
+      <c r="E2" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="240" t="s">
+      <c r="F2" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="240" t="s">
+      <c r="G2" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="240" t="s">
+      <c r="H2" s="90" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="90" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="242" t="str">
+      <c r="C3" s="92" t="str">
         <f>角色卡!C5</f>
         <v>Saber</v>
       </c>
-      <c r="D3" s="242">
+      <c r="D3" s="92">
         <f>VLOOKUP($C$3, $C$4:$G$10, 2, FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="242">
+      <c r="E3" s="92">
         <f>VLOOKUP($C$3, $C$4:$G$10, 3, FALSE)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="242">
+      <c r="F3" s="92">
         <f>VLOOKUP($C$3, $C$4:$G$10, 4, FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="242">
+      <c r="G3" s="92">
         <f>VLOOKUP($C$3, $C$4:$G$10, 5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="242">
+      <c r="H3" s="92">
         <f>VLOOKUP($C$3, $C$4:$H$10, 6, FALSE)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="92">
+        <f>VLOOKUP($C$3, $C$4:$I$10, 7, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="245" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="242" t="s">
+      <c r="C4" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="242">
+      <c r="D4" s="92">
         <v>3</v>
       </c>
-      <c r="E4" s="242">
+      <c r="E4" s="92">
         <v>3</v>
       </c>
-      <c r="F4" s="242">
+      <c r="F4" s="92">
         <v>4</v>
       </c>
-      <c r="G4" s="242">
+      <c r="G4" s="92">
         <v>0</v>
       </c>
-      <c r="H4" s="242">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="239"/>
-      <c r="C5" s="242" t="s">
+      <c r="H4" s="92">
+        <v>0</v>
+      </c>
+      <c r="I4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="245"/>
+      <c r="C5" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="242">
+      <c r="D5" s="92">
         <v>3</v>
       </c>
-      <c r="E5" s="242">
+      <c r="E5" s="92">
         <v>0</v>
       </c>
-      <c r="F5" s="242">
+      <c r="F5" s="92">
         <v>3</v>
       </c>
-      <c r="G5" s="242">
+      <c r="G5" s="92">
         <v>6</v>
       </c>
-      <c r="H5" s="242">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="239"/>
-      <c r="C6" s="242" t="s">
+      <c r="H5" s="92">
+        <v>0</v>
+      </c>
+      <c r="I5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="245"/>
+      <c r="C6" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="242">
+      <c r="D6" s="92">
         <v>3</v>
       </c>
-      <c r="E6" s="242">
+      <c r="E6" s="92">
         <v>-3</v>
       </c>
-      <c r="F6" s="242">
+      <c r="F6" s="92">
         <v>3</v>
       </c>
-      <c r="G6" s="242">
+      <c r="G6" s="92">
         <v>9</v>
       </c>
-      <c r="H6" s="242">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="239"/>
-      <c r="C7" s="242" t="s">
+      <c r="H6" s="92">
+        <v>0</v>
+      </c>
+      <c r="I6" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="245"/>
+      <c r="C7" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="242">
+      <c r="D7" s="92">
         <v>3</v>
       </c>
-      <c r="E7" s="242">
+      <c r="E7" s="92">
         <v>6</v>
       </c>
-      <c r="F7" s="242">
+      <c r="F7" s="92">
         <v>4</v>
       </c>
-      <c r="G7" s="242">
+      <c r="G7" s="92">
         <v>0</v>
       </c>
-      <c r="H7" s="242">
+      <c r="H7" s="92">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="239"/>
-      <c r="C8" s="242" t="s">
+      <c r="I7" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="245"/>
+      <c r="C8" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="242">
+      <c r="D8" s="92">
         <v>2</v>
       </c>
-      <c r="E8" s="242">
+      <c r="E8" s="92">
         <v>3</v>
       </c>
-      <c r="F8" s="242">
+      <c r="F8" s="92">
         <v>5</v>
       </c>
-      <c r="G8" s="242">
+      <c r="G8" s="92">
         <v>9</v>
       </c>
-      <c r="H8" s="242">
+      <c r="H8" s="92">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="239"/>
-      <c r="C9" s="242" t="s">
+      <c r="I8" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="245"/>
+      <c r="C9" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="242">
+      <c r="D9" s="92">
         <v>2</v>
       </c>
-      <c r="E9" s="242">
+      <c r="E9" s="92">
         <v>3</v>
       </c>
-      <c r="F9" s="242">
+      <c r="F9" s="92">
         <v>4</v>
       </c>
-      <c r="G9" s="242">
+      <c r="G9" s="92">
         <v>3</v>
       </c>
-      <c r="H9" s="242">
+      <c r="H9" s="92">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="239"/>
-      <c r="C10" s="243" t="s">
+      <c r="I9" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="245"/>
+      <c r="C10" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="243">
+      <c r="D10" s="93">
         <v>4</v>
       </c>
-      <c r="E10" s="243">
+      <c r="E10" s="93">
         <v>0</v>
       </c>
-      <c r="F10" s="243">
+      <c r="F10" s="93">
         <v>3</v>
       </c>
-      <c r="G10" s="243">
+      <c r="G10" s="93">
         <v>0</v>
       </c>
-      <c r="H10" s="243">
+      <c r="H10" s="93">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="239" t="s">
+      <c r="I10" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="245" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="244" t="s">
+      <c r="C11" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="244"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="239"/>
-      <c r="C12" s="244" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="245"/>
+      <c r="C12" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="244"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="239"/>
-      <c r="C13" s="244" t="s">
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="245"/>
+      <c r="C13" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="244"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="244"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="239"/>
-      <c r="C14" s="244" t="s">
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="245"/>
+      <c r="C14" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="244"/>
-      <c r="E14" s="244"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="244"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="239"/>
-      <c r="C15" s="244" t="s">
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="245"/>
+      <c r="C15" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="244"/>
-      <c r="E15" s="244"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="239"/>
-      <c r="C16" s="244" t="s">
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="245"/>
+      <c r="C16" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="244"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="239"/>
-      <c r="C17" s="244" t="s">
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="245"/>
+      <c r="C17" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="244"/>
-      <c r="E17" s="244"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="244"/>
-      <c r="H17" s="244"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="245" t="s">
+      <c r="C18" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="244"/>
-      <c r="E18" s="244"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="244"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/角色卡/FAG英灵角色卡v0.5.xlsx
+++ b/角色卡/FAG英灵角色卡v0.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{A9FFE4E1-8728-4C44-8F21-54F054C19F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C2A0DB-D822-43FB-BB3A-0F6641B69768}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{A9FFE4E1-8728-4C44-8F21-54F054C19F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C69BCE-6115-4F43-803B-06BC822DE1F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投掷结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝具点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -958,6 +954,10 @@
   </si>
   <si>
     <t>魔术节加值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1726,7 +1726,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1737,24 +1737,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1791,7 +1785,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1802,18 +1795,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="43" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1834,19 +1826,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1865,30 +1856,396 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1901,21 +2258,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1925,39 +2273,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1970,7 +2285,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,336 +2300,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
@@ -2604,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2618,62 +2607,62 @@
   <sheetData>
     <row r="1" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="I2" s="101" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
+      <c r="I2" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-      <c r="O2" s="101" t="s">
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="131"/>
+      <c r="O2" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="103"/>
-      <c r="U2" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="103"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="131"/>
+      <c r="U2" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="131"/>
     </row>
     <row r="3" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
-      <c r="I3" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="209"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="211"/>
-      <c r="O3" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="211"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="162"/>
+      <c r="I3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="132"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
+      <c r="O3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="134"/>
       <c r="U3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2683,16 +2672,16 @@
       <c r="W3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AB3" s="4" t="s">
@@ -2703,145 +2692,144 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="173"/>
-      <c r="I4" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="42" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="161"/>
+      <c r="I4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="42" t="s">
+      <c r="J4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="P4" s="42" t="s">
+      <c r="O4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="R4" s="42" t="s">
+      <c r="P4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="58">
+      <c r="V4" s="51">
         <v>3</v>
       </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22">
+      <c r="W4" s="18"/>
+      <c r="X4" s="18">
         <f>W4*5</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="Y4" s="18">
         <f>V4+W4</f>
         <v>3</v>
       </c>
-      <c r="Z4" s="22" t="str">
+      <c r="Z4" s="18" t="str">
         <f>VLOOKUP($Y4, 属性评级!B3:D18,3,FALSE)</f>
         <v>E</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AA4" s="18">
         <f>VLOOKUP(Y4, 属性评级!$B$3:$D$18,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="AB4" s="23"/>
+      <c r="AB4" s="19"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="149" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="149"/>
+      <c r="C5" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="91"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
+      <c r="F5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="40"/>
       <c r="U5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="59">
+      <c r="V5" s="52">
         <v>3</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10">
+      <c r="X5" s="1">
         <f>W5*5</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="1">
         <f>V5+W5</f>
         <v>3</v>
       </c>
-      <c r="Z5" s="10" t="str">
+      <c r="Z5" s="1" t="str">
         <f>VLOOKUP($Y5, 属性评级!B3:D18,3,FALSE)</f>
         <v>E</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="1">
         <f>VLOOKUP(Y5, 属性评级!$B$3:$D$18,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="AB5" s="11"/>
+      <c r="AB5" s="10"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="173"/>
-      <c r="I6" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="200"/>
-      <c r="K6" s="201"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="202"/>
-      <c r="O6" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="201"/>
-      <c r="S6" s="202"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="161"/>
+      <c r="I6" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="137"/>
+      <c r="O6" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="137"/>
       <c r="U6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="60">
+      <c r="V6" s="53">
         <v>3</v>
       </c>
       <c r="W6" s="6"/>
@@ -2867,73 +2855,72 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="170"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="205"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
-      <c r="S7" s="205"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="160"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="140"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="140"/>
       <c r="U7" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="V7" s="59">
+        <v>197</v>
+      </c>
+      <c r="V7" s="52">
         <v>3</v>
       </c>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10">
+      <c r="X7" s="1">
         <f>W7*5</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="1">
         <f>V7+W7</f>
         <v>3</v>
       </c>
-      <c r="Z7" s="10" t="str">
+      <c r="Z7" s="1" t="str">
         <f>VLOOKUP($Y7, 属性评级!B3:D18,3,FALSE)</f>
         <v>E</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="1">
         <f>VLOOKUP(Y7, 属性评级!$B$3:$D$18,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="AB7" s="11"/>
+      <c r="AB7" s="10"/>
     </row>
     <row r="8" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="215"/>
-      <c r="I8" s="39" t="s">
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
+      <c r="I8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="206"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="207"/>
-      <c r="M8" s="208"/>
-      <c r="O8" s="39" t="s">
+      <c r="J8" s="141"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="143"/>
+      <c r="O8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="207"/>
-      <c r="S8" s="208"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="143"/>
       <c r="U8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="V8" s="60">
+        <v>198</v>
+      </c>
+      <c r="V8" s="53">
         <v>3</v>
       </c>
       <c r="W8" s="6"/>
@@ -2956,358 +2943,357 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="212"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="213"/>
-      <c r="O9" s="40" t="s">
+      <c r="J9" s="144"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="145"/>
+      <c r="O9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="212"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="163"/>
-      <c r="S9" s="213"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="145"/>
       <c r="U9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="59">
+      <c r="V9" s="52">
         <v>3</v>
       </c>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="10" t="str">
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="1" t="str">
         <f>VLOOKUP($V9, 属性评级!B3:D18,3,FALSE)</f>
         <v>E</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="1">
         <f>VLOOKUP(V9, 属性评级!$B$3:$D$18,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="AB9" s="11"/>
+      <c r="AB9" s="10"/>
     </row>
     <row r="10" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="217" t="s">
+      <c r="B10" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="218"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="101" t="s">
+      <c r="C10" s="165"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="I10" s="118" t="s">
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="I10" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="157"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="159"/>
-      <c r="O10" s="118" t="s">
+      <c r="J10" s="146"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="148"/>
+      <c r="O10" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="157"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="159"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="148"/>
       <c r="U10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V10" s="60">
+      <c r="V10" s="53">
         <v>3</v>
       </c>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="60">
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="53">
         <f>V10</f>
         <v>3</v>
       </c>
       <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="220"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="15" t="s">
+      <c r="B11" s="167"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="175"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="159"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="159"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="162"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="148"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="148"/>
       <c r="U11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="V11" s="59">
+      <c r="V11" s="52">
         <v>3</v>
       </c>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="62">
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="52">
         <f>V11</f>
         <v>3</v>
       </c>
-      <c r="AB11" s="27"/>
+      <c r="AB11" s="10"/>
     </row>
     <row r="12" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="220"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="17" t="s">
+      <c r="B12" s="167"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="216"/>
-      <c r="G12" s="173"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="162"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="162"/>
-      <c r="U12" s="28" t="s">
+      <c r="F12" s="163"/>
+      <c r="G12" s="161"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="151"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="151"/>
+      <c r="U12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="61">
+      <c r="V12" s="54">
         <v>8</v>
       </c>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="29" t="str">
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="23" t="str">
         <f>VLOOKUP(MAX(Z28+AB28, Z46+AB46,Z64+AB64),属性评级!$I$3:$J$15,2,TRUE)</f>
         <v>E-</v>
       </c>
-      <c r="AA12" s="61">
+      <c r="AA12" s="54">
         <f>V12</f>
         <v>8</v>
       </c>
-      <c r="AB12" s="30"/>
+      <c r="AB12" s="24"/>
     </row>
     <row r="13" spans="2:28" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="220"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="222"/>
-      <c r="E13" s="226" t="s">
+      <c r="B13" s="167"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="227"/>
-      <c r="G13" s="228"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="175"/>
       <c r="U13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="V13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="W13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="X13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Y13" s="31" t="s">
+      <c r="Y13" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="Z13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA13" s="10" t="s">
+      <c r="Z13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AB13" s="11" t="s">
+      <c r="AA13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB13" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="220"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="222"/>
-      <c r="E14" s="17" t="s">
+      <c r="B14" s="167"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="216"/>
-      <c r="G14" s="173"/>
-      <c r="I14" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="103"/>
-      <c r="O14" s="101" t="s">
-        <v>187</v>
-      </c>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="103"/>
-      <c r="U14" s="12" t="s">
+      <c r="F14" s="163"/>
+      <c r="G14" s="161"/>
+      <c r="I14" s="129" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="131"/>
+      <c r="O14" s="129" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="131"/>
+      <c r="U14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18">
+      <c r="V14" s="15"/>
+      <c r="W14" s="15">
         <f>V14 * 6</f>
         <v>0</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="15">
         <f>W14-SUM(X4:X8) - Z28 - Z46 -Z64 -Q27 -Q30 -Q33 -Q36-Q39 - Q44 - Q47 -Q50</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z14" s="65">
-        <f>V12</f>
-        <v>8</v>
-      </c>
-      <c r="AA14" s="18">
-        <f>Z14 * 6</f>
+      <c r="Y14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z14" s="57">
+        <f>V12*6</f>
         <v>48</v>
       </c>
-      <c r="AB14" s="19">
-        <f>AA14 - AB28 - AB46-AB64</f>
+      <c r="AA14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="236">
+        <f>Z14 + AA14 - AB28 - AB46-AB64</f>
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="220"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="167" t="s">
+      <c r="B15" s="167"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="169"/>
-      <c r="G15" s="170"/>
-      <c r="I15" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="210"/>
-      <c r="M15" s="211"/>
-      <c r="O15" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="P15" s="209"/>
-      <c r="Q15" s="210"/>
-      <c r="R15" s="210"/>
-      <c r="S15" s="211"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="160"/>
+      <c r="I15" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="132"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="134"/>
+      <c r="O15" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="134"/>
     </row>
     <row r="16" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="223"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="225"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="172"/>
-      <c r="I16" s="41" t="s">
-        <v>220</v>
+      <c r="B16" s="170"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="179"/>
+      <c r="I16" s="35" t="s">
+        <v>219</v>
       </c>
       <c r="J16" s="194"/>
       <c r="K16" s="195"/>
       <c r="L16" s="195"/>
       <c r="M16" s="196"/>
-      <c r="O16" s="41" t="s">
+      <c r="O16" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="P16" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q16" s="42" t="s">
+      <c r="R16" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="S16" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="S16" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="U16" s="101" t="s">
+      <c r="U16" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="103"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="131"/>
     </row>
     <row r="17" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="44"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="197"/>
       <c r="K17" s="198"/>
       <c r="L17" s="198"/>
       <c r="M17" s="199"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="40"/>
       <c r="U17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="V17" s="174"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AB17" s="16" t="str">
+      <c r="AB17" s="4" t="str">
         <f>VLOOKUP(Z28+AB28, 属性评级!$I$3:$J$15, 2, TRUE)</f>
         <v>E-</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="101" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="I18" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="J18" s="200"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="202"/>
-      <c r="O18" s="41" t="s">
+      <c r="B18" s="129" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="I18" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="O18" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="201"/>
-      <c r="R18" s="201"/>
-      <c r="S18" s="202"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
+      <c r="S18" s="137"/>
       <c r="U18" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="V18" s="165"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
+        <v>175</v>
+      </c>
+      <c r="V18" s="92"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
       <c r="Y18" s="6" t="s">
         <v>15</v>
       </c>
@@ -3321,90 +3307,89 @@
       <c r="B19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G19" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="204"/>
-      <c r="M19" s="205"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="203"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="204"/>
-      <c r="S19" s="205"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="140"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="140"/>
       <c r="U19" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="V19" s="125"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="V19" s="90"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10" t="s">
+      <c r="AA19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB19" s="11"/>
+      <c r="AB19" s="10"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="18" t="str">
         <f>Z4</f>
         <v>E</v>
       </c>
-      <c r="D20" s="22" t="str">
+      <c r="D20" s="18" t="str">
         <f>Z5</f>
         <v>E</v>
       </c>
-      <c r="E20" s="22" t="str">
+      <c r="E20" s="18" t="str">
         <f>Z6</f>
         <v>E</v>
       </c>
-      <c r="F20" s="22" t="str">
+      <c r="F20" s="18" t="str">
         <f>Z7</f>
         <v>E</v>
       </c>
-      <c r="G20" s="23" t="str">
+      <c r="G20" s="19" t="str">
         <f>Z8</f>
         <v>E</v>
       </c>
-      <c r="I20" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" s="206"/>
-      <c r="K20" s="207"/>
-      <c r="L20" s="207"/>
-      <c r="M20" s="208"/>
-      <c r="O20" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="P20" s="206"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="207"/>
-      <c r="S20" s="208"/>
+      <c r="I20" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="143"/>
+      <c r="O20" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="143"/>
       <c r="U20" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="V20" s="165"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
+        <v>177</v>
+      </c>
+      <c r="V20" s="92"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
       <c r="Y20" s="6" t="s">
         <v>15</v>
       </c>
@@ -3415,716 +3400,714 @@
       <c r="AB20" s="7"/>
     </row>
     <row r="21" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="20">
         <f>AA4</f>
         <v>10</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="20">
         <f>AA5</f>
         <v>10</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="20">
         <f>AA6</f>
         <v>10</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="20">
         <f>AA7</f>
         <v>10</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="21">
         <f>AA8</f>
         <v>10</v>
       </c>
-      <c r="I21" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="212"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="213"/>
-      <c r="O21" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="P21" s="212"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="213"/>
+      <c r="I21" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="144"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="145"/>
+      <c r="O21" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="145"/>
       <c r="U21" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="V21" s="69"/>
-      <c r="W21" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="X21" s="70">
+        <v>108</v>
+      </c>
+      <c r="V21" s="61"/>
+      <c r="W21" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="X21" s="62">
         <f>W28+Z28+AB28</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70" t="s">
+      <c r="Y21" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="AB21" s="89"/>
+      <c r="AB21" s="80"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="159"/>
-      <c r="O22" s="118" t="s">
-        <v>195</v>
-      </c>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="159"/>
-      <c r="U22" s="240" t="s">
+      <c r="I22" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="146"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="148"/>
+      <c r="O22" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="148"/>
+      <c r="U22" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="V22" s="47" t="s">
+      <c r="V22" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="W22" s="239"/>
-      <c r="X22" s="239"/>
-      <c r="Y22" s="47" t="s">
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB22" s="38"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB22" s="32"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="22" t="str">
+      <c r="C23" s="18" t="str">
         <f>Z9</f>
         <v>E</v>
       </c>
-      <c r="D23" s="22" t="str">
+      <c r="D23" s="18" t="str">
         <f>Z12</f>
         <v>E-</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="159"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="159"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="W23" s="238"/>
-      <c r="X23" s="238"/>
-      <c r="Y23" s="54" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="148"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="148"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54" t="s">
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AB23" s="55"/>
+      <c r="AB23" s="48"/>
     </row>
     <row r="24" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="20">
         <f>AA9</f>
         <v>10</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="55">
         <f>AA12</f>
         <v>8</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="55">
         <f>AA10</f>
         <v>3</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="55">
         <f>AA11</f>
         <v>3</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="21">
         <v>10</v>
       </c>
-      <c r="I24" s="140"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="162"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="162"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="10" t="s">
+      <c r="I24" s="89"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="150"/>
+      <c r="M24" s="151"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="151"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W24" s="163"/>
-      <c r="X24" s="163"/>
-      <c r="Y24" s="10" t="s">
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB24" s="11"/>
+      <c r="AA24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB24" s="10"/>
     </row>
     <row r="25" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U25" s="118"/>
-      <c r="V25" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="W25" s="238"/>
-      <c r="X25" s="238"/>
-      <c r="Y25" s="54" t="s">
+      <c r="U25" s="88"/>
+      <c r="V25" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54" t="s">
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AB25" s="55"/>
+      <c r="AB25" s="48"/>
     </row>
     <row r="26" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="185" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="186"/>
       <c r="D26" s="186"/>
       <c r="E26" s="186"/>
       <c r="F26" s="186"/>
       <c r="G26" s="187"/>
-      <c r="I26" s="101" t="s">
+      <c r="I26" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="103"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="10" t="s">
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="131"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W26" s="163"/>
-      <c r="X26" s="163"/>
-      <c r="Y26" s="10" t="s">
+      <c r="W26" s="99"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB26" s="11"/>
+      <c r="AA26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB26" s="10"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="38">
+      <c r="B27" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="32">
         <f>E21</f>
         <v>10</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="125"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="149"/>
-      <c r="O27" s="126"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="1">
         <v>0</v>
       </c>
       <c r="R27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S27" s="11"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="W27" s="164"/>
-      <c r="X27" s="164"/>
-      <c r="Y27" s="56" t="s">
+      <c r="S27" s="10"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56" t="s">
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AB27" s="57"/>
+      <c r="AB27" s="50"/>
     </row>
     <row r="28" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="36">
+      <c r="B28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="30">
         <f>C29</f>
         <v>33</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="36">
+      <c r="D28" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="30">
         <f>E29</f>
         <v>40</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>92</v>
+      <c r="F28" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="G28" s="7">
         <f>D21</f>
         <v>10</v>
       </c>
-      <c r="I28" s="118" t="s">
+      <c r="I28" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="142"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="143"/>
-      <c r="O28" s="143"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="143"/>
-      <c r="S28" s="144"/>
-      <c r="U28" s="81" t="s">
+      <c r="J28" s="152"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="154"/>
+      <c r="U28" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="244"/>
-      <c r="W28" s="244"/>
-      <c r="X28" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y28" s="49" t="s">
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Z28" s="49">
+      <c r="Z28" s="42">
         <f>SUM(Z18:Z20) + Z23+Z25+Z27</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="49" t="s">
+      <c r="AA28" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AB28" s="68">
+      <c r="AB28" s="60">
         <f>SUM(AB18:AB20) + AB23+AB25+AB27</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="76">
+      <c r="B29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="68">
         <f>C21*职阶数值!D3+职阶数值!E3</f>
         <v>33</v>
       </c>
-      <c r="D29" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="76">
+      <c r="D29" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="68">
         <f>G21*职阶数值!F3+职阶数值!G3</f>
         <v>40</v>
       </c>
-      <c r="F29" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="F29" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="10">
         <f>G21</f>
         <v>10</v>
       </c>
-      <c r="I29" s="141"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="147"/>
-      <c r="U29" s="118" t="s">
+      <c r="I29" s="96"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="157"/>
+      <c r="U29" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="V29" s="110"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="112"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="104"/>
     </row>
     <row r="30" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="82">
+      <c r="B30" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="74">
         <f>SUM(V4:V11)</f>
         <v>24</v>
       </c>
-      <c r="D30" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="79">
+      <c r="D30" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="71">
         <f>CEILING(C30 / 5, 1)</f>
         <v>5</v>
       </c>
-      <c r="F30" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="G30" s="19">
+      <c r="F30" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="16">
         <f>FLOOR((F21 -3) / 3, 1)+职阶数值!I3</f>
         <v>2</v>
       </c>
-      <c r="I30" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="J30" s="125"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="126"/>
+      <c r="I30" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="90"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="101"/>
       <c r="P30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="1">
         <v>0</v>
       </c>
       <c r="R30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S30" s="11"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="111"/>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="111"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="112"/>
+      <c r="S30" s="10"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="104"/>
     </row>
     <row r="31" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="64">
+      <c r="B31" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="56">
         <f>E24</f>
         <v>3</v>
       </c>
-      <c r="D31" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="33">
+      <c r="D31" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="27">
         <f>E21</f>
         <v>10</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="32">
         <f>C24</f>
         <v>10</v>
       </c>
-      <c r="I31" s="118" t="s">
+      <c r="I31" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="142"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="143"/>
-      <c r="Q31" s="143"/>
-      <c r="R31" s="143"/>
-      <c r="S31" s="144"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="112"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="153"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="153"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="154"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="104"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="36">
+      <c r="B32" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="30">
         <f>G21</f>
         <v>10</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="36">
+      <c r="D32" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="30">
         <f>F21</f>
         <v>10</v>
       </c>
-      <c r="F32" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="G32" s="86">
+      <c r="F32" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="77">
         <f>MIN(E24,F24)</f>
         <v>3</v>
       </c>
-      <c r="I32" s="141"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="147"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="112"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="156"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="157"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="103"/>
+      <c r="AA32" s="103"/>
+      <c r="AB32" s="104"/>
     </row>
     <row r="33" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="76">
+      <c r="B33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="68">
         <f>MAX(C21+D21+E21, C21+F21+G21)</f>
         <v>30</v>
       </c>
-      <c r="D33" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="76">
+      <c r="D33" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="68">
         <f>C21* 2</f>
         <v>20</v>
       </c>
-      <c r="F33" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="F33" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="10">
         <v>1</v>
       </c>
-      <c r="I33" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="J33" s="125"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
-      <c r="N33" s="149"/>
-      <c r="O33" s="126"/>
+      <c r="I33" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="J33" s="90"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="101"/>
       <c r="P33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="1">
         <v>0</v>
       </c>
       <c r="R33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S33" s="11"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="111"/>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="111"/>
-      <c r="AB33" s="112"/>
+      <c r="S33" s="10"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="104"/>
     </row>
     <row r="34" spans="2:28" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="79">
+      <c r="B34" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="71">
         <v>1</v>
       </c>
-      <c r="D34" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="E34" s="82">
+      <c r="D34" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="74">
         <v>1</v>
       </c>
-      <c r="F34" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="19">
+      <c r="F34" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="I34" s="118" t="s">
+      <c r="I34" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="142"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="143"/>
-      <c r="O34" s="143"/>
-      <c r="P34" s="143"/>
-      <c r="Q34" s="143"/>
-      <c r="R34" s="143"/>
-      <c r="S34" s="144"/>
-      <c r="U34" s="140"/>
-      <c r="V34" s="241"/>
-      <c r="W34" s="242"/>
-      <c r="X34" s="242"/>
-      <c r="Y34" s="242"/>
-      <c r="Z34" s="242"/>
-      <c r="AA34" s="242"/>
-      <c r="AB34" s="243"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="153"/>
+      <c r="Q34" s="153"/>
+      <c r="R34" s="153"/>
+      <c r="S34" s="154"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="106"/>
+      <c r="X34" s="106"/>
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="107"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C35" s="189"/>
-      <c r="D35" s="34">
+      <c r="D35" s="28">
         <v>30</v>
       </c>
       <c r="E35" s="190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F35" s="189"/>
-      <c r="G35" s="38">
+      <c r="G35" s="32">
         <f>D35*2</f>
         <v>60</v>
       </c>
-      <c r="I35" s="141"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
-      <c r="M35" s="146"/>
-      <c r="N35" s="146"/>
-      <c r="O35" s="146"/>
-      <c r="P35" s="146"/>
-      <c r="Q35" s="146"/>
-      <c r="R35" s="146"/>
-      <c r="S35" s="147"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="156"/>
+      <c r="P35" s="156"/>
+      <c r="Q35" s="156"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="157"/>
       <c r="U35" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="V35" s="174"/>
-      <c r="W35" s="174"/>
-      <c r="X35" s="174"/>
-      <c r="Y35" s="174"/>
-      <c r="Z35" s="174"/>
-      <c r="AA35" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AB35" s="16" t="str">
+      <c r="AB35" s="4" t="str">
         <f>VLOOKUP(Z46+AB46, 属性评级!$I$3:$J$15, 2, TRUE)</f>
         <v>E-</v>
       </c>
     </row>
     <row r="36" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" s="192"/>
-      <c r="D36" s="35">
+      <c r="D36" s="29">
         <v>50</v>
       </c>
       <c r="E36" s="193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="192"/>
       <c r="G36" s="7">
         <f>D36*2</f>
         <v>100</v>
       </c>
-      <c r="I36" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="J36" s="125"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="126"/>
+      <c r="I36" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="J36" s="90"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="101"/>
       <c r="P36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="1">
         <v>0</v>
       </c>
       <c r="R36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S36" s="11"/>
+      <c r="S36" s="10"/>
       <c r="U36" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="V36" s="165"/>
-      <c r="W36" s="166"/>
-      <c r="X36" s="166"/>
+        <v>175</v>
+      </c>
+      <c r="V36" s="92"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
       <c r="Y36" s="6" t="s">
         <v>15</v>
       </c>
@@ -4135,80 +4118,79 @@
       <c r="AB36" s="7"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B37" s="136" t="s">
+      <c r="B37" s="200" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="201"/>
+      <c r="D37" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="202" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="137"/>
-      <c r="D37" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="138" t="s">
+      <c r="F37" s="201"/>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="152"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
+      <c r="R37" s="153"/>
+      <c r="S37" s="154"/>
+      <c r="U37" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="V37" s="90"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB37" s="10"/>
+    </row>
+    <row r="38" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="203" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="137"/>
-      <c r="G37" s="11">
+      <c r="C38" s="204"/>
+      <c r="D38" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="216" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" s="204"/>
+      <c r="G38" s="16">
         <v>0</v>
       </c>
-      <c r="I37" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" s="142"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143"/>
-      <c r="N37" s="143"/>
-      <c r="O37" s="143"/>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="143"/>
-      <c r="R37" s="143"/>
-      <c r="S37" s="144"/>
-      <c r="U37" s="8" t="s">
+      <c r="I38" s="96"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="156"/>
+      <c r="R38" s="156"/>
+      <c r="S38" s="157"/>
+      <c r="U38" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="V37" s="125"/>
-      <c r="W37" s="149"/>
-      <c r="X37" s="149"/>
-      <c r="Y37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB37" s="11"/>
-    </row>
-    <row r="38" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="139" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="80" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="F38" s="100"/>
-      <c r="G38" s="19">
-        <v>0</v>
-      </c>
-      <c r="I38" s="141"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
-      <c r="O38" s="146"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="146"/>
-      <c r="R38" s="146"/>
-      <c r="S38" s="147"/>
-      <c r="U38" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="V38" s="165"/>
-      <c r="W38" s="166"/>
-      <c r="X38" s="166"/>
+      <c r="V38" s="92"/>
+      <c r="W38" s="93"/>
+      <c r="X38" s="93"/>
       <c r="Y38" s="6" t="s">
         <v>15</v>
       </c>
@@ -4219,535 +4201,533 @@
       <c r="AB38" s="7"/>
     </row>
     <row r="39" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I39" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="J39" s="125"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="126"/>
+      <c r="I39" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" s="90"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="101"/>
       <c r="P39" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="1">
         <v>0</v>
       </c>
       <c r="R39" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S39" s="11"/>
+      <c r="S39" s="10"/>
       <c r="U39" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="V39" s="69"/>
-      <c r="W39" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="X39" s="70">
+        <v>108</v>
+      </c>
+      <c r="V39" s="61"/>
+      <c r="W39" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="X39" s="62">
         <f>W46+Z46+AB46</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z39" s="70"/>
-      <c r="AA39" s="70" t="s">
+      <c r="Y39" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="AB39" s="89"/>
+      <c r="AB39" s="80"/>
     </row>
     <row r="40" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
-      <c r="I40" s="118" t="s">
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="131"/>
+      <c r="I40" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="142"/>
-      <c r="K40" s="143"/>
-      <c r="L40" s="143"/>
-      <c r="M40" s="143"/>
-      <c r="N40" s="143"/>
-      <c r="O40" s="143"/>
-      <c r="P40" s="143"/>
-      <c r="Q40" s="143"/>
-      <c r="R40" s="143"/>
-      <c r="S40" s="144"/>
-      <c r="U40" s="240" t="s">
+      <c r="J40" s="152"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="153"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="153"/>
+      <c r="P40" s="153"/>
+      <c r="Q40" s="153"/>
+      <c r="R40" s="153"/>
+      <c r="S40" s="154"/>
+      <c r="U40" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="V40" s="47" t="s">
+      <c r="V40" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="W40" s="239"/>
-      <c r="X40" s="239"/>
-      <c r="Y40" s="47" t="s">
+      <c r="W40" s="97"/>
+      <c r="X40" s="97"/>
+      <c r="Y40" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB40" s="38"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB40" s="32"/>
     </row>
     <row r="41" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="124"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="175"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="97"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="98"/>
-      <c r="U41" s="118"/>
-      <c r="V41" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="W41" s="238"/>
-      <c r="X41" s="238"/>
-      <c r="Y41" s="54" t="s">
+      <c r="C41" s="121"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="162"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="205"/>
+      <c r="K41" s="206"/>
+      <c r="L41" s="206"/>
+      <c r="M41" s="206"/>
+      <c r="N41" s="206"/>
+      <c r="O41" s="206"/>
+      <c r="P41" s="206"/>
+      <c r="Q41" s="206"/>
+      <c r="R41" s="206"/>
+      <c r="S41" s="207"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="W41" s="98"/>
+      <c r="X41" s="98"/>
+      <c r="Y41" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54" t="s">
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AB41" s="55"/>
+      <c r="AB41" s="48"/>
     </row>
     <row r="42" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="176" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="177"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="166"/>
-      <c r="F42" s="166"/>
-      <c r="G42" s="173"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="10" t="s">
+      <c r="B42" s="180" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="181"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="161"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W42" s="163"/>
-      <c r="X42" s="163"/>
-      <c r="Y42" s="10" t="s">
+      <c r="W42" s="99"/>
+      <c r="X42" s="99"/>
+      <c r="Y42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB42" s="11"/>
+      <c r="AA42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB42" s="10"/>
     </row>
     <row r="43" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="117" t="s">
+      <c r="B43" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="178"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="180"/>
-      <c r="I43" s="101" t="s">
+      <c r="C43" s="182"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="126"/>
+      <c r="I43" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="102"/>
-      <c r="K43" s="102"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="102"/>
-      <c r="O43" s="102"/>
-      <c r="P43" s="102"/>
-      <c r="Q43" s="102"/>
-      <c r="R43" s="102"/>
-      <c r="S43" s="103"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="W43" s="238"/>
-      <c r="X43" s="238"/>
-      <c r="Y43" s="54" t="s">
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="130"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="130"/>
+      <c r="S43" s="131"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="W43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54" t="s">
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AB43" s="55"/>
+      <c r="AB43" s="48"/>
     </row>
     <row r="44" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="117"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="180"/>
-      <c r="I44" s="40" t="s">
+      <c r="B44" s="118"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="126"/>
+      <c r="I44" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="150"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="152"/>
+      <c r="J44" s="208"/>
+      <c r="K44" s="209"/>
+      <c r="L44" s="209"/>
+      <c r="M44" s="209"/>
+      <c r="N44" s="209"/>
+      <c r="O44" s="210"/>
       <c r="P44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q44" s="1">
         <v>0</v>
       </c>
       <c r="R44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S44" s="11"/>
-      <c r="U44" s="118"/>
-      <c r="V44" s="10" t="s">
+      <c r="S44" s="10"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W44" s="163"/>
-      <c r="X44" s="163"/>
-      <c r="Y44" s="10" t="s">
+      <c r="W44" s="99"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB44" s="11"/>
+      <c r="AA44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB44" s="10"/>
     </row>
     <row r="45" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="117"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="180"/>
-      <c r="I45" s="118" t="s">
+      <c r="B45" s="118"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="126"/>
+      <c r="I45" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="142"/>
-      <c r="K45" s="143"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="143"/>
-      <c r="N45" s="143"/>
-      <c r="O45" s="143"/>
-      <c r="P45" s="143"/>
-      <c r="Q45" s="143"/>
-      <c r="R45" s="143"/>
-      <c r="S45" s="144"/>
-      <c r="U45" s="141"/>
-      <c r="V45" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="W45" s="164"/>
-      <c r="X45" s="164"/>
-      <c r="Y45" s="56" t="s">
+      <c r="J45" s="152"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="153"/>
+      <c r="N45" s="153"/>
+      <c r="O45" s="153"/>
+      <c r="P45" s="153"/>
+      <c r="Q45" s="153"/>
+      <c r="R45" s="153"/>
+      <c r="S45" s="154"/>
+      <c r="U45" s="96"/>
+      <c r="V45" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="W45" s="100"/>
+      <c r="X45" s="100"/>
+      <c r="Y45" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="Z45" s="56"/>
-      <c r="AA45" s="56" t="s">
+      <c r="Z45" s="49"/>
+      <c r="AA45" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AB45" s="57"/>
+      <c r="AB45" s="50"/>
     </row>
     <row r="46" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="117"/>
-      <c r="C46" s="178"/>
-      <c r="D46" s="179"/>
-      <c r="E46" s="179"/>
-      <c r="F46" s="179"/>
-      <c r="G46" s="180"/>
-      <c r="I46" s="141"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="146"/>
-      <c r="M46" s="146"/>
-      <c r="N46" s="146"/>
-      <c r="O46" s="146"/>
-      <c r="P46" s="146"/>
-      <c r="Q46" s="146"/>
-      <c r="R46" s="146"/>
-      <c r="S46" s="147"/>
-      <c r="U46" s="81" t="s">
+      <c r="B46" s="118"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="126"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="156"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
+      <c r="N46" s="156"/>
+      <c r="O46" s="156"/>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="156"/>
+      <c r="R46" s="156"/>
+      <c r="S46" s="157"/>
+      <c r="U46" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V46" s="244"/>
-      <c r="W46" s="244"/>
-      <c r="X46" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y46" s="49" t="s">
+      <c r="V46" s="87"/>
+      <c r="W46" s="87"/>
+      <c r="X46" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y46" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Z46" s="49">
+      <c r="Z46" s="42">
         <f>SUM(Z36:Z38) + Z41+Z43+Z45</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="49" t="s">
+      <c r="AA46" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AB46" s="68">
+      <c r="AB46" s="60">
         <f>SUM(AB36:AB38) + AB41+AB43+AB45</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="119"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="183"/>
-      <c r="I47" s="40" t="s">
+      <c r="C47" s="183"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="128"/>
+      <c r="I47" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="125"/>
-      <c r="K47" s="149"/>
-      <c r="L47" s="149"/>
-      <c r="M47" s="149"/>
-      <c r="N47" s="149"/>
-      <c r="O47" s="126"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="101"/>
       <c r="P47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q47" s="10">
+      <c r="Q47" s="1">
         <v>0</v>
       </c>
       <c r="R47" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S47" s="11"/>
-      <c r="U47" s="118" t="s">
+      <c r="S47" s="10"/>
+      <c r="U47" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="V47" s="110"/>
-      <c r="W47" s="111"/>
-      <c r="X47" s="111"/>
-      <c r="Y47" s="111"/>
-      <c r="Z47" s="111"/>
-      <c r="AA47" s="111"/>
-      <c r="AB47" s="112"/>
+      <c r="V47" s="102"/>
+      <c r="W47" s="103"/>
+      <c r="X47" s="103"/>
+      <c r="Y47" s="103"/>
+      <c r="Z47" s="103"/>
+      <c r="AA47" s="103"/>
+      <c r="AB47" s="104"/>
     </row>
     <row r="48" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="153" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="154"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="156"/>
-      <c r="I48" s="118" t="s">
+      <c r="B48" s="211" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="212"/>
+      <c r="D48" s="213"/>
+      <c r="E48" s="213"/>
+      <c r="F48" s="213"/>
+      <c r="G48" s="214"/>
+      <c r="I48" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="142"/>
-      <c r="K48" s="143"/>
-      <c r="L48" s="143"/>
-      <c r="M48" s="143"/>
-      <c r="N48" s="143"/>
-      <c r="O48" s="143"/>
-      <c r="P48" s="143"/>
-      <c r="Q48" s="143"/>
-      <c r="R48" s="143"/>
-      <c r="S48" s="144"/>
-      <c r="U48" s="118"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="111"/>
-      <c r="X48" s="111"/>
-      <c r="Y48" s="111"/>
-      <c r="Z48" s="111"/>
-      <c r="AA48" s="111"/>
-      <c r="AB48" s="112"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="153"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="153"/>
+      <c r="N48" s="153"/>
+      <c r="O48" s="153"/>
+      <c r="P48" s="153"/>
+      <c r="Q48" s="153"/>
+      <c r="R48" s="153"/>
+      <c r="S48" s="154"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="102"/>
+      <c r="W48" s="103"/>
+      <c r="X48" s="103"/>
+      <c r="Y48" s="103"/>
+      <c r="Z48" s="103"/>
+      <c r="AA48" s="103"/>
+      <c r="AB48" s="104"/>
     </row>
     <row r="49" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="118"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="158"/>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="159"/>
-      <c r="I49" s="141"/>
-      <c r="J49" s="145"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="146"/>
-      <c r="M49" s="146"/>
-      <c r="N49" s="146"/>
-      <c r="O49" s="146"/>
-      <c r="P49" s="146"/>
-      <c r="Q49" s="146"/>
-      <c r="R49" s="146"/>
-      <c r="S49" s="147"/>
-      <c r="U49" s="118"/>
-      <c r="V49" s="110"/>
-      <c r="W49" s="111"/>
-      <c r="X49" s="111"/>
-      <c r="Y49" s="111"/>
-      <c r="Z49" s="111"/>
-      <c r="AA49" s="111"/>
-      <c r="AB49" s="112"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="148"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="156"/>
+      <c r="L49" s="156"/>
+      <c r="M49" s="156"/>
+      <c r="N49" s="156"/>
+      <c r="O49" s="156"/>
+      <c r="P49" s="156"/>
+      <c r="Q49" s="156"/>
+      <c r="R49" s="156"/>
+      <c r="S49" s="157"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="102"/>
+      <c r="W49" s="103"/>
+      <c r="X49" s="103"/>
+      <c r="Y49" s="103"/>
+      <c r="Z49" s="103"/>
+      <c r="AA49" s="103"/>
+      <c r="AB49" s="104"/>
     </row>
     <row r="50" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="118"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="159"/>
-      <c r="I50" s="40" t="s">
+      <c r="B50" s="88"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="148"/>
+      <c r="I50" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="125"/>
-      <c r="K50" s="149"/>
-      <c r="L50" s="149"/>
-      <c r="M50" s="149"/>
-      <c r="N50" s="149"/>
-      <c r="O50" s="126"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="101"/>
       <c r="P50" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q50" s="10">
+      <c r="Q50" s="1">
         <v>0</v>
       </c>
       <c r="R50" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S50" s="11"/>
-      <c r="U50" s="118"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="111"/>
-      <c r="AA50" s="111"/>
-      <c r="AB50" s="112"/>
+      <c r="S50" s="10"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="102"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="103"/>
+      <c r="Y50" s="103"/>
+      <c r="Z50" s="103"/>
+      <c r="AA50" s="103"/>
+      <c r="AB50" s="104"/>
     </row>
     <row r="51" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="118"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="159"/>
-      <c r="I51" s="118" t="s">
+      <c r="B51" s="88"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="148"/>
+      <c r="I51" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="J51" s="142"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="143"/>
-      <c r="M51" s="143"/>
-      <c r="N51" s="143"/>
-      <c r="O51" s="143"/>
-      <c r="P51" s="143"/>
-      <c r="Q51" s="143"/>
-      <c r="R51" s="143"/>
-      <c r="S51" s="144"/>
-      <c r="U51" s="118"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="111"/>
-      <c r="X51" s="111"/>
-      <c r="Y51" s="111"/>
-      <c r="Z51" s="111"/>
-      <c r="AA51" s="111"/>
-      <c r="AB51" s="112"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
+      <c r="N51" s="153"/>
+      <c r="O51" s="153"/>
+      <c r="P51" s="153"/>
+      <c r="Q51" s="153"/>
+      <c r="R51" s="153"/>
+      <c r="S51" s="154"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="102"/>
+      <c r="W51" s="103"/>
+      <c r="X51" s="103"/>
+      <c r="Y51" s="103"/>
+      <c r="Z51" s="103"/>
+      <c r="AA51" s="103"/>
+      <c r="AB51" s="104"/>
     </row>
     <row r="52" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="140"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="162"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="148"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="97"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="97"/>
-      <c r="Q52" s="97"/>
-      <c r="R52" s="97"/>
-      <c r="S52" s="98"/>
-      <c r="U52" s="140"/>
-      <c r="V52" s="241"/>
-      <c r="W52" s="242"/>
-      <c r="X52" s="242"/>
-      <c r="Y52" s="242"/>
-      <c r="Z52" s="242"/>
-      <c r="AA52" s="242"/>
-      <c r="AB52" s="243"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="151"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="205"/>
+      <c r="K52" s="206"/>
+      <c r="L52" s="206"/>
+      <c r="M52" s="206"/>
+      <c r="N52" s="206"/>
+      <c r="O52" s="206"/>
+      <c r="P52" s="206"/>
+      <c r="Q52" s="206"/>
+      <c r="R52" s="206"/>
+      <c r="S52" s="207"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="105"/>
+      <c r="W52" s="106"/>
+      <c r="X52" s="106"/>
+      <c r="Y52" s="106"/>
+      <c r="Z52" s="106"/>
+      <c r="AA52" s="106"/>
+      <c r="AB52" s="107"/>
     </row>
     <row r="53" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="116" t="s">
+      <c r="B53" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="236"/>
-      <c r="D53" s="236"/>
-      <c r="E53" s="236"/>
-      <c r="F53" s="236"/>
-      <c r="G53" s="237"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="116"/>
       <c r="U53" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="V53" s="174"/>
-      <c r="W53" s="174"/>
-      <c r="X53" s="174"/>
-      <c r="Y53" s="174"/>
-      <c r="Z53" s="174"/>
-      <c r="AA53" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="V53" s="94"/>
+      <c r="W53" s="94"/>
+      <c r="X53" s="94"/>
+      <c r="Y53" s="94"/>
+      <c r="Z53" s="94"/>
+      <c r="AA53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AB53" s="16" t="str">
+      <c r="AB53" s="4" t="str">
         <f>VLOOKUP(Z64+AB64, 属性评级!$I$3:$J$15, 2, TRUE)</f>
         <v>E-</v>
       </c>
     </row>
     <row r="54" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="117"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="179"/>
-      <c r="E54" s="179"/>
-      <c r="F54" s="179"/>
-      <c r="G54" s="180"/>
-      <c r="I54" s="101" t="s">
+      <c r="B54" s="118"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="126"/>
+      <c r="I54" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="102"/>
-      <c r="K54" s="102"/>
-      <c r="L54" s="102"/>
-      <c r="M54" s="103"/>
-      <c r="O54" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="P54" s="102"/>
-      <c r="Q54" s="102"/>
-      <c r="R54" s="102"/>
-      <c r="S54" s="103"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="131"/>
+      <c r="O54" s="129" t="s">
+        <v>184</v>
+      </c>
+      <c r="P54" s="130"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="130"/>
+      <c r="S54" s="131"/>
       <c r="U54" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="V54" s="165"/>
-      <c r="W54" s="166"/>
-      <c r="X54" s="166"/>
+        <v>175</v>
+      </c>
+      <c r="V54" s="92"/>
+      <c r="W54" s="93"/>
+      <c r="X54" s="93"/>
       <c r="Y54" s="6" t="s">
         <v>15</v>
       </c>
@@ -4758,64 +4738,63 @@
       <c r="AB54" s="7"/>
     </row>
     <row r="55" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="117"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="179"/>
-      <c r="E55" s="179"/>
-      <c r="F55" s="179"/>
-      <c r="G55" s="180"/>
-      <c r="I55" s="116" t="s">
+      <c r="B55" s="118"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="126"/>
+      <c r="I55" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="104"/>
-      <c r="K55" s="105"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="106"/>
-      <c r="O55" s="116" t="s">
-        <v>182</v>
-      </c>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="105"/>
-      <c r="R55" s="105"/>
-      <c r="S55" s="106"/>
+      <c r="J55" s="217"/>
+      <c r="K55" s="218"/>
+      <c r="L55" s="218"/>
+      <c r="M55" s="219"/>
+      <c r="O55" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="P55" s="217"/>
+      <c r="Q55" s="218"/>
+      <c r="R55" s="218"/>
+      <c r="S55" s="219"/>
       <c r="U55" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="V55" s="90"/>
+      <c r="W55" s="91"/>
+      <c r="X55" s="91"/>
+      <c r="Y55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB55" s="10"/>
+    </row>
+    <row r="56" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="118"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="126"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="220"/>
+      <c r="K56" s="221"/>
+      <c r="L56" s="221"/>
+      <c r="M56" s="222"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="220"/>
+      <c r="Q56" s="221"/>
+      <c r="R56" s="221"/>
+      <c r="S56" s="222"/>
+      <c r="U56" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="V55" s="125"/>
-      <c r="W55" s="149"/>
-      <c r="X55" s="149"/>
-      <c r="Y55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB55" s="11"/>
-    </row>
-    <row r="56" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="117"/>
-      <c r="C56" s="179"/>
-      <c r="D56" s="179"/>
-      <c r="E56" s="179"/>
-      <c r="F56" s="179"/>
-      <c r="G56" s="180"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="107"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="109"/>
-      <c r="O56" s="117"/>
-      <c r="P56" s="107"/>
-      <c r="Q56" s="108"/>
-      <c r="R56" s="108"/>
-      <c r="S56" s="109"/>
-      <c r="U56" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="V56" s="165"/>
-      <c r="W56" s="166"/>
-      <c r="X56" s="166"/>
+      <c r="V56" s="92"/>
+      <c r="W56" s="93"/>
+      <c r="X56" s="93"/>
       <c r="Y56" s="6" t="s">
         <v>15</v>
       </c>
@@ -4827,515 +4806,633 @@
     </row>
     <row r="57" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="119"/>
-      <c r="C57" s="182"/>
-      <c r="D57" s="182"/>
-      <c r="E57" s="182"/>
-      <c r="F57" s="182"/>
-      <c r="G57" s="183"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="109"/>
-      <c r="O57" s="117"/>
-      <c r="P57" s="107"/>
-      <c r="Q57" s="108"/>
-      <c r="R57" s="108"/>
-      <c r="S57" s="109"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="128"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="220"/>
+      <c r="K57" s="221"/>
+      <c r="L57" s="221"/>
+      <c r="M57" s="222"/>
+      <c r="O57" s="118"/>
+      <c r="P57" s="220"/>
+      <c r="Q57" s="221"/>
+      <c r="R57" s="221"/>
+      <c r="S57" s="222"/>
       <c r="U57" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="V57" s="69"/>
-      <c r="W57" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="X57" s="70">
+        <v>108</v>
+      </c>
+      <c r="V57" s="61"/>
+      <c r="W57" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="X57" s="62">
         <f>W64+Z64+AB64</f>
         <v>0</v>
       </c>
-      <c r="Y57" s="70" t="s">
+      <c r="Y57" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z57" s="62"/>
+      <c r="AA57" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB57" s="80"/>
+    </row>
+    <row r="58" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="102"/>
+      <c r="K58" s="103"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="104"/>
+      <c r="O58" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="103"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="104"/>
+      <c r="U58" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="V58" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="W58" s="97"/>
+      <c r="X58" s="97"/>
+      <c r="Y58" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z58" s="41"/>
+      <c r="AA58" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB58" s="32"/>
+    </row>
+    <row r="59" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="131"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="103"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="104"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="103"/>
+      <c r="R59" s="103"/>
+      <c r="S59" s="104"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="W59" s="98"/>
+      <c r="X59" s="98"/>
+      <c r="Y59" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z59" s="47"/>
+      <c r="AA59" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB59" s="48"/>
+    </row>
+    <row r="60" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="114"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="116"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="102"/>
+      <c r="K60" s="103"/>
+      <c r="L60" s="103"/>
+      <c r="M60" s="104"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="102"/>
+      <c r="Q60" s="103"/>
+      <c r="R60" s="103"/>
+      <c r="S60" s="104"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W60" s="99"/>
+      <c r="X60" s="99"/>
+      <c r="Y60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB60" s="10"/>
+    </row>
+    <row r="61" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="66"/>
+      <c r="D61" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="66"/>
+      <c r="F61" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G61" s="67"/>
+      <c r="I61" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="220"/>
+      <c r="K61" s="221"/>
+      <c r="L61" s="221"/>
+      <c r="M61" s="222"/>
+      <c r="O61" s="118" t="s">
+        <v>183</v>
+      </c>
+      <c r="P61" s="220"/>
+      <c r="Q61" s="221"/>
+      <c r="R61" s="221"/>
+      <c r="S61" s="222"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="W61" s="98"/>
+      <c r="X61" s="98"/>
+      <c r="Y61" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB61" s="48"/>
+    </row>
+    <row r="62" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="108"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="110"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="220"/>
+      <c r="K62" s="221"/>
+      <c r="L62" s="221"/>
+      <c r="M62" s="222"/>
+      <c r="O62" s="118"/>
+      <c r="P62" s="220"/>
+      <c r="Q62" s="221"/>
+      <c r="R62" s="221"/>
+      <c r="S62" s="222"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W62" s="99"/>
+      <c r="X62" s="99"/>
+      <c r="Y62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB62" s="10"/>
+    </row>
+    <row r="63" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="108"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="110"/>
+      <c r="I63" s="119"/>
+      <c r="J63" s="223"/>
+      <c r="K63" s="224"/>
+      <c r="L63" s="224"/>
+      <c r="M63" s="225"/>
+      <c r="O63" s="119"/>
+      <c r="P63" s="223"/>
+      <c r="Q63" s="224"/>
+      <c r="R63" s="224"/>
+      <c r="S63" s="225"/>
+      <c r="U63" s="96"/>
+      <c r="V63" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="W63" s="100"/>
+      <c r="X63" s="100"/>
+      <c r="Y63" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB63" s="50"/>
+    </row>
+    <row r="64" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="108"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="110"/>
+      <c r="U64" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="V64" s="87"/>
+      <c r="W64" s="87"/>
+      <c r="X64" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="Z57" s="70"/>
-      <c r="AA57" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB57" s="89"/>
-    </row>
-    <row r="58" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I58" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="J58" s="110"/>
-      <c r="K58" s="111"/>
-      <c r="L58" s="111"/>
-      <c r="M58" s="112"/>
-      <c r="O58" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="111"/>
-      <c r="R58" s="111"/>
-      <c r="S58" s="112"/>
-      <c r="U58" s="240" t="s">
-        <v>52</v>
-      </c>
-      <c r="V58" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="W58" s="239"/>
-      <c r="X58" s="239"/>
-      <c r="Y58" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z58" s="48"/>
-      <c r="AA58" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB58" s="38"/>
-    </row>
-    <row r="59" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="103"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="110"/>
-      <c r="K59" s="111"/>
-      <c r="L59" s="111"/>
-      <c r="M59" s="112"/>
-      <c r="O59" s="118"/>
-      <c r="P59" s="110"/>
-      <c r="Q59" s="111"/>
-      <c r="R59" s="111"/>
-      <c r="S59" s="112"/>
-      <c r="U59" s="118"/>
-      <c r="V59" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="W59" s="238"/>
-      <c r="X59" s="238"/>
-      <c r="Y59" s="54" t="s">
+      <c r="Y64" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB59" s="55"/>
-    </row>
-    <row r="60" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="235"/>
-      <c r="D60" s="236"/>
-      <c r="E60" s="236"/>
-      <c r="F60" s="236"/>
-      <c r="G60" s="237"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="110"/>
-      <c r="K60" s="111"/>
-      <c r="L60" s="111"/>
-      <c r="M60" s="112"/>
-      <c r="O60" s="118"/>
-      <c r="P60" s="110"/>
-      <c r="Q60" s="111"/>
-      <c r="R60" s="111"/>
-      <c r="S60" s="112"/>
-      <c r="U60" s="118"/>
-      <c r="V60" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="W60" s="163"/>
-      <c r="X60" s="163"/>
-      <c r="Y60" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB60" s="11"/>
-    </row>
-    <row r="61" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" s="74"/>
-      <c r="F61" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="G61" s="75"/>
-      <c r="I61" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" s="107"/>
-      <c r="K61" s="108"/>
-      <c r="L61" s="108"/>
-      <c r="M61" s="109"/>
-      <c r="O61" s="117" t="s">
-        <v>184</v>
-      </c>
-      <c r="P61" s="107"/>
-      <c r="Q61" s="108"/>
-      <c r="R61" s="108"/>
-      <c r="S61" s="109"/>
-      <c r="U61" s="118"/>
-      <c r="V61" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="W61" s="238"/>
-      <c r="X61" s="238"/>
-      <c r="Y61" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB61" s="55"/>
-    </row>
-    <row r="62" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="229"/>
-      <c r="C62" s="230"/>
-      <c r="D62" s="230"/>
-      <c r="E62" s="230"/>
-      <c r="F62" s="230"/>
-      <c r="G62" s="231"/>
-      <c r="I62" s="117"/>
-      <c r="J62" s="107"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="109"/>
-      <c r="O62" s="117"/>
-      <c r="P62" s="107"/>
-      <c r="Q62" s="108"/>
-      <c r="R62" s="108"/>
-      <c r="S62" s="109"/>
-      <c r="U62" s="118"/>
-      <c r="V62" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="W62" s="163"/>
-      <c r="X62" s="163"/>
-      <c r="Y62" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z62" s="26"/>
-      <c r="AA62" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB62" s="11"/>
-    </row>
-    <row r="63" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="229"/>
-      <c r="C63" s="230"/>
-      <c r="D63" s="230"/>
-      <c r="E63" s="230"/>
-      <c r="F63" s="230"/>
-      <c r="G63" s="231"/>
-      <c r="I63" s="119"/>
-      <c r="J63" s="113"/>
-      <c r="K63" s="114"/>
-      <c r="L63" s="114"/>
-      <c r="M63" s="115"/>
-      <c r="O63" s="119"/>
-      <c r="P63" s="113"/>
-      <c r="Q63" s="114"/>
-      <c r="R63" s="114"/>
-      <c r="S63" s="115"/>
-      <c r="U63" s="141"/>
-      <c r="V63" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="W63" s="164"/>
-      <c r="X63" s="164"/>
-      <c r="Y63" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z63" s="56"/>
-      <c r="AA63" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB63" s="57"/>
-    </row>
-    <row r="64" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="229"/>
-      <c r="C64" s="230"/>
-      <c r="D64" s="230"/>
-      <c r="E64" s="230"/>
-      <c r="F64" s="230"/>
-      <c r="G64" s="231"/>
-      <c r="U64" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="V64" s="244"/>
-      <c r="W64" s="244"/>
-      <c r="X64" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y64" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z64" s="49">
+      <c r="Z64" s="42">
         <f>SUM(Z54:Z56) + Z59+Z61+Z63</f>
         <v>0</v>
       </c>
-      <c r="AA64" s="49" t="s">
+      <c r="AA64" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AB64" s="68">
+      <c r="AB64" s="60">
         <f>SUM(AB54:AB56) + AB59+AB61+AB63</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="229"/>
-      <c r="C65" s="230"/>
-      <c r="D65" s="230"/>
-      <c r="E65" s="230"/>
-      <c r="F65" s="230"/>
-      <c r="G65" s="231"/>
-      <c r="I65" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="J65" s="102"/>
-      <c r="K65" s="102"/>
-      <c r="L65" s="102"/>
-      <c r="M65" s="103"/>
-      <c r="O65" s="101" t="s">
+      <c r="B65" s="108"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="110"/>
+      <c r="I65" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" s="130"/>
+      <c r="K65" s="130"/>
+      <c r="L65" s="130"/>
+      <c r="M65" s="131"/>
+      <c r="O65" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="102"/>
-      <c r="Q65" s="102"/>
-      <c r="R65" s="102"/>
-      <c r="S65" s="103"/>
-      <c r="U65" s="118" t="s">
+      <c r="P65" s="130"/>
+      <c r="Q65" s="130"/>
+      <c r="R65" s="130"/>
+      <c r="S65" s="131"/>
+      <c r="U65" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="V65" s="110"/>
-      <c r="W65" s="111"/>
-      <c r="X65" s="111"/>
-      <c r="Y65" s="111"/>
-      <c r="Z65" s="111"/>
-      <c r="AA65" s="111"/>
-      <c r="AB65" s="112"/>
+      <c r="V65" s="102"/>
+      <c r="W65" s="103"/>
+      <c r="X65" s="103"/>
+      <c r="Y65" s="103"/>
+      <c r="Z65" s="103"/>
+      <c r="AA65" s="103"/>
+      <c r="AB65" s="104"/>
     </row>
     <row r="66" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="229"/>
-      <c r="C66" s="230"/>
-      <c r="D66" s="230"/>
-      <c r="E66" s="230"/>
-      <c r="F66" s="230"/>
-      <c r="G66" s="231"/>
-      <c r="I66" s="83" t="s">
+      <c r="B66" s="108"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="110"/>
+      <c r="I66" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="J66" s="120"/>
+      <c r="K66" s="121"/>
+      <c r="L66" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="M66" s="4"/>
+      <c r="O66" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="P66" s="120"/>
+      <c r="Q66" s="121"/>
+      <c r="R66" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="S66" s="4"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="102"/>
+      <c r="W66" s="103"/>
+      <c r="X66" s="103"/>
+      <c r="Y66" s="103"/>
+      <c r="Z66" s="103"/>
+      <c r="AA66" s="103"/>
+      <c r="AB66" s="104"/>
+    </row>
+    <row r="67" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="108"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="110"/>
+      <c r="I67" s="122"/>
+      <c r="J67" s="123"/>
+      <c r="K67" s="123"/>
+      <c r="L67" s="123"/>
+      <c r="M67" s="124"/>
+      <c r="O67" s="122"/>
+      <c r="P67" s="123"/>
+      <c r="Q67" s="123"/>
+      <c r="R67" s="123"/>
+      <c r="S67" s="124"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="102"/>
+      <c r="W67" s="103"/>
+      <c r="X67" s="103"/>
+      <c r="Y67" s="103"/>
+      <c r="Z67" s="103"/>
+      <c r="AA67" s="103"/>
+      <c r="AB67" s="104"/>
+    </row>
+    <row r="68" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="113"/>
+      <c r="I68" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="J66" s="123"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="M66" s="4"/>
-      <c r="O66" s="83" t="s">
+      <c r="J68" s="90"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c r="O68" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="P66" s="123"/>
-      <c r="Q66" s="124"/>
-      <c r="R66" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="S66" s="4"/>
-      <c r="U66" s="118"/>
-      <c r="V66" s="110"/>
-      <c r="W66" s="111"/>
-      <c r="X66" s="111"/>
-      <c r="Y66" s="111"/>
-      <c r="Z66" s="111"/>
-      <c r="AA66" s="111"/>
-      <c r="AB66" s="112"/>
-    </row>
-    <row r="67" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="229"/>
-      <c r="C67" s="230"/>
-      <c r="D67" s="230"/>
-      <c r="E67" s="230"/>
-      <c r="F67" s="230"/>
-      <c r="G67" s="231"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="121"/>
-      <c r="K67" s="121"/>
-      <c r="L67" s="121"/>
-      <c r="M67" s="122"/>
-      <c r="O67" s="120"/>
-      <c r="P67" s="121"/>
-      <c r="Q67" s="121"/>
-      <c r="R67" s="121"/>
-      <c r="S67" s="122"/>
-      <c r="U67" s="118"/>
-      <c r="V67" s="110"/>
-      <c r="W67" s="111"/>
-      <c r="X67" s="111"/>
-      <c r="Y67" s="111"/>
-      <c r="Z67" s="111"/>
-      <c r="AA67" s="111"/>
-      <c r="AB67" s="112"/>
-    </row>
-    <row r="68" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="232"/>
-      <c r="C68" s="233"/>
-      <c r="D68" s="233"/>
-      <c r="E68" s="233"/>
-      <c r="F68" s="233"/>
-      <c r="G68" s="234"/>
-      <c r="I68" s="40" t="s">
+      <c r="P68" s="90"/>
+      <c r="Q68" s="101"/>
+      <c r="R68" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="S68" s="10"/>
+      <c r="U68" s="88"/>
+      <c r="V68" s="102"/>
+      <c r="W68" s="103"/>
+      <c r="X68" s="103"/>
+      <c r="Y68" s="103"/>
+      <c r="Z68" s="103"/>
+      <c r="AA68" s="103"/>
+      <c r="AB68" s="104"/>
+    </row>
+    <row r="69" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I69" s="122"/>
+      <c r="J69" s="123"/>
+      <c r="K69" s="123"/>
+      <c r="L69" s="123"/>
+      <c r="M69" s="124"/>
+      <c r="O69" s="122"/>
+      <c r="P69" s="123"/>
+      <c r="Q69" s="123"/>
+      <c r="R69" s="123"/>
+      <c r="S69" s="124"/>
+      <c r="U69" s="88"/>
+      <c r="V69" s="102"/>
+      <c r="W69" s="103"/>
+      <c r="X69" s="103"/>
+      <c r="Y69" s="103"/>
+      <c r="Z69" s="103"/>
+      <c r="AA69" s="103"/>
+      <c r="AB69" s="104"/>
+    </row>
+    <row r="70" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="129" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="130"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="131"/>
+      <c r="I70" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="J68" s="125"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M68" s="11"/>
-      <c r="O68" s="40" t="s">
+      <c r="J70" s="90"/>
+      <c r="K70" s="101"/>
+      <c r="L70" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c r="O70" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="P68" s="125"/>
-      <c r="Q68" s="126"/>
-      <c r="R68" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="S68" s="11"/>
-      <c r="U68" s="118"/>
-      <c r="V68" s="110"/>
-      <c r="W68" s="111"/>
-      <c r="X68" s="111"/>
-      <c r="Y68" s="111"/>
-      <c r="Z68" s="111"/>
-      <c r="AA68" s="111"/>
-      <c r="AB68" s="112"/>
-    </row>
-    <row r="69" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="120"/>
-      <c r="J69" s="121"/>
-      <c r="K69" s="121"/>
-      <c r="L69" s="121"/>
-      <c r="M69" s="122"/>
-      <c r="O69" s="120"/>
-      <c r="P69" s="121"/>
-      <c r="Q69" s="121"/>
-      <c r="R69" s="121"/>
-      <c r="S69" s="122"/>
-      <c r="U69" s="118"/>
-      <c r="V69" s="110"/>
-      <c r="W69" s="111"/>
-      <c r="X69" s="111"/>
-      <c r="Y69" s="111"/>
-      <c r="Z69" s="111"/>
-      <c r="AA69" s="111"/>
-      <c r="AB69" s="112"/>
-    </row>
-    <row r="70" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="102"/>
-      <c r="D70" s="102"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="103"/>
-      <c r="I70" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="J70" s="125"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M70" s="11"/>
-      <c r="O70" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="P70" s="125"/>
-      <c r="Q70" s="126"/>
+      <c r="P70" s="90"/>
+      <c r="Q70" s="101"/>
       <c r="R70" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="S70" s="11"/>
-      <c r="U70" s="140"/>
-      <c r="V70" s="241"/>
-      <c r="W70" s="242"/>
-      <c r="X70" s="242"/>
-      <c r="Y70" s="242"/>
-      <c r="Z70" s="242"/>
-      <c r="AA70" s="242"/>
-      <c r="AB70" s="243"/>
+        <v>107</v>
+      </c>
+      <c r="S70" s="10"/>
+      <c r="U70" s="89"/>
+      <c r="V70" s="105"/>
+      <c r="W70" s="106"/>
+      <c r="X70" s="106"/>
+      <c r="Y70" s="106"/>
+      <c r="Z70" s="106"/>
+      <c r="AA70" s="106"/>
+      <c r="AB70" s="107"/>
     </row>
     <row r="71" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="127"/>
-      <c r="C71" s="128"/>
-      <c r="D71" s="128"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="129"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="97"/>
-      <c r="K71" s="97"/>
-      <c r="L71" s="97"/>
-      <c r="M71" s="98"/>
-      <c r="O71" s="96"/>
-      <c r="P71" s="97"/>
-      <c r="Q71" s="97"/>
-      <c r="R71" s="97"/>
-      <c r="S71" s="98"/>
+      <c r="B71" s="226"/>
+      <c r="C71" s="227"/>
+      <c r="D71" s="227"/>
+      <c r="E71" s="227"/>
+      <c r="F71" s="227"/>
+      <c r="G71" s="228"/>
+      <c r="I71" s="215"/>
+      <c r="J71" s="206"/>
+      <c r="K71" s="206"/>
+      <c r="L71" s="206"/>
+      <c r="M71" s="207"/>
+      <c r="O71" s="215"/>
+      <c r="P71" s="206"/>
+      <c r="Q71" s="206"/>
+      <c r="R71" s="206"/>
+      <c r="S71" s="207"/>
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B72" s="130"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="131"/>
-      <c r="E72" s="131"/>
-      <c r="F72" s="131"/>
-      <c r="G72" s="132"/>
+      <c r="B72" s="229"/>
+      <c r="C72" s="230"/>
+      <c r="D72" s="230"/>
+      <c r="E72" s="230"/>
+      <c r="F72" s="230"/>
+      <c r="G72" s="231"/>
     </row>
     <row r="73" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="130"/>
-      <c r="C73" s="131"/>
-      <c r="D73" s="131"/>
-      <c r="E73" s="131"/>
-      <c r="F73" s="131"/>
-      <c r="G73" s="132"/>
+      <c r="B73" s="229"/>
+      <c r="C73" s="230"/>
+      <c r="D73" s="230"/>
+      <c r="E73" s="230"/>
+      <c r="F73" s="230"/>
+      <c r="G73" s="231"/>
     </row>
     <row r="74" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="133"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="135"/>
+      <c r="B74" s="232"/>
+      <c r="C74" s="233"/>
+      <c r="D74" s="233"/>
+      <c r="E74" s="233"/>
+      <c r="F74" s="233"/>
+      <c r="G74" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="U65:U70"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V53:Z53"/>
-    <mergeCell ref="U58:U63"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="O71:S71"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="J55:M57"/>
+    <mergeCell ref="J58:M60"/>
+    <mergeCell ref="J61:M63"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="O55:O57"/>
+    <mergeCell ref="P55:S57"/>
+    <mergeCell ref="O58:O60"/>
+    <mergeCell ref="P58:S60"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="P61:S63"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G74"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:S49"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:S41"/>
+    <mergeCell ref="J51:S52"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="I43:S43"/>
+    <mergeCell ref="J45:S46"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:G52"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="C43:G47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="I26:S26"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="J18:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:M12"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B10:D16"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:S38"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:M24"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P18:S19"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="P22:S24"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:S35"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:S29"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:S32"/>
+    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="U16:AB16"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="P10:S12"/>
+    <mergeCell ref="B62:G68"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="O67:S67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:G57"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="V20:X20"/>
     <mergeCell ref="V54:X54"/>
@@ -5360,138 +5457,18 @@
     <mergeCell ref="V36:X36"/>
     <mergeCell ref="V47:AB52"/>
     <mergeCell ref="V65:AB70"/>
-    <mergeCell ref="B62:G68"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="O67:S67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:G57"/>
-    <mergeCell ref="U2:AB2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="U16:AB16"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:S12"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:S38"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:M24"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P18:S19"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="P22:S24"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:S35"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:S29"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:S32"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:M12"/>
-    <mergeCell ref="J6:M7"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B10:D16"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="C43:G47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J16:M17"/>
-    <mergeCell ref="I26:S26"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="J18:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:S49"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:S41"/>
-    <mergeCell ref="J51:S52"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="I43:S43"/>
-    <mergeCell ref="J45:S46"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:G52"/>
-    <mergeCell ref="O71:S71"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="J55:M57"/>
-    <mergeCell ref="J58:M60"/>
-    <mergeCell ref="J61:M63"/>
-    <mergeCell ref="O54:S54"/>
-    <mergeCell ref="O55:O57"/>
-    <mergeCell ref="P55:S57"/>
-    <mergeCell ref="O58:O60"/>
-    <mergeCell ref="P58:S60"/>
-    <mergeCell ref="O61:O63"/>
-    <mergeCell ref="P61:S63"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I71:M71"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G74"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="U65:U70"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V53:Z53"/>
+    <mergeCell ref="U58:U63"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="W63:X63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5533,340 +5510,340 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="91"/>
-    <col min="2" max="2" width="19.5546875" style="91" customWidth="1"/>
-    <col min="3" max="3" width="13" style="91" customWidth="1"/>
-    <col min="4" max="8" width="8.88671875" style="91"/>
-    <col min="9" max="9" width="11" style="91" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="91"/>
+    <col min="1" max="1" width="8.88671875" style="82"/>
+    <col min="2" max="2" width="19.5546875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="13" style="82" customWidth="1"/>
+    <col min="4" max="8" width="8.88671875" style="82"/>
+    <col min="9" max="9" width="11" style="82" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="82"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="90"/>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="F2" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="G2" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="90" t="s">
-        <v>236</v>
+      <c r="H2" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="92" t="str">
+      <c r="B3" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="83" t="str">
         <f>角色卡!C5</f>
         <v>Saber</v>
       </c>
-      <c r="D3" s="92">
+      <c r="D3" s="83">
         <f>VLOOKUP($C$3, $C$4:$G$10, 2, FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="92">
+      <c r="E3" s="83">
         <f>VLOOKUP($C$3, $C$4:$G$10, 3, FALSE)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="92">
+      <c r="F3" s="83">
         <f>VLOOKUP($C$3, $C$4:$G$10, 4, FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="92">
+      <c r="G3" s="83">
         <f>VLOOKUP($C$3, $C$4:$G$10, 5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="83">
         <f>VLOOKUP($C$3, $C$4:$H$10, 6, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="92">
+      <c r="I3" s="83">
         <f>VLOOKUP($C$3, $C$4:$I$10, 7, FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="245" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="235" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="83">
+        <v>3</v>
+      </c>
+      <c r="E4" s="83">
+        <v>3</v>
+      </c>
+      <c r="F4" s="83">
+        <v>4</v>
+      </c>
+      <c r="G4" s="83">
+        <v>0</v>
+      </c>
+      <c r="H4" s="83">
+        <v>0</v>
+      </c>
+      <c r="I4" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="235"/>
+      <c r="C5" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="92">
+      <c r="D5" s="83">
         <v>3</v>
       </c>
-      <c r="E4" s="92">
+      <c r="E5" s="83">
+        <v>0</v>
+      </c>
+      <c r="F5" s="83">
         <v>3</v>
       </c>
-      <c r="F4" s="92">
+      <c r="G5" s="83">
+        <v>6</v>
+      </c>
+      <c r="H5" s="83">
+        <v>0</v>
+      </c>
+      <c r="I5" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="235"/>
+      <c r="C6" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="83">
+        <v>3</v>
+      </c>
+      <c r="E6" s="83">
+        <v>-3</v>
+      </c>
+      <c r="F6" s="83">
+        <v>3</v>
+      </c>
+      <c r="G6" s="83">
+        <v>9</v>
+      </c>
+      <c r="H6" s="83">
+        <v>0</v>
+      </c>
+      <c r="I6" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="235"/>
+      <c r="C7" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="83">
+        <v>3</v>
+      </c>
+      <c r="E7" s="83">
+        <v>6</v>
+      </c>
+      <c r="F7" s="83">
         <v>4</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G7" s="83">
         <v>0</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H7" s="83">
         <v>0</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I7" s="83">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="245"/>
-      <c r="C5" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="92">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="235"/>
+      <c r="C8" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="83">
+        <v>2</v>
+      </c>
+      <c r="E8" s="83">
         <v>3</v>
       </c>
-      <c r="E5" s="92">
+      <c r="F8" s="83">
+        <v>5</v>
+      </c>
+      <c r="G8" s="83">
+        <v>9</v>
+      </c>
+      <c r="H8" s="83">
         <v>0</v>
       </c>
-      <c r="F5" s="92">
+      <c r="I8" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="235"/>
+      <c r="C9" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="83">
+        <v>2</v>
+      </c>
+      <c r="E9" s="83">
         <v>3</v>
       </c>
-      <c r="G5" s="92">
-        <v>6</v>
-      </c>
-      <c r="H5" s="92">
+      <c r="F9" s="83">
+        <v>4</v>
+      </c>
+      <c r="G9" s="83">
+        <v>3</v>
+      </c>
+      <c r="H9" s="83">
         <v>0</v>
       </c>
-      <c r="I5" s="92">
+      <c r="I9" s="83">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="245"/>
-      <c r="C6" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="92">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="235"/>
+      <c r="C10" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="84">
+        <v>4</v>
+      </c>
+      <c r="E10" s="84">
+        <v>0</v>
+      </c>
+      <c r="F10" s="84">
         <v>3</v>
       </c>
-      <c r="E6" s="92">
-        <v>-3</v>
-      </c>
-      <c r="F6" s="92">
-        <v>3</v>
-      </c>
-      <c r="G6" s="92">
-        <v>9</v>
-      </c>
-      <c r="H6" s="92">
+      <c r="G10" s="84">
         <v>0</v>
       </c>
-      <c r="I6" s="92">
+      <c r="H10" s="84">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="245"/>
-      <c r="C7" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="92">
-        <v>3</v>
-      </c>
-      <c r="E7" s="92">
-        <v>6</v>
-      </c>
-      <c r="F7" s="92">
-        <v>4</v>
-      </c>
-      <c r="G7" s="92">
+      <c r="I10" s="84">
         <v>0</v>
       </c>
-      <c r="H7" s="92">
-        <v>0</v>
-      </c>
-      <c r="I7" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="245"/>
-      <c r="C8" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="92">
-        <v>2</v>
-      </c>
-      <c r="E8" s="92">
-        <v>3</v>
-      </c>
-      <c r="F8" s="92">
-        <v>5</v>
-      </c>
-      <c r="G8" s="92">
-        <v>9</v>
-      </c>
-      <c r="H8" s="92">
-        <v>0</v>
-      </c>
-      <c r="I8" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="245"/>
-      <c r="C9" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="92">
-        <v>2</v>
-      </c>
-      <c r="E9" s="92">
-        <v>3</v>
-      </c>
-      <c r="F9" s="92">
-        <v>4</v>
-      </c>
-      <c r="G9" s="92">
-        <v>3</v>
-      </c>
-      <c r="H9" s="92">
-        <v>0</v>
-      </c>
-      <c r="I9" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="245"/>
-      <c r="C10" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="93">
-        <v>4</v>
-      </c>
-      <c r="E10" s="93">
-        <v>0</v>
-      </c>
-      <c r="F10" s="93">
-        <v>3</v>
-      </c>
-      <c r="G10" s="93">
-        <v>0</v>
-      </c>
-      <c r="H10" s="93">
-        <v>0</v>
-      </c>
-      <c r="I10" s="93">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="245" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="235" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="235"/>
+      <c r="C12" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="245"/>
-      <c r="C12" s="94" t="s">
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="235"/>
+      <c r="C13" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="245"/>
-      <c r="C13" s="94" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="235"/>
+      <c r="C14" s="85" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="245"/>
-      <c r="C14" s="94" t="s">
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="235"/>
+      <c r="C15" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="245"/>
-      <c r="C15" s="94" t="s">
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="235"/>
+      <c r="C16" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="245"/>
-      <c r="C16" s="94" t="s">
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="235"/>
+      <c r="C17" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="245"/>
-      <c r="C17" s="94" t="s">
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="87" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5890,298 +5867,298 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="66" t="s">
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="59">
+        <v>3</v>
+      </c>
+      <c r="C3" s="59">
+        <v>10</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="66" t="s">
+      <c r="F3" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="59">
+        <v>0</v>
+      </c>
+      <c r="J3" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="67">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="59">
+        <v>4</v>
+      </c>
+      <c r="C4" s="59">
+        <v>10</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="59">
         <v>3</v>
       </c>
-      <c r="C3" s="67">
+      <c r="J4" s="59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="59">
+        <v>5</v>
+      </c>
+      <c r="C5" s="59">
         <v>10</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D5" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="67">
-        <v>0</v>
-      </c>
-      <c r="J3" s="67" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="67">
-        <v>4</v>
-      </c>
-      <c r="C4" s="67">
+      <c r="F5" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="59">
+        <v>6</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="59">
+        <v>6</v>
+      </c>
+      <c r="C6" s="59">
+        <v>11</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="59">
+        <v>11</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="59">
+        <v>7</v>
+      </c>
+      <c r="C7" s="59">
+        <v>11</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="59">
+        <v>16</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="59">
+        <v>8</v>
+      </c>
+      <c r="C8" s="59">
+        <v>11</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="59">
+        <v>21</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="59">
+        <v>9</v>
+      </c>
+      <c r="C9" s="59">
+        <v>12</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="59">
+        <v>26</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="59">
         <v>10</v>
       </c>
-      <c r="D4" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="67">
-        <v>3</v>
-      </c>
-      <c r="J4" s="67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="67">
-        <v>5</v>
-      </c>
-      <c r="C5" s="67">
-        <v>10</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="67">
-        <v>6</v>
-      </c>
-      <c r="J5" s="67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="67">
-        <v>6</v>
-      </c>
-      <c r="C6" s="67">
+      <c r="C10" s="59">
+        <v>12</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="59">
+        <v>31</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="59">
         <v>11</v>
       </c>
-      <c r="D6" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="67">
-        <v>11</v>
-      </c>
-      <c r="J6" s="67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="67">
-        <v>7</v>
-      </c>
-      <c r="C7" s="67">
-        <v>11</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="67">
+      <c r="C11" s="59">
+        <v>13</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="59">
+        <v>36</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="59">
+        <v>12</v>
+      </c>
+      <c r="C12" s="59">
+        <v>13</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="59">
+        <v>41</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="59">
+        <v>13</v>
+      </c>
+      <c r="C13" s="59">
+        <v>13</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="59">
+        <v>44</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="59">
+        <v>14</v>
+      </c>
+      <c r="C14" s="59">
+        <v>14</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="59">
+        <v>47</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="59">
+        <v>15</v>
+      </c>
+      <c r="C15" s="59">
+        <v>14</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="59">
+        <v>50</v>
+      </c>
+      <c r="J15" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="59">
         <v>16</v>
       </c>
-      <c r="J7" s="67" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="67">
-        <v>8</v>
-      </c>
-      <c r="C8" s="67">
-        <v>11</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="67">
-        <v>21</v>
-      </c>
-      <c r="J8" s="67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="67">
-        <v>9</v>
-      </c>
-      <c r="C9" s="67">
-        <v>12</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="67">
-        <v>26</v>
-      </c>
-      <c r="J9" s="67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="67">
-        <v>10</v>
-      </c>
-      <c r="C10" s="67">
-        <v>12</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="67">
-        <v>31</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="67">
-        <v>11</v>
-      </c>
-      <c r="C11" s="67">
-        <v>13</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="67">
-        <v>36</v>
-      </c>
-      <c r="J11" s="67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="67">
-        <v>12</v>
-      </c>
-      <c r="C12" s="67">
-        <v>13</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="67">
-        <v>41</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="67">
-        <v>13</v>
-      </c>
-      <c r="C13" s="67">
-        <v>13</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="67">
-        <v>44</v>
-      </c>
-      <c r="J13" s="67" t="s">
+      <c r="C16" s="59">
+        <v>14</v>
+      </c>
+      <c r="D16" s="59" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="67">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="59">
+        <v>17</v>
+      </c>
+      <c r="C17" s="59">
         <v>14</v>
       </c>
-      <c r="C14" s="67">
-        <v>14</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="67">
-        <v>47</v>
-      </c>
-      <c r="J14" s="67" t="s">
+      <c r="D17" s="59" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="67">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="59">
+        <v>18</v>
+      </c>
+      <c r="C18" s="59">
         <v>15</v>
       </c>
-      <c r="C15" s="67">
-        <v>14</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="67">
-        <v>50</v>
-      </c>
-      <c r="J15" s="67" t="s">
+      <c r="D18" s="59" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="67">
-        <v>16</v>
-      </c>
-      <c r="C16" s="67">
-        <v>14</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="67">
-        <v>17</v>
-      </c>
-      <c r="C17" s="67">
-        <v>14</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="67">
-        <v>18</v>
-      </c>
-      <c r="C18" s="67">
-        <v>15</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/角色卡/FAG英灵角色卡v0.5.xlsx
+++ b/角色卡/FAG英灵角色卡v0.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{A9FFE4E1-8728-4C44-8F21-54F054C19F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C69BCE-6115-4F43-803B-06BC822DE1F3}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{A9FFE4E1-8728-4C44-8F21-54F054C19F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6CCBAED-7936-49DE-94A6-32433BB6DA3F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抗魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武器名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,6 +955,9 @@
   <si>
     <t>调整点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涉</t>
   </si>
 </sst>
 </file>
@@ -1856,454 +1855,454 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="49" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
@@ -2593,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
@@ -2607,62 +2606,62 @@
   <sheetData>
     <row r="1" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="131"/>
-      <c r="I2" s="129" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
+      <c r="I2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
-      <c r="O2" s="129" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
+      <c r="O2" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="131"/>
-      <c r="U2" s="129" t="s">
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="95"/>
+      <c r="U2" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="131"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="95"/>
     </row>
     <row r="3" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="162"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="166"/>
       <c r="I3" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="132"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+        <v>92</v>
+      </c>
+      <c r="J3" s="200"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="202"/>
       <c r="O3" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="134"/>
+        <v>92</v>
+      </c>
+      <c r="P3" s="200"/>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="202"/>
       <c r="U3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2692,19 +2691,19 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="161"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="164"/>
       <c r="I4" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L4" s="36" t="s">
         <v>21</v>
@@ -2713,13 +2712,13 @@
         <v>22</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R4" s="36" t="s">
         <v>21</v>
@@ -2756,18 +2755,18 @@
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="91"/>
+      <c r="C5" s="141" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="141"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="39"/>
@@ -2807,25 +2806,25 @@
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="161"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="164"/>
       <c r="I6" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="135"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="137"/>
+        <v>95</v>
+      </c>
+      <c r="J6" s="191"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="193"/>
       <c r="O6" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="137"/>
+        <v>95</v>
+      </c>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+      <c r="S6" s="193"/>
       <c r="U6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2855,23 +2854,23 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="160"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="161"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="140"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="196"/>
       <c r="O7" s="38"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="140"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="195"/>
+      <c r="R7" s="195"/>
+      <c r="S7" s="196"/>
       <c r="U7" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V7" s="52">
         <v>3</v>
@@ -2898,27 +2897,27 @@
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="159"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="206"/>
       <c r="I8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="141"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="143"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="199"/>
       <c r="O8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="143"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="198"/>
+      <c r="R8" s="198"/>
+      <c r="S8" s="199"/>
       <c r="U8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V8" s="53">
         <v>3</v>
@@ -2946,17 +2945,17 @@
       <c r="I9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="144"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="145"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="204"/>
       <c r="O9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="145"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="204"/>
       <c r="U9" s="8" t="s">
         <v>5</v>
       </c>
@@ -2977,30 +2976,30 @@
       <c r="AB9" s="10"/>
     </row>
     <row r="10" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="129" t="s">
+      <c r="C10" s="209"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="I10" s="88" t="s">
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="I10" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="146"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="148"/>
-      <c r="O10" s="88" t="s">
+      <c r="J10" s="149"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="151"/>
+      <c r="O10" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="148"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="151"/>
       <c r="U10" s="5" t="s">
         <v>59</v>
       </c>
@@ -3018,24 +3017,24 @@
       <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="167"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="169"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="213"/>
       <c r="E11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="162"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="148"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="148"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="166"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="151"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="151"/>
       <c r="U11" s="8" t="s">
         <v>60</v>
       </c>
@@ -3053,24 +3052,24 @@
       <c r="AB11" s="10"/>
     </row>
     <row r="12" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="167"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="169"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
       <c r="E12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="163"/>
-      <c r="G12" s="161"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="151"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="150"/>
-      <c r="S12" s="151"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="164"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="154"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="154"/>
       <c r="U12" s="22" t="s">
         <v>6</v>
       </c>
@@ -3091,14 +3090,14 @@
       <c r="AB12" s="24"/>
     </row>
     <row r="13" spans="2:28" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="167"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="173" t="s">
+      <c r="B13" s="211"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="174"/>
-      <c r="G13" s="175"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="219"/>
       <c r="U13" s="8" t="s">
         <v>75</v>
       </c>
@@ -3118,35 +3117,35 @@
         <v>73</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB13" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="167"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="169"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="213"/>
       <c r="E14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="163"/>
-      <c r="G14" s="161"/>
-      <c r="I14" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="131"/>
-      <c r="O14" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="131"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="164"/>
+      <c r="I14" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="95"/>
+      <c r="O14" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="95"/>
       <c r="U14" s="11" t="s">
         <v>72</v>
       </c>
@@ -3169,94 +3168,94 @@
       <c r="AA14" s="15">
         <v>0</v>
       </c>
-      <c r="AB14" s="236">
+      <c r="AB14" s="87">
         <f>Z14 + AA14 - AB28 - AB46-AB64</f>
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="167"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="176" t="s">
+      <c r="B15" s="211"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="160"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="161"/>
       <c r="I15" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="132"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="134"/>
+        <v>101</v>
+      </c>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="202"/>
       <c r="O15" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="P15" s="200"/>
+      <c r="Q15" s="201"/>
+      <c r="R15" s="201"/>
+      <c r="S15" s="202"/>
+    </row>
+    <row r="16" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="214"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="163"/>
+      <c r="I16" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="185"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="187"/>
+      <c r="O16" s="35" t="s">
         <v>187</v>
-      </c>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="134"/>
-    </row>
-    <row r="16" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="170"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="179"/>
-      <c r="I16" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="J16" s="194"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="195"/>
-      <c r="M16" s="196"/>
-      <c r="O16" s="35" t="s">
-        <v>188</v>
       </c>
       <c r="P16" s="36" t="s">
         <v>54</v>
       </c>
       <c r="Q16" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="R16" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="R16" s="36" t="s">
+      <c r="S16" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="S16" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="U16" s="129" t="s">
+      <c r="U16" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
-      <c r="Y16" s="130"/>
-      <c r="Z16" s="130"/>
-      <c r="AA16" s="130"/>
-      <c r="AB16" s="131"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="95"/>
     </row>
     <row r="17" spans="2:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="38"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="199"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="190"/>
       <c r="O17" s="38"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
       <c r="R17" s="39"/>
       <c r="S17" s="40"/>
       <c r="U17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
+        <v>162</v>
+      </c>
+      <c r="V17" s="165"/>
+      <c r="W17" s="165"/>
+      <c r="X17" s="165"/>
+      <c r="Y17" s="165"/>
+      <c r="Z17" s="165"/>
       <c r="AA17" s="3" t="s">
         <v>47</v>
       </c>
@@ -3266,34 +3265,34 @@
       </c>
     </row>
     <row r="18" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="129" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="131"/>
+      <c r="B18" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
       <c r="I18" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="137"/>
+        <v>219</v>
+      </c>
+      <c r="J18" s="191"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="193"/>
       <c r="O18" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="137"/>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="192"/>
+      <c r="S18" s="193"/>
       <c r="U18" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="V18" s="92"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
+        <v>174</v>
+      </c>
+      <c r="V18" s="157"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
       <c r="Y18" s="6" t="s">
         <v>15</v>
       </c>
@@ -3317,27 +3316,27 @@
         <v>66</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="I19" s="38"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="140"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="196"/>
       <c r="O19" s="38"/>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="140"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="195"/>
+      <c r="R19" s="195"/>
+      <c r="S19" s="196"/>
       <c r="U19" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="V19" s="90"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="91"/>
+        <v>175</v>
+      </c>
+      <c r="V19" s="117"/>
+      <c r="W19" s="141"/>
+      <c r="X19" s="141"/>
       <c r="Y19" s="1" t="s">
         <v>15</v>
       </c>
@@ -3371,25 +3370,25 @@
         <v>E</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="141"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="143"/>
+        <v>100</v>
+      </c>
+      <c r="J20" s="197"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="199"/>
       <c r="O20" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="143"/>
+        <v>191</v>
+      </c>
+      <c r="P20" s="197"/>
+      <c r="Q20" s="198"/>
+      <c r="R20" s="198"/>
+      <c r="S20" s="199"/>
       <c r="U20" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="V20" s="92"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
+        <v>176</v>
+      </c>
+      <c r="V20" s="157"/>
+      <c r="W20" s="158"/>
+      <c r="X20" s="158"/>
       <c r="Y20" s="6" t="s">
         <v>15</v>
       </c>
@@ -3424,32 +3423,32 @@
         <v>10</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="144"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="145"/>
+        <v>99</v>
+      </c>
+      <c r="J21" s="203"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="204"/>
       <c r="O21" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="145"/>
+        <v>192</v>
+      </c>
+      <c r="P21" s="203"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="155"/>
+      <c r="S21" s="204"/>
       <c r="U21" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V21" s="61"/>
       <c r="W21" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X21" s="62">
         <f>W28+Z28+AB28</f>
         <v>0</v>
       </c>
       <c r="Y21" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z21" s="62"/>
       <c r="AA21" s="62" t="s">
@@ -3476,34 +3475,34 @@
       <c r="G22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="146"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="148"/>
-      <c r="O22" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="148"/>
-      <c r="U22" s="95" t="s">
+      <c r="I22" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="149"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="151"/>
+      <c r="O22" s="110" t="s">
+        <v>193</v>
+      </c>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="150"/>
+      <c r="S22" s="151"/>
+      <c r="U22" s="231" t="s">
         <v>52</v>
       </c>
       <c r="V22" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
+      <c r="W22" s="230"/>
+      <c r="X22" s="230"/>
       <c r="Y22" s="41" t="s">
         <v>49</v>
       </c>
       <c r="Z22" s="41"/>
       <c r="AA22" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB22" s="32"/>
     </row>
@@ -3522,22 +3521,22 @@
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
       <c r="G23" s="44"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="148"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="148"/>
-      <c r="U23" s="88"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="151"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="151"/>
+      <c r="U23" s="110"/>
       <c r="V23" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
+        <v>108</v>
+      </c>
+      <c r="W23" s="229"/>
+      <c r="X23" s="229"/>
       <c r="Y23" s="47" t="s">
         <v>15</v>
       </c>
@@ -3570,37 +3569,37 @@
       <c r="G24" s="21">
         <v>10</v>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="151"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="150"/>
-      <c r="S24" s="151"/>
-      <c r="U24" s="88"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="154"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="154"/>
+      <c r="U24" s="110"/>
       <c r="V24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
       <c r="Y24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB24" s="10"/>
     </row>
     <row r="25" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U25" s="88"/>
+      <c r="U25" s="110"/>
       <c r="V25" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
+        <v>108</v>
+      </c>
+      <c r="W25" s="229"/>
+      <c r="X25" s="229"/>
       <c r="Y25" s="47" t="s">
         <v>15</v>
       </c>
@@ -3611,38 +3610,38 @@
       <c r="AB25" s="48"/>
     </row>
     <row r="26" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="185" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="187"/>
-      <c r="I26" s="129" t="s">
+      <c r="B26" s="176" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="178"/>
+      <c r="I26" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="131"/>
-      <c r="U26" s="88"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="95"/>
+      <c r="U26" s="110"/>
       <c r="V26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
       <c r="Y26" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB26" s="10"/>
     </row>
@@ -3665,12 +3664,12 @@
       <c r="I27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="101"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="118"/>
       <c r="P27" s="9" t="s">
         <v>30</v>
       </c>
@@ -3681,12 +3680,12 @@
         <v>2</v>
       </c>
       <c r="S27" s="10"/>
-      <c r="U27" s="96"/>
+      <c r="U27" s="133"/>
       <c r="V27" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
+        <v>108</v>
+      </c>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
       <c r="Y27" s="49" t="s">
         <v>15</v>
       </c>
@@ -3718,26 +3717,26 @@
         <f>D21</f>
         <v>10</v>
       </c>
-      <c r="I28" s="88" t="s">
+      <c r="I28" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="152"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="154"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="136"/>
       <c r="U28" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
+      <c r="V28" s="235"/>
+      <c r="W28" s="235"/>
       <c r="X28" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y28" s="42" t="s">
         <v>15</v>
@@ -3770,24 +3769,24 @@
         <v>40</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="G29" s="10">
         <f>G21</f>
         <v>10</v>
       </c>
-      <c r="I29" s="96"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="156"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="157"/>
-      <c r="U29" s="88" t="s">
+      <c r="I29" s="133"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="139"/>
+      <c r="U29" s="110" t="s">
         <v>53</v>
       </c>
       <c r="V29" s="102"/>
@@ -3800,35 +3799,35 @@
     </row>
     <row r="30" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="74">
         <f>SUM(V4:V11)</f>
         <v>24</v>
       </c>
       <c r="D30" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E30" s="71">
         <f>CEILING(C30 / 5, 1)</f>
         <v>5</v>
       </c>
       <c r="F30" s="72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G30" s="16">
         <f>FLOOR((F21 -3) / 3, 1)+职阶数值!I3</f>
         <v>2</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="101"/>
+        <v>168</v>
+      </c>
+      <c r="J30" s="117"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="118"/>
       <c r="P30" s="9" t="s">
         <v>30</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="10"/>
-      <c r="U30" s="88"/>
+      <c r="U30" s="110"/>
       <c r="V30" s="102"/>
       <c r="W30" s="103"/>
       <c r="X30" s="103"/>
@@ -3870,20 +3869,20 @@
         <f>C24</f>
         <v>10</v>
       </c>
-      <c r="I31" s="88" t="s">
+      <c r="I31" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="152"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="154"/>
-      <c r="U31" s="88"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="136"/>
+      <c r="U31" s="110"/>
       <c r="V31" s="102"/>
       <c r="W31" s="103"/>
       <c r="X31" s="103"/>
@@ -3908,24 +3907,24 @@
         <v>10</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G32" s="77">
         <f>MIN(E24,F24)</f>
         <v>3</v>
       </c>
-      <c r="I32" s="96"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="157"/>
-      <c r="U32" s="88"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="139"/>
+      <c r="U32" s="110"/>
       <c r="V32" s="102"/>
       <c r="W32" s="103"/>
       <c r="X32" s="103"/>
@@ -3943,27 +3942,27 @@
         <v>30</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="68">
         <f>C21* 2</f>
         <v>20</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G33" s="10">
         <v>1</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="101"/>
+        <v>171</v>
+      </c>
+      <c r="J33" s="117"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="118"/>
       <c r="P33" s="9" t="s">
         <v>30</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="S33" s="10"/>
-      <c r="U33" s="88"/>
+      <c r="U33" s="110"/>
       <c r="V33" s="102"/>
       <c r="W33" s="103"/>
       <c r="X33" s="103"/>
@@ -3985,80 +3984,80 @@
     </row>
     <row r="34" spans="2:28" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="71">
         <v>1</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E34" s="74">
         <v>1</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G34" s="16">
         <v>1</v>
       </c>
-      <c r="I34" s="88" t="s">
+      <c r="I34" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="152"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="153"/>
-      <c r="R34" s="153"/>
-      <c r="S34" s="154"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="105"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="106"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="106"/>
-      <c r="AA34" s="106"/>
-      <c r="AB34" s="107"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
+      <c r="N34" s="135"/>
+      <c r="O34" s="135"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="135"/>
+      <c r="R34" s="135"/>
+      <c r="S34" s="136"/>
+      <c r="U34" s="132"/>
+      <c r="V34" s="232"/>
+      <c r="W34" s="233"/>
+      <c r="X34" s="233"/>
+      <c r="Y34" s="233"/>
+      <c r="Z34" s="233"/>
+      <c r="AA34" s="233"/>
+      <c r="AB34" s="234"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B35" s="188" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" s="189"/>
+      <c r="B35" s="179" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="180"/>
       <c r="D35" s="28">
         <v>30</v>
       </c>
-      <c r="E35" s="190" t="s">
-        <v>202</v>
-      </c>
-      <c r="F35" s="189"/>
+      <c r="E35" s="181" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="180"/>
       <c r="G35" s="32">
         <f>D35*2</f>
         <v>60</v>
       </c>
-      <c r="I35" s="96"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="156"/>
-      <c r="Q35" s="156"/>
-      <c r="R35" s="156"/>
-      <c r="S35" s="157"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="138"/>
+      <c r="Q35" s="138"/>
+      <c r="R35" s="138"/>
+      <c r="S35" s="139"/>
       <c r="U35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
+        <v>160</v>
+      </c>
+      <c r="V35" s="165"/>
+      <c r="W35" s="165"/>
+      <c r="X35" s="165"/>
+      <c r="Y35" s="165"/>
+      <c r="Z35" s="165"/>
       <c r="AA35" s="3" t="s">
         <v>2</v>
       </c>
@@ -4068,30 +4067,30 @@
       </c>
     </row>
     <row r="36" spans="2:28" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="191" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="192"/>
+      <c r="B36" s="182" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="183"/>
       <c r="D36" s="29">
         <v>50</v>
       </c>
-      <c r="E36" s="193" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="192"/>
+      <c r="E36" s="184" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="183"/>
       <c r="G36" s="7">
         <f>D36*2</f>
         <v>100</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J36" s="90"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="101"/>
+        <v>170</v>
+      </c>
+      <c r="J36" s="117"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="141"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="118"/>
       <c r="P36" s="9" t="s">
         <v>30</v>
       </c>
@@ -4103,11 +4102,11 @@
       </c>
       <c r="S36" s="10"/>
       <c r="U36" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="V36" s="92"/>
-      <c r="W36" s="93"/>
-      <c r="X36" s="93"/>
+        <v>174</v>
+      </c>
+      <c r="V36" s="157"/>
+      <c r="W36" s="158"/>
+      <c r="X36" s="158"/>
       <c r="Y36" s="6" t="s">
         <v>15</v>
       </c>
@@ -4118,39 +4117,39 @@
       <c r="AB36" s="7"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B37" s="200" t="s">
+      <c r="B37" s="128" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="129"/>
+      <c r="D37" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="201"/>
-      <c r="D37" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="E37" s="202" t="s">
-        <v>207</v>
-      </c>
-      <c r="F37" s="201"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="10">
         <v>0</v>
       </c>
-      <c r="I37" s="88" t="s">
+      <c r="I37" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="152"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="154"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="135"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="135"/>
+      <c r="O37" s="135"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="135"/>
+      <c r="R37" s="135"/>
+      <c r="S37" s="136"/>
       <c r="U37" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="V37" s="90"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
+        <v>175</v>
+      </c>
+      <c r="V37" s="117"/>
+      <c r="W37" s="141"/>
+      <c r="X37" s="141"/>
       <c r="Y37" s="1" t="s">
         <v>15</v>
       </c>
@@ -4160,37 +4159,37 @@
       <c r="AB37" s="10"/>
     </row>
     <row r="38" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="203" t="s">
+      <c r="B38" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="92"/>
+      <c r="D38" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="204"/>
-      <c r="D38" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="216" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" s="204"/>
+      <c r="F38" s="92"/>
       <c r="G38" s="16">
         <v>0</v>
       </c>
-      <c r="I38" s="96"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
-      <c r="Q38" s="156"/>
-      <c r="R38" s="156"/>
-      <c r="S38" s="157"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="138"/>
+      <c r="R38" s="138"/>
+      <c r="S38" s="139"/>
       <c r="U38" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="V38" s="92"/>
-      <c r="W38" s="93"/>
-      <c r="X38" s="93"/>
+        <v>176</v>
+      </c>
+      <c r="V38" s="157"/>
+      <c r="W38" s="158"/>
+      <c r="X38" s="158"/>
       <c r="Y38" s="6" t="s">
         <v>15</v>
       </c>
@@ -4202,14 +4201,14 @@
     </row>
     <row r="39" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I39" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="J39" s="90"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="101"/>
+        <v>169</v>
+      </c>
+      <c r="J39" s="117"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="141"/>
+      <c r="M39" s="141"/>
+      <c r="N39" s="141"/>
+      <c r="O39" s="118"/>
       <c r="P39" s="9" t="s">
         <v>30</v>
       </c>
@@ -4221,18 +4220,18 @@
       </c>
       <c r="S39" s="10"/>
       <c r="U39" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V39" s="61"/>
       <c r="W39" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X39" s="62">
         <f>W46+Z46+AB46</f>
         <v>0</v>
       </c>
       <c r="Y39" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z39" s="62"/>
       <c r="AA39" s="62" t="s">
@@ -4241,70 +4240,70 @@
       <c r="AB39" s="80"/>
     </row>
     <row r="40" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="129" t="s">
+      <c r="B40" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="131"/>
-      <c r="I40" s="88" t="s">
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
+      <c r="I40" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="152"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
-      <c r="N40" s="153"/>
-      <c r="O40" s="153"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="153"/>
-      <c r="R40" s="153"/>
-      <c r="S40" s="154"/>
-      <c r="U40" s="95" t="s">
+      <c r="J40" s="134"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
+      <c r="N40" s="135"/>
+      <c r="O40" s="135"/>
+      <c r="P40" s="135"/>
+      <c r="Q40" s="135"/>
+      <c r="R40" s="135"/>
+      <c r="S40" s="136"/>
+      <c r="U40" s="231" t="s">
         <v>52</v>
       </c>
       <c r="V40" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="W40" s="97"/>
-      <c r="X40" s="97"/>
+      <c r="W40" s="230"/>
+      <c r="X40" s="230"/>
       <c r="Y40" s="41" t="s">
         <v>49</v>
       </c>
       <c r="Z40" s="41"/>
       <c r="AA40" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB40" s="32"/>
     </row>
     <row r="41" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="184" t="s">
+      <c r="B41" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="162"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="205"/>
-      <c r="K41" s="206"/>
-      <c r="L41" s="206"/>
-      <c r="M41" s="206"/>
-      <c r="N41" s="206"/>
-      <c r="O41" s="206"/>
-      <c r="P41" s="206"/>
-      <c r="Q41" s="206"/>
-      <c r="R41" s="206"/>
-      <c r="S41" s="207"/>
-      <c r="U41" s="88"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="166"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="90"/>
+      <c r="U41" s="110"/>
       <c r="V41" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="W41" s="98"/>
-      <c r="X41" s="98"/>
+        <v>108</v>
+      </c>
+      <c r="W41" s="229"/>
+      <c r="X41" s="229"/>
       <c r="Y41" s="47" t="s">
         <v>15</v>
       </c>
@@ -4315,56 +4314,56 @@
       <c r="AB41" s="48"/>
     </row>
     <row r="42" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="180" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" s="181"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="161"/>
-      <c r="U42" s="88"/>
+      <c r="B42" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="168"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="164"/>
+      <c r="U42" s="110"/>
       <c r="V42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W42" s="99"/>
-      <c r="X42" s="99"/>
+      <c r="W42" s="155"/>
+      <c r="X42" s="155"/>
       <c r="Y42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB42" s="10"/>
     </row>
     <row r="43" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="182"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="126"/>
-      <c r="I43" s="129" t="s">
+      <c r="C43" s="169"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="171"/>
+      <c r="I43" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="130"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="130"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="130"/>
-      <c r="S43" s="131"/>
-      <c r="U43" s="88"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="95"/>
+      <c r="U43" s="110"/>
       <c r="V43" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="W43" s="98"/>
-      <c r="X43" s="98"/>
+        <v>108</v>
+      </c>
+      <c r="W43" s="229"/>
+      <c r="X43" s="229"/>
       <c r="Y43" s="47" t="s">
         <v>15</v>
       </c>
@@ -4375,21 +4374,21 @@
       <c r="AB43" s="48"/>
     </row>
     <row r="44" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="118"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="126"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="171"/>
       <c r="I44" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J44" s="208"/>
-      <c r="K44" s="209"/>
-      <c r="L44" s="209"/>
-      <c r="M44" s="209"/>
-      <c r="N44" s="209"/>
-      <c r="O44" s="210"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="143"/>
+      <c r="L44" s="143"/>
+      <c r="M44" s="143"/>
+      <c r="N44" s="143"/>
+      <c r="O44" s="144"/>
       <c r="P44" s="9" t="s">
         <v>30</v>
       </c>
@@ -4400,46 +4399,46 @@
         <v>2</v>
       </c>
       <c r="S44" s="10"/>
-      <c r="U44" s="88"/>
+      <c r="U44" s="110"/>
       <c r="V44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W44" s="99"/>
-      <c r="X44" s="99"/>
+      <c r="W44" s="155"/>
+      <c r="X44" s="155"/>
       <c r="Y44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB44" s="10"/>
     </row>
     <row r="45" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="118"/>
-      <c r="C45" s="182"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="126"/>
-      <c r="I45" s="88" t="s">
+      <c r="B45" s="109"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="171"/>
+      <c r="I45" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="152"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
-      <c r="S45" s="154"/>
-      <c r="U45" s="96"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="135"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="135"/>
+      <c r="S45" s="136"/>
+      <c r="U45" s="133"/>
       <c r="V45" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="W45" s="100"/>
-      <c r="X45" s="100"/>
+        <v>108</v>
+      </c>
+      <c r="W45" s="156"/>
+      <c r="X45" s="156"/>
       <c r="Y45" s="49" t="s">
         <v>15</v>
       </c>
@@ -4450,30 +4449,30 @@
       <c r="AB45" s="50"/>
     </row>
     <row r="46" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="118"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="126"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="155"/>
-      <c r="K46" s="156"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
-      <c r="N46" s="156"/>
-      <c r="O46" s="156"/>
-      <c r="P46" s="156"/>
-      <c r="Q46" s="156"/>
-      <c r="R46" s="156"/>
-      <c r="S46" s="157"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="171"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="138"/>
+      <c r="P46" s="138"/>
+      <c r="Q46" s="138"/>
+      <c r="R46" s="138"/>
+      <c r="S46" s="139"/>
       <c r="U46" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V46" s="87"/>
-      <c r="W46" s="87"/>
+      <c r="V46" s="235"/>
+      <c r="W46" s="235"/>
       <c r="X46" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y46" s="42" t="s">
         <v>15</v>
@@ -4491,21 +4490,21 @@
       </c>
     </row>
     <row r="47" spans="2:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="119"/>
-      <c r="C47" s="183"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="128"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="172"/>
+      <c r="D47" s="173"/>
+      <c r="E47" s="173"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="174"/>
       <c r="I47" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="90"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="101"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="141"/>
+      <c r="L47" s="141"/>
+      <c r="M47" s="141"/>
+      <c r="N47" s="141"/>
+      <c r="O47" s="118"/>
       <c r="P47" s="9" t="s">
         <v>30</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>2</v>
       </c>
       <c r="S47" s="10"/>
-      <c r="U47" s="88" t="s">
+      <c r="U47" s="110" t="s">
         <v>53</v>
       </c>
       <c r="V47" s="102"/>
@@ -4528,28 +4527,28 @@
       <c r="AB47" s="104"/>
     </row>
     <row r="48" spans="2:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="211" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="212"/>
-      <c r="D48" s="213"/>
-      <c r="E48" s="213"/>
-      <c r="F48" s="213"/>
-      <c r="G48" s="214"/>
-      <c r="I48" s="88" t="s">
+      <c r="B48" s="145" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="146"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="148"/>
+      <c r="I48" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="152"/>
-      <c r="K48" s="153"/>
-      <c r="L48" s="153"/>
-      <c r="M48" s="153"/>
-      <c r="N48" s="153"/>
-      <c r="O48" s="153"/>
-      <c r="P48" s="153"/>
-      <c r="Q48" s="153"/>
-      <c r="R48" s="153"/>
-      <c r="S48" s="154"/>
-      <c r="U48" s="88"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="135"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
+      <c r="N48" s="135"/>
+      <c r="O48" s="135"/>
+      <c r="P48" s="135"/>
+      <c r="Q48" s="135"/>
+      <c r="R48" s="135"/>
+      <c r="S48" s="136"/>
+      <c r="U48" s="110"/>
       <c r="V48" s="102"/>
       <c r="W48" s="103"/>
       <c r="X48" s="103"/>
@@ -4559,24 +4558,24 @@
       <c r="AB48" s="104"/>
     </row>
     <row r="49" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="88"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="148"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="155"/>
-      <c r="K49" s="156"/>
-      <c r="L49" s="156"/>
-      <c r="M49" s="156"/>
-      <c r="N49" s="156"/>
-      <c r="O49" s="156"/>
-      <c r="P49" s="156"/>
-      <c r="Q49" s="156"/>
-      <c r="R49" s="156"/>
-      <c r="S49" s="157"/>
-      <c r="U49" s="88"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="151"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="138"/>
+      <c r="L49" s="138"/>
+      <c r="M49" s="138"/>
+      <c r="N49" s="138"/>
+      <c r="O49" s="138"/>
+      <c r="P49" s="138"/>
+      <c r="Q49" s="138"/>
+      <c r="R49" s="138"/>
+      <c r="S49" s="139"/>
+      <c r="U49" s="110"/>
       <c r="V49" s="102"/>
       <c r="W49" s="103"/>
       <c r="X49" s="103"/>
@@ -4586,21 +4585,21 @@
       <c r="AB49" s="104"/>
     </row>
     <row r="50" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="88"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="148"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="151"/>
       <c r="I50" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="90"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="101"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="141"/>
+      <c r="M50" s="141"/>
+      <c r="N50" s="141"/>
+      <c r="O50" s="118"/>
       <c r="P50" s="9" t="s">
         <v>30</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="S50" s="10"/>
-      <c r="U50" s="88"/>
+      <c r="U50" s="110"/>
       <c r="V50" s="102"/>
       <c r="W50" s="103"/>
       <c r="X50" s="103"/>
@@ -4621,26 +4620,26 @@
       <c r="AB50" s="104"/>
     </row>
     <row r="51" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="88"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="148"/>
-      <c r="I51" s="88" t="s">
+      <c r="B51" s="110"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="151"/>
+      <c r="I51" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="J51" s="152"/>
-      <c r="K51" s="153"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="153"/>
-      <c r="N51" s="153"/>
-      <c r="O51" s="153"/>
-      <c r="P51" s="153"/>
-      <c r="Q51" s="153"/>
-      <c r="R51" s="153"/>
-      <c r="S51" s="154"/>
-      <c r="U51" s="88"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
+      <c r="N51" s="135"/>
+      <c r="O51" s="135"/>
+      <c r="P51" s="135"/>
+      <c r="Q51" s="135"/>
+      <c r="R51" s="135"/>
+      <c r="S51" s="136"/>
+      <c r="U51" s="110"/>
       <c r="V51" s="102"/>
       <c r="W51" s="103"/>
       <c r="X51" s="103"/>
@@ -4650,49 +4649,49 @@
       <c r="AB51" s="104"/>
     </row>
     <row r="52" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="89"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="150"/>
-      <c r="E52" s="150"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="151"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="205"/>
-      <c r="K52" s="206"/>
-      <c r="L52" s="206"/>
-      <c r="M52" s="206"/>
-      <c r="N52" s="206"/>
-      <c r="O52" s="206"/>
-      <c r="P52" s="206"/>
-      <c r="Q52" s="206"/>
-      <c r="R52" s="206"/>
-      <c r="S52" s="207"/>
-      <c r="U52" s="89"/>
-      <c r="V52" s="105"/>
-      <c r="W52" s="106"/>
-      <c r="X52" s="106"/>
-      <c r="Y52" s="106"/>
-      <c r="Z52" s="106"/>
-      <c r="AA52" s="106"/>
-      <c r="AB52" s="107"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="154"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="90"/>
+      <c r="U52" s="132"/>
+      <c r="V52" s="232"/>
+      <c r="W52" s="233"/>
+      <c r="X52" s="233"/>
+      <c r="Y52" s="233"/>
+      <c r="Z52" s="233"/>
+      <c r="AA52" s="233"/>
+      <c r="AB52" s="234"/>
     </row>
     <row r="53" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="117" t="s">
+      <c r="B53" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="116"/>
+      <c r="C53" s="227"/>
+      <c r="D53" s="227"/>
+      <c r="E53" s="227"/>
+      <c r="F53" s="227"/>
+      <c r="G53" s="228"/>
       <c r="U53" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="V53" s="94"/>
-      <c r="W53" s="94"/>
-      <c r="X53" s="94"/>
-      <c r="Y53" s="94"/>
-      <c r="Z53" s="94"/>
+        <v>161</v>
+      </c>
+      <c r="V53" s="165"/>
+      <c r="W53" s="165"/>
+      <c r="X53" s="165"/>
+      <c r="Y53" s="165"/>
+      <c r="Z53" s="165"/>
       <c r="AA53" s="3" t="s">
         <v>2</v>
       </c>
@@ -4702,32 +4701,32 @@
       </c>
     </row>
     <row r="54" spans="2:28" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="118"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="126"/>
-      <c r="I54" s="129" t="s">
+      <c r="B54" s="109"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="171"/>
+      <c r="I54" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="130"/>
-      <c r="K54" s="130"/>
-      <c r="L54" s="130"/>
-      <c r="M54" s="131"/>
-      <c r="O54" s="129" t="s">
-        <v>184</v>
-      </c>
-      <c r="P54" s="130"/>
-      <c r="Q54" s="130"/>
-      <c r="R54" s="130"/>
-      <c r="S54" s="131"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="95"/>
+      <c r="O54" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="95"/>
       <c r="U54" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="V54" s="92"/>
-      <c r="W54" s="93"/>
-      <c r="X54" s="93"/>
+        <v>174</v>
+      </c>
+      <c r="V54" s="157"/>
+      <c r="W54" s="158"/>
+      <c r="X54" s="158"/>
       <c r="Y54" s="6" t="s">
         <v>15</v>
       </c>
@@ -4738,32 +4737,32 @@
       <c r="AB54" s="7"/>
     </row>
     <row r="55" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="118"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="126"/>
-      <c r="I55" s="117" t="s">
+      <c r="B55" s="109"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="171"/>
+      <c r="I55" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="217"/>
-      <c r="K55" s="218"/>
-      <c r="L55" s="218"/>
-      <c r="M55" s="219"/>
-      <c r="O55" s="117" t="s">
-        <v>181</v>
-      </c>
-      <c r="P55" s="217"/>
-      <c r="Q55" s="218"/>
-      <c r="R55" s="218"/>
-      <c r="S55" s="219"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="97"/>
+      <c r="L55" s="97"/>
+      <c r="M55" s="98"/>
+      <c r="O55" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="P55" s="96"/>
+      <c r="Q55" s="97"/>
+      <c r="R55" s="97"/>
+      <c r="S55" s="98"/>
       <c r="U55" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="V55" s="90"/>
-      <c r="W55" s="91"/>
-      <c r="X55" s="91"/>
+        <v>175</v>
+      </c>
+      <c r="V55" s="117"/>
+      <c r="W55" s="141"/>
+      <c r="X55" s="141"/>
       <c r="Y55" s="1" t="s">
         <v>15</v>
       </c>
@@ -4773,28 +4772,28 @@
       <c r="AB55" s="10"/>
     </row>
     <row r="56" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="118"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="126"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="220"/>
-      <c r="K56" s="221"/>
-      <c r="L56" s="221"/>
-      <c r="M56" s="222"/>
-      <c r="O56" s="118"/>
-      <c r="P56" s="220"/>
-      <c r="Q56" s="221"/>
-      <c r="R56" s="221"/>
-      <c r="S56" s="222"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="170"/>
+      <c r="G56" s="171"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="101"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="100"/>
+      <c r="R56" s="100"/>
+      <c r="S56" s="101"/>
       <c r="U56" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="V56" s="92"/>
-      <c r="W56" s="93"/>
-      <c r="X56" s="93"/>
+        <v>176</v>
+      </c>
+      <c r="V56" s="157"/>
+      <c r="W56" s="158"/>
+      <c r="X56" s="158"/>
       <c r="Y56" s="6" t="s">
         <v>15</v>
       </c>
@@ -4805,35 +4804,35 @@
       <c r="AB56" s="7"/>
     </row>
     <row r="57" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="119"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="128"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="220"/>
-      <c r="K57" s="221"/>
-      <c r="L57" s="221"/>
-      <c r="M57" s="222"/>
-      <c r="O57" s="118"/>
-      <c r="P57" s="220"/>
-      <c r="Q57" s="221"/>
-      <c r="R57" s="221"/>
-      <c r="S57" s="222"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="173"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="173"/>
+      <c r="F57" s="173"/>
+      <c r="G57" s="174"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="101"/>
+      <c r="O57" s="109"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="100"/>
+      <c r="R57" s="100"/>
+      <c r="S57" s="101"/>
       <c r="U57" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V57" s="61"/>
       <c r="W57" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X57" s="62">
         <f>W64+Z64+AB64</f>
         <v>0</v>
       </c>
       <c r="Y57" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z57" s="62"/>
       <c r="AA57" s="62" t="s">
@@ -4842,62 +4841,62 @@
       <c r="AB57" s="80"/>
     </row>
     <row r="58" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I58" s="88" t="s">
-        <v>104</v>
+      <c r="I58" s="110" t="s">
+        <v>103</v>
       </c>
       <c r="J58" s="102"/>
       <c r="K58" s="103"/>
       <c r="L58" s="103"/>
       <c r="M58" s="104"/>
-      <c r="O58" s="88" t="s">
-        <v>182</v>
+      <c r="O58" s="110" t="s">
+        <v>181</v>
       </c>
       <c r="P58" s="102"/>
       <c r="Q58" s="103"/>
       <c r="R58" s="103"/>
       <c r="S58" s="104"/>
-      <c r="U58" s="95" t="s">
+      <c r="U58" s="231" t="s">
         <v>52</v>
       </c>
       <c r="V58" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="W58" s="97"/>
-      <c r="X58" s="97"/>
+      <c r="W58" s="230"/>
+      <c r="X58" s="230"/>
       <c r="Y58" s="41" t="s">
         <v>49</v>
       </c>
       <c r="Z58" s="41"/>
       <c r="AA58" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB58" s="32"/>
     </row>
     <row r="59" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="129" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="131"/>
-      <c r="I59" s="88"/>
+      <c r="B59" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="95"/>
+      <c r="I59" s="110"/>
       <c r="J59" s="102"/>
       <c r="K59" s="103"/>
       <c r="L59" s="103"/>
       <c r="M59" s="104"/>
-      <c r="O59" s="88"/>
+      <c r="O59" s="110"/>
       <c r="P59" s="102"/>
       <c r="Q59" s="103"/>
       <c r="R59" s="103"/>
       <c r="S59" s="104"/>
-      <c r="U59" s="88"/>
+      <c r="U59" s="110"/>
       <c r="V59" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="W59" s="98"/>
-      <c r="X59" s="98"/>
+        <v>108</v>
+      </c>
+      <c r="W59" s="229"/>
+      <c r="X59" s="229"/>
       <c r="Y59" s="47" t="s">
         <v>15</v>
       </c>
@@ -4909,70 +4908,70 @@
     </row>
     <row r="60" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="114"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="116"/>
-      <c r="I60" s="88"/>
+        <v>164</v>
+      </c>
+      <c r="C60" s="226"/>
+      <c r="D60" s="227"/>
+      <c r="E60" s="227"/>
+      <c r="F60" s="227"/>
+      <c r="G60" s="228"/>
+      <c r="I60" s="110"/>
       <c r="J60" s="102"/>
       <c r="K60" s="103"/>
       <c r="L60" s="103"/>
       <c r="M60" s="104"/>
-      <c r="O60" s="88"/>
+      <c r="O60" s="110"/>
       <c r="P60" s="102"/>
       <c r="Q60" s="103"/>
       <c r="R60" s="103"/>
       <c r="S60" s="104"/>
-      <c r="U60" s="88"/>
+      <c r="U60" s="110"/>
       <c r="V60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W60" s="99"/>
-      <c r="X60" s="99"/>
+      <c r="W60" s="155"/>
+      <c r="X60" s="155"/>
       <c r="Y60" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB60" s="10"/>
     </row>
     <row r="61" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C61" s="66"/>
       <c r="D61" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E61" s="66"/>
       <c r="F61" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G61" s="67"/>
-      <c r="I61" s="118" t="s">
+      <c r="I61" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="J61" s="220"/>
-      <c r="K61" s="221"/>
-      <c r="L61" s="221"/>
-      <c r="M61" s="222"/>
-      <c r="O61" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="P61" s="220"/>
-      <c r="Q61" s="221"/>
-      <c r="R61" s="221"/>
-      <c r="S61" s="222"/>
-      <c r="U61" s="88"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="101"/>
+      <c r="O61" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="P61" s="99"/>
+      <c r="Q61" s="100"/>
+      <c r="R61" s="100"/>
+      <c r="S61" s="101"/>
+      <c r="U61" s="110"/>
       <c r="V61" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="W61" s="98"/>
-      <c r="X61" s="98"/>
+        <v>108</v>
+      </c>
+      <c r="W61" s="229"/>
+      <c r="X61" s="229"/>
       <c r="Y61" s="47" t="s">
         <v>15</v>
       </c>
@@ -4983,59 +4982,59 @@
       <c r="AB61" s="48"/>
     </row>
     <row r="62" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="108"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="110"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="220"/>
-      <c r="K62" s="221"/>
-      <c r="L62" s="221"/>
-      <c r="M62" s="222"/>
-      <c r="O62" s="118"/>
-      <c r="P62" s="220"/>
-      <c r="Q62" s="221"/>
-      <c r="R62" s="221"/>
-      <c r="S62" s="222"/>
-      <c r="U62" s="88"/>
+      <c r="B62" s="220"/>
+      <c r="C62" s="221"/>
+      <c r="D62" s="221"/>
+      <c r="E62" s="221"/>
+      <c r="F62" s="221"/>
+      <c r="G62" s="222"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="101"/>
+      <c r="O62" s="109"/>
+      <c r="P62" s="99"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100"/>
+      <c r="S62" s="101"/>
+      <c r="U62" s="110"/>
       <c r="V62" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W62" s="99"/>
-      <c r="X62" s="99"/>
+      <c r="W62" s="155"/>
+      <c r="X62" s="155"/>
       <c r="Y62" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB62" s="10"/>
     </row>
     <row r="63" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="108"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="110"/>
-      <c r="I63" s="119"/>
-      <c r="J63" s="223"/>
-      <c r="K63" s="224"/>
-      <c r="L63" s="224"/>
-      <c r="M63" s="225"/>
-      <c r="O63" s="119"/>
-      <c r="P63" s="223"/>
-      <c r="Q63" s="224"/>
-      <c r="R63" s="224"/>
-      <c r="S63" s="225"/>
-      <c r="U63" s="96"/>
+      <c r="B63" s="220"/>
+      <c r="C63" s="221"/>
+      <c r="D63" s="221"/>
+      <c r="E63" s="221"/>
+      <c r="F63" s="221"/>
+      <c r="G63" s="222"/>
+      <c r="I63" s="111"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="106"/>
+      <c r="L63" s="106"/>
+      <c r="M63" s="107"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="105"/>
+      <c r="Q63" s="106"/>
+      <c r="R63" s="106"/>
+      <c r="S63" s="107"/>
+      <c r="U63" s="133"/>
       <c r="V63" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="W63" s="100"/>
-      <c r="X63" s="100"/>
+        <v>108</v>
+      </c>
+      <c r="W63" s="156"/>
+      <c r="X63" s="156"/>
       <c r="Y63" s="49" t="s">
         <v>15</v>
       </c>
@@ -5046,19 +5045,19 @@
       <c r="AB63" s="50"/>
     </row>
     <row r="64" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="108"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="110"/>
+      <c r="B64" s="220"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
+      <c r="E64" s="221"/>
+      <c r="F64" s="221"/>
+      <c r="G64" s="222"/>
       <c r="U64" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V64" s="87"/>
-      <c r="W64" s="87"/>
+      <c r="V64" s="235"/>
+      <c r="W64" s="235"/>
       <c r="X64" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y64" s="42" t="s">
         <v>15</v>
@@ -5076,27 +5075,27 @@
       </c>
     </row>
     <row r="65" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="108"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="110"/>
-      <c r="I65" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="J65" s="130"/>
-      <c r="K65" s="130"/>
-      <c r="L65" s="130"/>
-      <c r="M65" s="131"/>
-      <c r="O65" s="129" t="s">
+      <c r="B65" s="220"/>
+      <c r="C65" s="221"/>
+      <c r="D65" s="221"/>
+      <c r="E65" s="221"/>
+      <c r="F65" s="221"/>
+      <c r="G65" s="222"/>
+      <c r="I65" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="J65" s="94"/>
+      <c r="K65" s="94"/>
+      <c r="L65" s="94"/>
+      <c r="M65" s="95"/>
+      <c r="O65" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="P65" s="130"/>
-      <c r="Q65" s="130"/>
-      <c r="R65" s="130"/>
-      <c r="S65" s="131"/>
-      <c r="U65" s="88" t="s">
+      <c r="P65" s="94"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="95"/>
+      <c r="U65" s="110" t="s">
         <v>53</v>
       </c>
       <c r="V65" s="102"/>
@@ -5108,31 +5107,31 @@
       <c r="AB65" s="104"/>
     </row>
     <row r="66" spans="2:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="108"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="110"/>
+      <c r="B66" s="220"/>
+      <c r="C66" s="221"/>
+      <c r="D66" s="221"/>
+      <c r="E66" s="221"/>
+      <c r="F66" s="221"/>
+      <c r="G66" s="222"/>
       <c r="I66" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="J66" s="120"/>
-      <c r="K66" s="121"/>
+        <v>177</v>
+      </c>
+      <c r="J66" s="115"/>
+      <c r="K66" s="116"/>
       <c r="L66" s="76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M66" s="4"/>
       <c r="O66" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="P66" s="120"/>
-      <c r="Q66" s="121"/>
+        <v>214</v>
+      </c>
+      <c r="P66" s="115"/>
+      <c r="Q66" s="116"/>
       <c r="R66" s="76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S66" s="4"/>
-      <c r="U66" s="88"/>
+      <c r="U66" s="110"/>
       <c r="V66" s="102"/>
       <c r="W66" s="103"/>
       <c r="X66" s="103"/>
@@ -5142,23 +5141,23 @@
       <c r="AB66" s="104"/>
     </row>
     <row r="67" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="108"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="110"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="123"/>
-      <c r="K67" s="123"/>
-      <c r="L67" s="123"/>
-      <c r="M67" s="124"/>
-      <c r="O67" s="122"/>
-      <c r="P67" s="123"/>
-      <c r="Q67" s="123"/>
-      <c r="R67" s="123"/>
-      <c r="S67" s="124"/>
-      <c r="U67" s="88"/>
+      <c r="B67" s="220"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
+      <c r="E67" s="221"/>
+      <c r="F67" s="221"/>
+      <c r="G67" s="222"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="113"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="114"/>
+      <c r="O67" s="112"/>
+      <c r="P67" s="113"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="113"/>
+      <c r="S67" s="114"/>
+      <c r="U67" s="110"/>
       <c r="V67" s="102"/>
       <c r="W67" s="103"/>
       <c r="X67" s="103"/>
@@ -5168,31 +5167,31 @@
       <c r="AB67" s="104"/>
     </row>
     <row r="68" spans="2:28" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="112"/>
-      <c r="G68" s="113"/>
+      <c r="B68" s="223"/>
+      <c r="C68" s="224"/>
+      <c r="D68" s="224"/>
+      <c r="E68" s="224"/>
+      <c r="F68" s="224"/>
+      <c r="G68" s="225"/>
       <c r="I68" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="J68" s="90"/>
-      <c r="K68" s="101"/>
+        <v>178</v>
+      </c>
+      <c r="J68" s="117"/>
+      <c r="K68" s="118"/>
       <c r="L68" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M68" s="10"/>
       <c r="O68" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="P68" s="90"/>
-      <c r="Q68" s="101"/>
+        <v>215</v>
+      </c>
+      <c r="P68" s="117"/>
+      <c r="Q68" s="118"/>
       <c r="R68" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S68" s="10"/>
-      <c r="U68" s="88"/>
+      <c r="U68" s="110"/>
       <c r="V68" s="102"/>
       <c r="W68" s="103"/>
       <c r="X68" s="103"/>
@@ -5202,17 +5201,17 @@
       <c r="AB68" s="104"/>
     </row>
     <row r="69" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="122"/>
-      <c r="J69" s="123"/>
-      <c r="K69" s="123"/>
-      <c r="L69" s="123"/>
-      <c r="M69" s="124"/>
-      <c r="O69" s="122"/>
-      <c r="P69" s="123"/>
-      <c r="Q69" s="123"/>
-      <c r="R69" s="123"/>
-      <c r="S69" s="124"/>
-      <c r="U69" s="88"/>
+      <c r="I69" s="112"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="113"/>
+      <c r="L69" s="113"/>
+      <c r="M69" s="114"/>
+      <c r="O69" s="112"/>
+      <c r="P69" s="113"/>
+      <c r="Q69" s="113"/>
+      <c r="R69" s="113"/>
+      <c r="S69" s="114"/>
+      <c r="U69" s="110"/>
       <c r="V69" s="102"/>
       <c r="W69" s="103"/>
       <c r="X69" s="103"/>
@@ -5222,85 +5221,229 @@
       <c r="AB69" s="104"/>
     </row>
     <row r="70" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="129" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
-      <c r="G70" s="131"/>
+      <c r="B70" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="95"/>
       <c r="I70" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="J70" s="90"/>
-      <c r="K70" s="101"/>
+        <v>179</v>
+      </c>
+      <c r="J70" s="117"/>
+      <c r="K70" s="118"/>
       <c r="L70" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M70" s="10"/>
       <c r="O70" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="P70" s="90"/>
-      <c r="Q70" s="101"/>
+        <v>216</v>
+      </c>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="118"/>
       <c r="R70" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S70" s="10"/>
-      <c r="U70" s="89"/>
-      <c r="V70" s="105"/>
-      <c r="W70" s="106"/>
-      <c r="X70" s="106"/>
-      <c r="Y70" s="106"/>
-      <c r="Z70" s="106"/>
-      <c r="AA70" s="106"/>
-      <c r="AB70" s="107"/>
+      <c r="U70" s="132"/>
+      <c r="V70" s="232"/>
+      <c r="W70" s="233"/>
+      <c r="X70" s="233"/>
+      <c r="Y70" s="233"/>
+      <c r="Z70" s="233"/>
+      <c r="AA70" s="233"/>
+      <c r="AB70" s="234"/>
     </row>
     <row r="71" spans="2:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="226"/>
-      <c r="C71" s="227"/>
-      <c r="D71" s="227"/>
-      <c r="E71" s="227"/>
-      <c r="F71" s="227"/>
-      <c r="G71" s="228"/>
-      <c r="I71" s="215"/>
-      <c r="J71" s="206"/>
-      <c r="K71" s="206"/>
-      <c r="L71" s="206"/>
-      <c r="M71" s="207"/>
-      <c r="O71" s="215"/>
-      <c r="P71" s="206"/>
-      <c r="Q71" s="206"/>
-      <c r="R71" s="206"/>
-      <c r="S71" s="207"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="120"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="121"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="89"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="89"/>
+      <c r="M71" s="90"/>
+      <c r="O71" s="88"/>
+      <c r="P71" s="89"/>
+      <c r="Q71" s="89"/>
+      <c r="R71" s="89"/>
+      <c r="S71" s="90"/>
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B72" s="229"/>
-      <c r="C72" s="230"/>
-      <c r="D72" s="230"/>
-      <c r="E72" s="230"/>
-      <c r="F72" s="230"/>
-      <c r="G72" s="231"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="123"/>
+      <c r="D72" s="123"/>
+      <c r="E72" s="123"/>
+      <c r="F72" s="123"/>
+      <c r="G72" s="124"/>
     </row>
     <row r="73" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="229"/>
-      <c r="C73" s="230"/>
-      <c r="D73" s="230"/>
-      <c r="E73" s="230"/>
-      <c r="F73" s="230"/>
-      <c r="G73" s="231"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="124"/>
     </row>
     <row r="74" spans="2:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="232"/>
-      <c r="C74" s="233"/>
-      <c r="D74" s="233"/>
-      <c r="E74" s="233"/>
-      <c r="F74" s="233"/>
-      <c r="G74" s="234"/>
+      <c r="B74" s="125"/>
+      <c r="C74" s="126"/>
+      <c r="D74" s="126"/>
+      <c r="E74" s="126"/>
+      <c r="F74" s="126"/>
+      <c r="G74" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="U65:U70"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V53:Z53"/>
+    <mergeCell ref="U58:U63"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="U47:U52"/>
+    <mergeCell ref="U22:U27"/>
+    <mergeCell ref="V29:AB34"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="U40:U45"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="U29:U34"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V47:AB52"/>
+    <mergeCell ref="V65:AB70"/>
+    <mergeCell ref="B62:G68"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="O67:S67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:G57"/>
+    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="U16:AB16"/>
+    <mergeCell ref="V17:Z17"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="P10:S12"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:S38"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:M24"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P18:S19"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="P22:S24"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:S35"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:S29"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:S32"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:M12"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B10:D16"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="C43:G47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J16:M17"/>
+    <mergeCell ref="I26:S26"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="J18:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:S49"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:S41"/>
+    <mergeCell ref="J51:S52"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="I43:S43"/>
+    <mergeCell ref="J45:S46"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:G52"/>
     <mergeCell ref="O71:S71"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="I54:M54"/>
@@ -5325,150 +5468,6 @@
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="O65:S65"/>
     <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:S49"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:S41"/>
-    <mergeCell ref="J51:S52"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="I43:S43"/>
-    <mergeCell ref="J45:S46"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:G52"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="C43:G47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J16:M17"/>
-    <mergeCell ref="I26:S26"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="J18:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:M12"/>
-    <mergeCell ref="J6:M7"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B10:D16"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:S38"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:M24"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P18:S19"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="P22:S24"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:S35"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:S29"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:S32"/>
-    <mergeCell ref="U2:AB2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="U16:AB16"/>
-    <mergeCell ref="V17:Z17"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:S12"/>
-    <mergeCell ref="B62:G68"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="O67:S67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:G57"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="U47:U52"/>
-    <mergeCell ref="U22:U27"/>
-    <mergeCell ref="V29:AB34"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="U40:U45"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="U29:U34"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="V47:AB52"/>
-    <mergeCell ref="V65:AB70"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="U65:U70"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V53:Z53"/>
-    <mergeCell ref="U58:U63"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="W63:X63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5524,27 +5523,27 @@
         <v>10</v>
       </c>
       <c r="D2" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="F2" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="81" t="s">
-        <v>114</v>
-      </c>
       <c r="H2" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="83" t="str">
         <f>角色卡!C5</f>
@@ -5576,11 +5575,11 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="235" t="s">
-        <v>123</v>
+      <c r="B4" s="236" t="s">
+        <v>122</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="83">
         <v>3</v>
@@ -5602,9 +5601,9 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="235"/>
+      <c r="B5" s="236"/>
       <c r="C5" s="83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="83">
         <v>3</v>
@@ -5626,9 +5625,9 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="235"/>
+      <c r="B6" s="236"/>
       <c r="C6" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="83">
         <v>3</v>
@@ -5650,9 +5649,9 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="235"/>
+      <c r="B7" s="236"/>
       <c r="C7" s="83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="83">
         <v>3</v>
@@ -5674,9 +5673,9 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="235"/>
+      <c r="B8" s="236"/>
       <c r="C8" s="83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="83">
         <v>2</v>
@@ -5698,9 +5697,9 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="235"/>
+      <c r="B9" s="236"/>
       <c r="C9" s="83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="83">
         <v>2</v>
@@ -5722,9 +5721,9 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="235"/>
+      <c r="B10" s="236"/>
       <c r="C10" s="84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="84">
         <v>4</v>
@@ -5746,11 +5745,11 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="235" t="s">
-        <v>231</v>
+      <c r="B11" s="236" t="s">
+        <v>230</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
@@ -5760,9 +5759,9 @@
       <c r="I11" s="85"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="235"/>
+      <c r="B12" s="236"/>
       <c r="C12" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
@@ -5772,9 +5771,9 @@
       <c r="I12" s="85"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="235"/>
+      <c r="B13" s="236"/>
       <c r="C13" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
@@ -5784,9 +5783,9 @@
       <c r="I13" s="85"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="235"/>
+      <c r="B14" s="236"/>
       <c r="C14" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
@@ -5796,9 +5795,9 @@
       <c r="I14" s="85"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="235"/>
+      <c r="B15" s="236"/>
       <c r="C15" s="85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
@@ -5808,9 +5807,9 @@
       <c r="I15" s="85"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="235"/>
+      <c r="B16" s="236"/>
       <c r="C16" s="85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
@@ -5820,9 +5819,9 @@
       <c r="I16" s="85"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="235"/>
+      <c r="B17" s="236"/>
       <c r="C17" s="85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="85"/>
@@ -5833,10 +5832,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
@@ -5868,25 +5867,25 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="58" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -5897,19 +5896,19 @@
         <v>10</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" s="59">
         <v>0</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -5920,19 +5919,19 @@
         <v>10</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I4" s="59">
         <v>3</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -5943,19 +5942,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="59" t="s">
         <v>157</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>158</v>
       </c>
       <c r="I5" s="59">
         <v>6</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -5966,13 +5965,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="59">
         <v>11</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -5983,13 +5982,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="59">
         <v>16</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -6000,13 +5999,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" s="59">
         <v>21</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -6017,13 +6016,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="59">
         <v>26</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -6034,13 +6033,13 @@
         <v>12</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="59">
         <v>31</v>
       </c>
       <c r="J10" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -6051,13 +6050,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I11" s="59">
         <v>36</v>
       </c>
       <c r="J11" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -6068,13 +6067,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I12" s="59">
         <v>41</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -6085,13 +6084,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" s="59">
         <v>44</v>
       </c>
       <c r="J13" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -6102,13 +6101,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" s="59">
         <v>47</v>
       </c>
       <c r="J14" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -6119,13 +6118,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I15" s="59">
         <v>50</v>
       </c>
       <c r="J15" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -6136,7 +6135,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -6147,7 +6146,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -6158,7 +6157,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
